--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MKT\Desktop\MTB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B5696B-84D0-435A-8319-25C9F1CF708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5088E7-EA50-46D3-A5DB-4D515B9ED851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" tabRatio="298" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="15435" tabRatio="298" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="479">
   <si>
     <t>Range</t>
   </si>
@@ -1542,6 +1542,12 @@
   </si>
   <si>
     <t>Solbakken_EMT</t>
+  </si>
+  <si>
+    <t>Atleast 1s</t>
+  </si>
+  <si>
+    <t>Atleast 0,1s</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2145,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2553,6 +2559,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Farve3" xfId="1" builtinId="38"/>
@@ -2843,7 +2852,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,12 +3149,14 @@
         <v>28</v>
       </c>
       <c r="B21" s="45">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="163" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
@@ -3157,7 +3168,9 @@
       <c r="C22" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="163" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
@@ -3228,6 +3241,16 @@
   <mergeCells count="1">
     <mergeCell ref="G14:I14"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{47C97EA5-00CA-4E06-B63F-2ED7D203FE97}">
+      <formula1>1</formula1>
+      <formula2>99999999</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22" xr:uid="{B8F7F6F9-D94A-485B-BBB8-9B81074994B0}">
+      <formula1>0.1</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -31628,6 +31651,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
@@ -31636,15 +31668,6 @@
     <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31897,6 +31920,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B21D61-7BBD-4BD3-A9A5-1E8F98F2F686}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
@@ -31909,14 +31940,6 @@
     <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B21D61-7BBD-4BD3-A9A5-1E8F98F2F686}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Midlertidig lagring\SBS\MTB - updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\energinet.local\Endk_funktion\Midlertidig lagring\SBS\MTB - updates\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290D1744-4959-4721-B573-DD9D195D4649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="298" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17700" tabRatio="298" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Custom cases'!$A$2:$BH$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DCC cases'!$A$2:$BH$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RfG cases'!$A$2:$BH$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RfG cases'!$A$2:$BH$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Settings!$A$5:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Unit cases'!$A$2:$BH$2</definedName>
     <definedName name="inp_Area">Settings!$B$8</definedName>
@@ -90,7 +89,7 @@
     <definedName name="sel_urec2">'Area values'!$H$33</definedName>
     <definedName name="sel_ures">'Area values'!$H$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="509">
   <si>
     <t>Range</t>
   </si>
@@ -1629,12 +1628,21 @@
   </si>
   <si>
     <t>Unit_SCR_step_Max-Min</t>
+  </si>
+  <si>
+    <t>EXT_RfG_Ucontrol_Phasejump</t>
+  </si>
+  <si>
+    <t>EXT_RfG_Ucontrol_SCR</t>
+  </si>
+  <si>
+    <t>EXT_RfG_Ucontrol_Fault</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2699,6 +2707,12 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2741,17 +2755,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20 % - Farve3" xfId="1" builtinId="38"/>
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3033,10 +3041,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3158,16 +3166,16 @@
         <v>450</v>
       </c>
       <c r="H7" s="156"/>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163" t="s">
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165" t="s">
         <v>482</v>
       </c>
-      <c r="M7" s="163"/>
-      <c r="N7" s="164"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="166"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -3280,9 +3288,9 @@
         <v>11</v>
       </c>
       <c r="E13" s="152"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
@@ -3477,11 +3485,11 @@
     <mergeCell ref="L7:N7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>1</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>0.1</formula1>
       <formula2>999999</formula2>
     </dataValidation>
@@ -3491,25 +3499,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>B18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
           <xm:sqref>B22:B26 B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$F$1:$F$4</xm:f>
           </x14:formula1>
@@ -3522,7 +3530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3541,16 +3549,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="165" t="s">
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
       <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4521,12 +4529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CN183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CN186"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4597,78 +4605,78 @@
       <c r="D1" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="169" t="s">
+      <c r="M1" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="168" t="s">
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="169" t="s">
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="168" t="s">
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="169" t="s">
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="168" t="s">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="169" t="s">
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="170"/>
+      <c r="AK1" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="169"/>
-      <c r="AN1" s="169"/>
-      <c r="AO1" s="168" t="s">
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="169" t="s">
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="170"/>
+      <c r="AR1" s="170"/>
+      <c r="AS1" s="171" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="169"/>
-      <c r="AV1" s="169"/>
-      <c r="AW1" s="168" t="s">
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="168"/>
-      <c r="BA1" s="169" t="s">
+      <c r="AX1" s="170"/>
+      <c r="AY1" s="170"/>
+      <c r="AZ1" s="170"/>
+      <c r="BA1" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="169"/>
-      <c r="BC1" s="169"/>
-      <c r="BD1" s="169"/>
-      <c r="BE1" s="168" t="s">
+      <c r="BB1" s="171"/>
+      <c r="BC1" s="171"/>
+      <c r="BD1" s="171"/>
+      <c r="BE1" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="168"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="168"/>
+      <c r="BF1" s="170"/>
+      <c r="BG1" s="170"/>
+      <c r="BH1" s="170"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -9328,38 +9336,44 @@
       </c>
       <c r="P43" s="108"/>
       <c r="Q43" s="100" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="R43" s="100">
         <v>0</v>
       </c>
       <c r="S43" s="100">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T43" s="100"/>
       <c r="U43" s="108" t="s">
         <v>116</v>
       </c>
       <c r="V43" s="108">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W43" s="108">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X43" s="108"/>
       <c r="Y43" s="100" t="s">
         <v>116</v>
       </c>
       <c r="Z43" s="100">
+        <v>15</v>
+      </c>
+      <c r="AA43" s="100">
+        <v>0.25</v>
+      </c>
+      <c r="AB43" s="100"/>
+      <c r="AC43" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD43" s="108">
         <v>30</v>
       </c>
-      <c r="AA43" s="100">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="100"/>
-      <c r="AC43" s="108"/>
-      <c r="AD43" s="108"/>
-      <c r="AE43" s="108"/>
+      <c r="AE43" s="108">
+        <v>1</v>
+      </c>
       <c r="AF43" s="108"/>
       <c r="AG43" s="100"/>
       <c r="AH43" s="100"/>
@@ -14546,7 +14560,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="99" t="b">
-        <f t="shared" ref="B89:C113" si="41">inp_Un&gt;=110</f>
+        <f t="shared" ref="B89:C116" si="41">inp_Un&gt;=110</f>
         <v>1</v>
       </c>
       <c r="C89" s="99" t="b">
@@ -14557,7 +14571,7 @@
         <v>326</v>
       </c>
       <c r="E89" s="100">
-        <f t="shared" ref="E89:E106" si="42">inp_Uc/inp_Un</f>
+        <f t="shared" ref="E89:E109" si="42">inp_Uc/inp_Un</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="F89" s="100">
@@ -14681,7 +14695,7 @@
         <v>113</v>
       </c>
       <c r="I90" s="100">
-        <f t="shared" ref="I90:I91" si="43">inp_Uc/inp_Un</f>
+        <f t="shared" ref="I90:I94" si="43">inp_Uc/inp_Un</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="J90" s="102">
@@ -14940,75 +14954,69 @@
         <v>1</v>
       </c>
       <c r="D92" s="98" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="E92" s="100">
         <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F92" s="100">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G92" s="102" t="s">
         <v>223</v>
       </c>
       <c r="H92" s="101" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I92" s="100">
-        <f t="shared" ref="I92" si="44">IF(inp_default="Q(U)",E92,IF(inp_default="PF",1,0))</f>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J92" s="102">
-        <f t="shared" ref="J92" si="45">inp_scr_min</f>
+        <f>inp_scr_min</f>
         <v>10</v>
       </c>
       <c r="K92" s="102">
-        <f t="shared" ref="K92" si="46">inp_xr_min</f>
+        <f>inp_xr_min</f>
         <v>20</v>
       </c>
-      <c r="L92" s="103">
+      <c r="L92" s="123">
+        <v>25</v>
+      </c>
+      <c r="M92" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="N92" s="108">
+        <v>0</v>
+      </c>
+      <c r="O92" s="108">
         <v>20</v>
-      </c>
-      <c r="M92" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="N92" s="108">
-        <v>-1</v>
-      </c>
-      <c r="O92" s="108">
-        <v>1</v>
       </c>
       <c r="P92" s="108"/>
       <c r="Q92" s="100" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="R92" s="100">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="S92" s="100">
-        <v>0.75</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="T92" s="100"/>
       <c r="U92" s="108" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="V92" s="108">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W92" s="108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X92" s="108"/>
-      <c r="Y92" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z92" s="100">
-        <v>10</v>
-      </c>
-      <c r="AA92" s="100">
-        <v>1</v>
-      </c>
+      <c r="Y92" s="100"/>
+      <c r="Z92" s="100"/>
+      <c r="AA92" s="100"/>
       <c r="AB92" s="100"/>
       <c r="AC92" s="108"/>
       <c r="AD92" s="108"/>
@@ -15023,7 +15031,7 @@
       <c r="AM92" s="108"/>
       <c r="AN92" s="108"/>
       <c r="AO92" s="100"/>
-      <c r="AP92" s="100"/>
+      <c r="AP92" s="124"/>
       <c r="AQ92" s="100"/>
       <c r="AR92" s="100"/>
       <c r="AS92" s="115"/>
@@ -15054,88 +15062,88 @@
         <v>1</v>
       </c>
       <c r="D93" s="98" t="s">
-        <v>327</v>
+        <v>507</v>
       </c>
       <c r="E93" s="100">
-        <f t="shared" ref="E93" si="47">inp_Uc/inp_Un</f>
+        <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F93" s="100">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G93" s="102" t="s">
         <v>223</v>
       </c>
       <c r="H93" s="101" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I93" s="100">
-        <f t="shared" ref="I93" si="48">IF(inp_default="Q(U)",E93,IF(inp_default="PF",1,0))</f>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J93" s="102">
-        <f t="shared" ref="J93" si="49">inp_scr_min</f>
+        <f>inp_scr_tun</f>
+        <v>20</v>
+      </c>
+      <c r="K93" s="102">
+        <f>inp_xr_tun</f>
+        <v>15</v>
+      </c>
+      <c r="L93" s="123">
+        <v>25</v>
+      </c>
+      <c r="M93" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="N93" s="108">
+        <v>0</v>
+      </c>
+      <c r="O93" s="108">
+        <f>inp_scr_min</f>
         <v>10</v>
       </c>
-      <c r="K93" s="102">
-        <f t="shared" ref="K93" si="50">inp_xr_min</f>
+      <c r="P93" s="108">
+        <f>inp_xr_min</f>
         <v>20</v>
       </c>
-      <c r="L93" s="103">
-        <v>10</v>
-      </c>
-      <c r="M93" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="N93" s="108">
-        <v>0</v>
-      </c>
-      <c r="O93" s="108">
-        <v>30</v>
-      </c>
-      <c r="P93" s="108"/>
       <c r="Q93" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R93" s="100">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="S93" s="100">
-        <v>0</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="T93" s="100"/>
       <c r="U93" s="108" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="V93" s="108">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W93" s="108">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="X93" s="108"/>
-      <c r="Y93" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z93" s="100">
-        <v>7.5</v>
-      </c>
-      <c r="AA93" s="100">
-        <v>0</v>
-      </c>
+      <c r="Y93" s="100"/>
+      <c r="Z93" s="100"/>
+      <c r="AA93" s="100"/>
       <c r="AB93" s="100"/>
-      <c r="AC93" s="115"/>
+      <c r="AC93" s="108"/>
       <c r="AD93" s="108"/>
       <c r="AE93" s="108"/>
       <c r="AF93" s="108"/>
-      <c r="AH93" s="100"/>
+      <c r="AG93" s="100"/>
+      <c r="AH93" s="124"/>
       <c r="AI93" s="100"/>
       <c r="AJ93" s="100"/>
       <c r="AK93" s="115"/>
       <c r="AL93" s="108"/>
       <c r="AM93" s="108"/>
       <c r="AN93" s="108"/>
-      <c r="AP93" s="100"/>
+      <c r="AO93" s="100"/>
+      <c r="AP93" s="124"/>
       <c r="AQ93" s="100"/>
       <c r="AR93" s="100"/>
       <c r="AS93" s="115"/>
@@ -15166,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="98" t="s">
-        <v>328</v>
+        <v>508</v>
       </c>
       <c r="E94" s="100">
         <f t="shared" si="42"/>
@@ -15179,88 +15187,74 @@
         <v>223</v>
       </c>
       <c r="H94" s="101" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I94" s="100">
-        <f t="shared" ref="I94:I95" si="51">IF(inp_default="Q(U)",E94,IF(inp_default="PF",1,0))</f>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J94" s="102">
-        <f t="shared" ref="J94:J97" si="52">inp_scr_min</f>
+        <f>inp_scr_min</f>
         <v>10</v>
       </c>
       <c r="K94" s="102">
-        <f t="shared" ref="K94:K97" si="53">inp_xr_min</f>
+        <f>inp_xr_min</f>
         <v>20</v>
       </c>
-      <c r="L94" s="103">
-        <v>10</v>
-      </c>
-      <c r="M94" s="115" t="s">
-        <v>110</v>
+      <c r="L94" s="123">
+        <v>25</v>
+      </c>
+      <c r="M94" s="108" t="s">
+        <v>118</v>
       </c>
       <c r="N94" s="108">
         <v>0</v>
       </c>
-      <c r="O94" s="108"/>
+      <c r="O94" s="111">
+        <v>0.2</v>
+      </c>
       <c r="P94" s="108">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="98" t="s">
-        <v>110</v>
+        <v>0.45</v>
+      </c>
+      <c r="Q94" s="100" t="s">
+        <v>112</v>
       </c>
       <c r="R94" s="100">
-        <v>0.25</v>
-      </c>
-      <c r="S94" s="100"/>
-      <c r="T94" s="100">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="U94" s="115" t="s">
-        <v>110</v>
+        <f>P94+0.001</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="S94" s="100">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="T94" s="100"/>
+      <c r="U94" s="108" t="s">
+        <v>112</v>
       </c>
       <c r="V94" s="108">
-        <v>1</v>
-      </c>
-      <c r="W94" s="108"/>
-      <c r="X94" s="108">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Y94" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z94" s="100">
-        <v>2.5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="W94" s="108">
+        <v>0</v>
+      </c>
+      <c r="X94" s="108"/>
+      <c r="Y94" s="100"/>
+      <c r="Z94" s="100"/>
       <c r="AA94" s="100"/>
-      <c r="AB94" s="100">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD94" s="108">
-        <v>4.5</v>
-      </c>
+      <c r="AB94" s="100"/>
+      <c r="AC94" s="108"/>
+      <c r="AD94" s="108"/>
       <c r="AE94" s="108"/>
-      <c r="AF94" s="108">
-        <v>-1</v>
-      </c>
-      <c r="AG94" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH94" s="100">
-        <v>5.5</v>
-      </c>
+      <c r="AF94" s="108"/>
+      <c r="AG94" s="100"/>
+      <c r="AH94" s="124"/>
       <c r="AI94" s="100"/>
-      <c r="AJ94" s="100">
-        <v>0</v>
-      </c>
+      <c r="AJ94" s="100"/>
       <c r="AK94" s="115"/>
       <c r="AL94" s="108"/>
       <c r="AM94" s="108"/>
       <c r="AN94" s="108"/>
-      <c r="AP94" s="100"/>
+      <c r="AO94" s="100"/>
+      <c r="AP94" s="124"/>
       <c r="AQ94" s="100"/>
       <c r="AR94" s="100"/>
       <c r="AS94" s="115"/>
@@ -15291,14 +15285,14 @@
         <v>1</v>
       </c>
       <c r="D95" s="98" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="E95" s="100">
         <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F95" s="100">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G95" s="102" t="s">
         <v>223</v>
@@ -15307,84 +15301,73 @@
         <v>108</v>
       </c>
       <c r="I95" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="I95" si="44">IF(inp_default="Q(U)",E95,IF(inp_default="PF",1,0))</f>
         <v>0</v>
       </c>
       <c r="J95" s="102">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="J95" si="45">inp_scr_min</f>
         <v>10</v>
       </c>
       <c r="K95" s="102">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="K95" si="46">inp_xr_min</f>
         <v>20</v>
       </c>
       <c r="L95" s="103">
+        <v>20</v>
+      </c>
+      <c r="M95" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="N95" s="108">
+        <v>-1</v>
+      </c>
+      <c r="O95" s="108">
+        <v>1</v>
+      </c>
+      <c r="P95" s="108"/>
+      <c r="Q95" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="R95" s="100">
+        <v>1</v>
+      </c>
+      <c r="S95" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="T95" s="100"/>
+      <c r="U95" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="V95" s="108">
+        <v>5</v>
+      </c>
+      <c r="W95" s="108">
+        <v>0.25</v>
+      </c>
+      <c r="X95" s="108"/>
+      <c r="Y95" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z95" s="100">
         <v>10</v>
       </c>
-      <c r="M95" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="N95" s="108">
-        <v>0</v>
-      </c>
-      <c r="O95" s="108"/>
-      <c r="P95" s="108">
-        <v>-4</v>
-      </c>
-      <c r="Q95" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="R95" s="100">
-        <v>0.25</v>
-      </c>
-      <c r="S95" s="100"/>
-      <c r="T95" s="100">
-        <v>-1.33</v>
-      </c>
-      <c r="U95" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="V95" s="108">
-        <v>1</v>
-      </c>
-      <c r="W95" s="108"/>
-      <c r="X95" s="108">
-        <v>-0.33300000000000002</v>
-      </c>
-      <c r="Y95" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z95" s="100">
-        <v>2.5</v>
-      </c>
-      <c r="AA95" s="100"/>
-      <c r="AB95" s="100">
-        <v>0</v>
-      </c>
-      <c r="AC95" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD95" s="108">
-        <v>4.5</v>
-      </c>
+      <c r="AA95" s="100">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="100"/>
+      <c r="AC95" s="108"/>
+      <c r="AD95" s="108"/>
       <c r="AE95" s="108"/>
-      <c r="AF95" s="108">
-        <v>1</v>
-      </c>
-      <c r="AG95" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH95" s="100">
-        <v>6</v>
-      </c>
+      <c r="AF95" s="108"/>
+      <c r="AG95" s="100"/>
+      <c r="AH95" s="124"/>
       <c r="AI95" s="100"/>
-      <c r="AJ95" s="100">
-        <v>0</v>
-      </c>
+      <c r="AJ95" s="100"/>
       <c r="AK95" s="115"/>
       <c r="AL95" s="108"/>
       <c r="AM95" s="108"/>
       <c r="AN95" s="108"/>
+      <c r="AO95" s="100"/>
       <c r="AP95" s="100"/>
       <c r="AQ95" s="100"/>
       <c r="AR95" s="100"/>
@@ -15416,14 +15399,14 @@
         <v>1</v>
       </c>
       <c r="D96" s="98" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E96" s="100">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="E96" si="47">inp_Uc/inp_Un</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="F96" s="100">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G96" s="102" t="s">
         <v>223</v>
@@ -15432,132 +15415,85 @@
         <v>108</v>
       </c>
       <c r="I96" s="100">
-        <f t="shared" ref="I96" si="54">IF(inp_default="Q(U)",E96,IF(inp_default="PF",1,0))</f>
+        <f t="shared" ref="I96" si="48">IF(inp_default="Q(U)",E96,IF(inp_default="PF",1,0))</f>
         <v>0</v>
       </c>
       <c r="J96" s="102">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="J96" si="49">inp_scr_min</f>
         <v>10</v>
       </c>
       <c r="K96" s="102">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="K96" si="50">inp_xr_min</f>
         <v>20</v>
       </c>
       <c r="L96" s="103">
-        <v>5</v>
-      </c>
-      <c r="M96" s="115" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="M96" s="108" t="s">
+        <v>117</v>
       </c>
       <c r="N96" s="108">
         <v>0</v>
       </c>
       <c r="O96" s="108">
-        <v>50</v>
-      </c>
-      <c r="P96" s="108">
-        <v>-1</v>
-      </c>
-      <c r="Q96" s="98" t="s">
-        <v>110</v>
+        <v>30</v>
+      </c>
+      <c r="P96" s="108"/>
+      <c r="Q96" s="100" t="s">
+        <v>117</v>
       </c>
       <c r="R96" s="100">
-        <v>0.02</v>
-      </c>
-      <c r="S96" s="100"/>
-      <c r="T96" s="100">
-        <v>0</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="S96" s="100">
+        <v>0</v>
+      </c>
+      <c r="T96" s="100"/>
       <c r="U96" s="108" t="s">
         <v>117</v>
       </c>
       <c r="V96" s="108">
-        <v>2.1000000000000001E-2</v>
+        <v>5</v>
       </c>
       <c r="W96" s="108">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="X96" s="108"/>
-      <c r="Y96" s="98" t="s">
-        <v>110</v>
+      <c r="Y96" s="100" t="s">
+        <v>117</v>
       </c>
       <c r="Z96" s="100">
-        <v>0.04</v>
-      </c>
-      <c r="AA96" s="100"/>
-      <c r="AB96" s="100">
-        <v>-1</v>
-      </c>
-      <c r="AC96" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD96" s="108">
-        <v>0.06</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="AA96" s="100">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="100"/>
+      <c r="AC96" s="115"/>
+      <c r="AD96" s="108"/>
       <c r="AE96" s="108"/>
-      <c r="AF96" s="108">
-        <v>1</v>
-      </c>
-      <c r="AG96" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH96" s="100">
-        <v>0.08</v>
-      </c>
+      <c r="AF96" s="108"/>
+      <c r="AH96" s="100"/>
       <c r="AI96" s="100"/>
-      <c r="AJ96" s="100">
-        <v>-1</v>
-      </c>
-      <c r="AK96" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL96" s="108">
-        <v>0.1</v>
-      </c>
+      <c r="AJ96" s="100"/>
+      <c r="AK96" s="115"/>
+      <c r="AL96" s="108"/>
       <c r="AM96" s="108"/>
-      <c r="AN96" s="108">
-        <v>1</v>
-      </c>
-      <c r="AO96" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP96" s="100">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="AN96" s="108"/>
+      <c r="AP96" s="100"/>
       <c r="AQ96" s="100"/>
-      <c r="AR96" s="100">
-        <v>0</v>
-      </c>
-      <c r="AS96" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT96" s="108">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AU96" s="108">
-        <v>0</v>
-      </c>
+      <c r="AR96" s="100"/>
+      <c r="AS96" s="115"/>
+      <c r="AT96" s="108"/>
+      <c r="AU96" s="108"/>
       <c r="AV96" s="108"/>
-      <c r="AW96" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX96" s="100">
-        <v>0.16</v>
-      </c>
+      <c r="AX96" s="100"/>
       <c r="AY96" s="100"/>
-      <c r="AZ96" s="100">
-        <v>-1</v>
-      </c>
-      <c r="BA96" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB96" s="108">
-        <v>0.18</v>
-      </c>
+      <c r="AZ96" s="100"/>
+      <c r="BA96" s="115"/>
+      <c r="BB96" s="108"/>
       <c r="BC96" s="108"/>
-      <c r="BD96" s="108">
-        <v>0</v>
-      </c>
+      <c r="BD96" s="108"/>
       <c r="BF96" s="100"/>
       <c r="BG96" s="100"/>
       <c r="BH96" s="100"/>
@@ -15575,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="98" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E97" s="100">
         <f t="shared" si="42"/>
@@ -15591,19 +15527,19 @@
         <v>108</v>
       </c>
       <c r="I97" s="100">
-        <f t="shared" ref="I97" si="55">IF(inp_default="Q(U)",E97,IF(inp_default="PF",1,0))</f>
+        <f t="shared" ref="I97:I98" si="51">IF(inp_default="Q(U)",E97,IF(inp_default="PF",1,0))</f>
         <v>0</v>
       </c>
       <c r="J97" s="102">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="J97:J100" si="52">inp_scr_min</f>
         <v>10</v>
       </c>
       <c r="K97" s="102">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="K97:K100" si="53">inp_xr_min</f>
         <v>20</v>
       </c>
       <c r="L97" s="103">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M97" s="115" t="s">
         <v>110</v>
@@ -15611,112 +15547,78 @@
       <c r="N97" s="108">
         <v>0</v>
       </c>
-      <c r="O97" s="108">
-        <v>50</v>
-      </c>
+      <c r="O97" s="108"/>
       <c r="P97" s="108">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Q97" s="98" t="s">
         <v>110</v>
       </c>
       <c r="R97" s="100">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="S97" s="100"/>
       <c r="T97" s="100">
-        <v>0</v>
-      </c>
-      <c r="U97" s="108" t="s">
-        <v>117</v>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U97" s="115" t="s">
+        <v>110</v>
       </c>
       <c r="V97" s="108">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="W97" s="108">
-        <v>20</v>
-      </c>
-      <c r="X97" s="108"/>
+        <v>1</v>
+      </c>
+      <c r="W97" s="108"/>
+      <c r="X97" s="108">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="Y97" s="98" t="s">
         <v>110</v>
       </c>
       <c r="Z97" s="100">
-        <v>0.04</v>
+        <v>2.5</v>
       </c>
       <c r="AA97" s="100"/>
       <c r="AB97" s="100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC97" s="115" t="s">
         <v>110</v>
       </c>
       <c r="AD97" s="108">
-        <v>0.06</v>
+        <v>4.5</v>
       </c>
       <c r="AE97" s="108"/>
       <c r="AF97" s="108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG97" s="98" t="s">
         <v>110</v>
       </c>
       <c r="AH97" s="100">
-        <v>0.08</v>
+        <v>5.5</v>
       </c>
       <c r="AI97" s="100"/>
       <c r="AJ97" s="100">
-        <v>-1</v>
-      </c>
-      <c r="AK97" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL97" s="108">
-        <v>0.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AK97" s="115"/>
+      <c r="AL97" s="108"/>
       <c r="AM97" s="108"/>
-      <c r="AN97" s="108">
-        <v>1</v>
-      </c>
-      <c r="AO97" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP97" s="100">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="AN97" s="108"/>
+      <c r="AP97" s="100"/>
       <c r="AQ97" s="100"/>
-      <c r="AR97" s="100">
-        <v>0</v>
-      </c>
-      <c r="AS97" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT97" s="108">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AU97" s="108">
-        <v>0</v>
-      </c>
+      <c r="AR97" s="100"/>
+      <c r="AS97" s="115"/>
+      <c r="AT97" s="108"/>
+      <c r="AU97" s="108"/>
       <c r="AV97" s="108"/>
-      <c r="AW97" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX97" s="100">
-        <v>0.16</v>
-      </c>
+      <c r="AX97" s="100"/>
       <c r="AY97" s="100"/>
-      <c r="AZ97" s="100">
-        <v>-1</v>
-      </c>
-      <c r="BA97" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB97" s="108">
-        <v>0.18</v>
-      </c>
+      <c r="AZ97" s="100"/>
+      <c r="BA97" s="115"/>
+      <c r="BB97" s="108"/>
       <c r="BC97" s="108"/>
-      <c r="BD97" s="108">
-        <v>0</v>
-      </c>
+      <c r="BD97" s="108"/>
       <c r="BF97" s="100"/>
       <c r="BG97" s="100"/>
       <c r="BH97" s="100"/>
@@ -15734,72 +15636,96 @@
         <v>1</v>
       </c>
       <c r="D98" s="98" t="s">
-        <v>454</v>
+        <v>329</v>
       </c>
       <c r="E98" s="100">
         <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F98" s="100">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G98" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H98" s="101" t="str">
-        <f t="shared" ref="H98:H106" si="56">IF(inp_default="Q(U)","Q",IF(inp_default="Q","Q(U)",0))</f>
-        <v>Q(U)</v>
+      <c r="H98" s="101" t="s">
+        <v>108</v>
       </c>
       <c r="I98" s="100">
-        <f t="shared" ref="I98:I106" si="57">IF(inp_default="Q",E98,IF(inp_default="PF",1,0))</f>
-        <v>1.0651315789473685</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="J98" s="102">
-        <f t="shared" ref="J98:J106" si="58">inp_scr_min</f>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="K98" s="102">
-        <f t="shared" ref="K98:K106" si="59">inp_xr_min</f>
+        <f t="shared" si="53"/>
         <v>20</v>
       </c>
       <c r="L98" s="103">
-        <v>12</v>
-      </c>
-      <c r="M98" s="108" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="M98" s="115" t="s">
+        <v>110</v>
       </c>
       <c r="N98" s="108">
         <v>0</v>
       </c>
-      <c r="O98" s="111">
-        <f>sel_ures</f>
-        <v>0</v>
-      </c>
+      <c r="O98" s="108"/>
       <c r="P98" s="108">
-        <f t="shared" ref="P98" si="60">IF(O98&lt;sel_ures,0,
-IF(AND(sel_uclear&gt;=O98, O98&gt;=sel_ures),sel_tclear,
-IF(AND(sel_urec1&gt;=O98,O98&gt;sel_uclear),IF(sel_urec1&gt;sel_uclear,sel_tclear+(O98-sel_uclear)*(sel_trec1-sel_tclear)/(sel_urec1-sel_uclear),sel_tclear),
-IF(AND(sel_urec2&gt;=O98,O98&gt;sel_urec1),IF(sel_urec2&gt;sel_urec1,sel_trec2+(O98-sel_urec1)*(sel_trec3-sel_trec2)/(sel_urec2-sel_urec1),-99999),5
-))))</f>
-        <v>0.15</v>
-      </c>
-      <c r="R98" s="100"/>
+        <v>-4</v>
+      </c>
+      <c r="Q98" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="R98" s="100">
+        <v>0.25</v>
+      </c>
       <c r="S98" s="100"/>
-      <c r="T98" s="100"/>
-      <c r="U98" s="115"/>
-      <c r="V98" s="108"/>
+      <c r="T98" s="100">
+        <v>-1.33</v>
+      </c>
+      <c r="U98" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="V98" s="108">
+        <v>1</v>
+      </c>
       <c r="W98" s="108"/>
-      <c r="X98" s="108"/>
-      <c r="Z98" s="100"/>
+      <c r="X98" s="108">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="Y98" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z98" s="100">
+        <v>2.5</v>
+      </c>
       <c r="AA98" s="100"/>
-      <c r="AB98" s="100"/>
-      <c r="AC98" s="115"/>
-      <c r="AD98" s="108"/>
+      <c r="AB98" s="100">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD98" s="108">
+        <v>4.5</v>
+      </c>
       <c r="AE98" s="108"/>
-      <c r="AF98" s="108"/>
-      <c r="AH98" s="100"/>
+      <c r="AF98" s="108">
+        <v>1</v>
+      </c>
+      <c r="AG98" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH98" s="100">
+        <v>6</v>
+      </c>
       <c r="AI98" s="100"/>
-      <c r="AJ98" s="100"/>
+      <c r="AJ98" s="100">
+        <v>0</v>
+      </c>
       <c r="AK98" s="115"/>
       <c r="AL98" s="108"/>
       <c r="AM98" s="108"/>
@@ -15835,84 +15761,148 @@
         <v>1</v>
       </c>
       <c r="D99" s="98" t="s">
-        <v>455</v>
+        <v>330</v>
       </c>
       <c r="E99" s="100">
         <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F99" s="100">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G99" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H99" s="101" t="str">
-        <f t="shared" si="56"/>
-        <v>Q(U)</v>
+      <c r="H99" s="101" t="s">
+        <v>108</v>
       </c>
       <c r="I99" s="100">
-        <f t="shared" si="57"/>
-        <v>1.0651315789473685</v>
+        <f t="shared" ref="I99" si="54">IF(inp_default="Q(U)",E99,IF(inp_default="PF",1,0))</f>
+        <v>0</v>
       </c>
       <c r="J99" s="102">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="K99" s="102">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>20</v>
       </c>
       <c r="L99" s="103">
-        <v>12</v>
-      </c>
-      <c r="M99" s="108" t="s">
-        <v>118</v>
+        <v>5</v>
+      </c>
+      <c r="M99" s="115" t="s">
+        <v>110</v>
       </c>
       <c r="N99" s="108">
         <v>0</v>
       </c>
-      <c r="O99" s="111">
-        <v>0.2</v>
+      <c r="O99" s="108">
+        <v>50</v>
       </c>
       <c r="P99" s="108">
-        <v>0.45</v>
-      </c>
-      <c r="R99" s="100"/>
+        <v>-1</v>
+      </c>
+      <c r="Q99" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="R99" s="100">
+        <v>0.02</v>
+      </c>
       <c r="S99" s="100"/>
-      <c r="T99" s="100"/>
-      <c r="U99" s="115"/>
-      <c r="V99" s="108"/>
-      <c r="W99" s="108"/>
+      <c r="T99" s="100">
+        <v>0</v>
+      </c>
+      <c r="U99" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="V99" s="108">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="W99" s="108">
+        <v>-20</v>
+      </c>
       <c r="X99" s="108"/>
-      <c r="Z99" s="100"/>
+      <c r="Y99" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z99" s="100">
+        <v>0.04</v>
+      </c>
       <c r="AA99" s="100"/>
-      <c r="AB99" s="100"/>
-      <c r="AC99" s="115"/>
-      <c r="AD99" s="108"/>
+      <c r="AB99" s="100">
+        <v>-1</v>
+      </c>
+      <c r="AC99" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD99" s="108">
+        <v>0.06</v>
+      </c>
       <c r="AE99" s="108"/>
-      <c r="AF99" s="108"/>
-      <c r="AH99" s="100"/>
+      <c r="AF99" s="108">
+        <v>1</v>
+      </c>
+      <c r="AG99" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH99" s="100">
+        <v>0.08</v>
+      </c>
       <c r="AI99" s="100"/>
-      <c r="AJ99" s="100"/>
-      <c r="AK99" s="115"/>
-      <c r="AL99" s="108"/>
+      <c r="AJ99" s="100">
+        <v>-1</v>
+      </c>
+      <c r="AK99" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL99" s="108">
+        <v>0.1</v>
+      </c>
       <c r="AM99" s="108"/>
-      <c r="AN99" s="108"/>
-      <c r="AP99" s="100"/>
+      <c r="AN99" s="108">
+        <v>1</v>
+      </c>
+      <c r="AO99" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP99" s="100">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="AQ99" s="100"/>
-      <c r="AR99" s="100"/>
-      <c r="AS99" s="115"/>
-      <c r="AT99" s="108"/>
-      <c r="AU99" s="108"/>
+      <c r="AR99" s="100">
+        <v>0</v>
+      </c>
+      <c r="AS99" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT99" s="108">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AU99" s="108">
+        <v>0</v>
+      </c>
       <c r="AV99" s="108"/>
-      <c r="AX99" s="100"/>
+      <c r="AW99" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX99" s="100">
+        <v>0.16</v>
+      </c>
       <c r="AY99" s="100"/>
-      <c r="AZ99" s="100"/>
-      <c r="BA99" s="115"/>
-      <c r="BB99" s="108"/>
+      <c r="AZ99" s="100">
+        <v>-1</v>
+      </c>
+      <c r="BA99" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB99" s="108">
+        <v>0.18</v>
+      </c>
       <c r="BC99" s="108"/>
-      <c r="BD99" s="108"/>
+      <c r="BD99" s="108">
+        <v>0</v>
+      </c>
       <c r="BF99" s="100"/>
       <c r="BG99" s="100"/>
       <c r="BH99" s="100"/>
@@ -15930,84 +15920,148 @@
         <v>1</v>
       </c>
       <c r="D100" s="98" t="s">
-        <v>456</v>
+        <v>331</v>
       </c>
       <c r="E100" s="100">
         <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F100" s="100">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G100" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H100" s="101" t="str">
-        <f t="shared" si="56"/>
-        <v>Q(U)</v>
+      <c r="H100" s="101" t="s">
+        <v>108</v>
       </c>
       <c r="I100" s="100">
-        <f t="shared" si="57"/>
-        <v>1.0651315789473685</v>
+        <f t="shared" ref="I100" si="55">IF(inp_default="Q(U)",E100,IF(inp_default="PF",1,0))</f>
+        <v>0</v>
       </c>
       <c r="J100" s="102">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="K100" s="102">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>20</v>
       </c>
       <c r="L100" s="103">
-        <v>12</v>
-      </c>
-      <c r="M100" s="108" t="s">
-        <v>118</v>
+        <v>5</v>
+      </c>
+      <c r="M100" s="115" t="s">
+        <v>110</v>
       </c>
       <c r="N100" s="108">
         <v>0</v>
       </c>
-      <c r="O100" s="111">
-        <v>0.4</v>
+      <c r="O100" s="108">
+        <v>50</v>
       </c>
       <c r="P100" s="108">
-        <v>0.75</v>
-      </c>
-      <c r="R100" s="100"/>
+        <v>-1</v>
+      </c>
+      <c r="Q100" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="R100" s="100">
+        <v>0.02</v>
+      </c>
       <c r="S100" s="100"/>
-      <c r="T100" s="100"/>
-      <c r="U100" s="115"/>
-      <c r="V100" s="108"/>
-      <c r="W100" s="108"/>
+      <c r="T100" s="100">
+        <v>0</v>
+      </c>
+      <c r="U100" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="V100" s="108">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="W100" s="108">
+        <v>20</v>
+      </c>
       <c r="X100" s="108"/>
-      <c r="Z100" s="100"/>
+      <c r="Y100" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z100" s="100">
+        <v>0.04</v>
+      </c>
       <c r="AA100" s="100"/>
-      <c r="AB100" s="100"/>
-      <c r="AC100" s="115"/>
-      <c r="AD100" s="108"/>
+      <c r="AB100" s="100">
+        <v>-1</v>
+      </c>
+      <c r="AC100" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD100" s="108">
+        <v>0.06</v>
+      </c>
       <c r="AE100" s="108"/>
-      <c r="AF100" s="108"/>
-      <c r="AH100" s="100"/>
+      <c r="AF100" s="108">
+        <v>1</v>
+      </c>
+      <c r="AG100" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH100" s="100">
+        <v>0.08</v>
+      </c>
       <c r="AI100" s="100"/>
-      <c r="AJ100" s="100"/>
-      <c r="AK100" s="115"/>
-      <c r="AL100" s="108"/>
+      <c r="AJ100" s="100">
+        <v>-1</v>
+      </c>
+      <c r="AK100" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL100" s="108">
+        <v>0.1</v>
+      </c>
       <c r="AM100" s="108"/>
-      <c r="AN100" s="108"/>
-      <c r="AP100" s="100"/>
+      <c r="AN100" s="108">
+        <v>1</v>
+      </c>
+      <c r="AO100" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP100" s="100">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="AQ100" s="100"/>
-      <c r="AR100" s="100"/>
-      <c r="AS100" s="115"/>
-      <c r="AT100" s="108"/>
-      <c r="AU100" s="108"/>
+      <c r="AR100" s="100">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT100" s="108">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AU100" s="108">
+        <v>0</v>
+      </c>
       <c r="AV100" s="108"/>
-      <c r="AX100" s="100"/>
+      <c r="AW100" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX100" s="100">
+        <v>0.16</v>
+      </c>
       <c r="AY100" s="100"/>
-      <c r="AZ100" s="100"/>
-      <c r="BA100" s="115"/>
-      <c r="BB100" s="108"/>
+      <c r="AZ100" s="100">
+        <v>-1</v>
+      </c>
+      <c r="BA100" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB100" s="108">
+        <v>0.18</v>
+      </c>
       <c r="BC100" s="108"/>
-      <c r="BD100" s="108"/>
+      <c r="BD100" s="108">
+        <v>0</v>
+      </c>
       <c r="BF100" s="100"/>
       <c r="BG100" s="100"/>
       <c r="BH100" s="100"/>
@@ -16025,7 +16079,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="98" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E101" s="100">
         <f t="shared" si="42"/>
@@ -16038,19 +16092,19 @@
         <v>223</v>
       </c>
       <c r="H101" s="101" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="H101:H109" si="56">IF(inp_default="Q(U)","Q",IF(inp_default="Q","Q(U)",0))</f>
         <v>Q(U)</v>
       </c>
       <c r="I101" s="100">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="I101:I109" si="57">IF(inp_default="Q",E101,IF(inp_default="PF",1,0))</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="J101" s="102">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="J101:J109" si="58">inp_scr_min</f>
         <v>10</v>
       </c>
       <c r="K101" s="102">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="K101:K109" si="59">inp_xr_min</f>
         <v>20</v>
       </c>
       <c r="L101" s="103">
@@ -16063,10 +16117,16 @@
         <v>0</v>
       </c>
       <c r="O101" s="111">
-        <v>0.8</v>
+        <f>sel_ures</f>
+        <v>0</v>
       </c>
       <c r="P101" s="108">
-        <v>1.35</v>
+        <f t="shared" ref="P101" si="60">IF(O101&lt;sel_ures,0,
+IF(AND(sel_uclear&gt;=O101, O101&gt;=sel_ures),sel_tclear,
+IF(AND(sel_urec1&gt;=O101,O101&gt;sel_uclear),IF(sel_urec1&gt;sel_uclear,sel_tclear+(O101-sel_uclear)*(sel_trec1-sel_tclear)/(sel_urec1-sel_uclear),sel_tclear),
+IF(AND(sel_urec2&gt;=O101,O101&gt;sel_urec1),IF(sel_urec2&gt;sel_urec1,sel_trec2+(O101-sel_urec1)*(sel_trec3-sel_trec2)/(sel_urec2-sel_urec1),-99999),5
+))))</f>
+        <v>0.15</v>
       </c>
       <c r="R101" s="100"/>
       <c r="S101" s="100"/>
@@ -16120,7 +16180,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="98" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E102" s="100">
         <f t="shared" si="42"/>
@@ -16158,11 +16218,10 @@
         <v>0</v>
       </c>
       <c r="O102" s="111">
-        <f>sel_lvfrt_start</f>
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="P102" s="108">
-        <v>1.35</v>
+        <v>0.45</v>
       </c>
       <c r="R102" s="100"/>
       <c r="S102" s="100"/>
@@ -16216,7 +16275,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="98" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="E103" s="100">
         <f t="shared" si="42"/>
@@ -16233,7 +16292,7 @@
         <v>Q(U)</v>
       </c>
       <c r="I103" s="100">
-        <f t="shared" ref="I103:I104" si="61">IF(inp_default="Q",E103,IF(inp_default="PF",1,0))</f>
+        <f t="shared" si="57"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="J103" s="102">
@@ -16254,11 +16313,10 @@
         <v>0</v>
       </c>
       <c r="O103" s="111">
-        <f>sel_lvfrt_start-0.02</f>
-        <v>0.83</v>
+        <v>0.4</v>
       </c>
       <c r="P103" s="108">
-        <v>1.35</v>
+        <v>0.75</v>
       </c>
       <c r="R103" s="100"/>
       <c r="S103" s="100"/>
@@ -16312,7 +16370,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="98" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="E104" s="100">
         <f t="shared" si="42"/>
@@ -16324,12 +16382,13 @@
       <c r="G104" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H104" s="101" t="s">
-        <v>108</v>
+      <c r="H104" s="101" t="str">
+        <f t="shared" si="56"/>
+        <v>Q(U)</v>
       </c>
       <c r="I104" s="100">
-        <f>IF(inp_default="Q(U)",E110,IF(inp_default="PF",1,0))</f>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J104" s="102">
         <f t="shared" si="58"/>
@@ -16349,8 +16408,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="111">
-        <f>sel_lvfrt_start-0.02</f>
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="P104" s="108">
         <v>1.35</v>
@@ -16407,7 +16465,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E105" s="100">
         <f t="shared" si="42"/>
@@ -16439,16 +16497,17 @@
         <v>12</v>
       </c>
       <c r="M105" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N105" s="108">
         <v>0</v>
       </c>
       <c r="O105" s="111">
-        <v>0.2</v>
+        <f>sel_lvfrt_start</f>
+        <v>0.85</v>
       </c>
       <c r="P105" s="108">
-        <v>0.45</v>
+        <v>1.35</v>
       </c>
       <c r="R105" s="100"/>
       <c r="S105" s="100"/>
@@ -16502,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="98" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="E106" s="100">
         <f t="shared" si="42"/>
@@ -16519,7 +16578,7 @@
         <v>Q(U)</v>
       </c>
       <c r="I106" s="100">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="I106" si="61">IF(inp_default="Q",E106,IF(inp_default="PF",1,0))</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="J106" s="102">
@@ -16534,16 +16593,17 @@
         <v>12</v>
       </c>
       <c r="M106" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N106" s="108">
         <v>0</v>
       </c>
       <c r="O106" s="111">
-        <v>0.4</v>
+        <f>sel_lvfrt_start-0.02</f>
+        <v>0.83</v>
       </c>
       <c r="P106" s="108">
-        <v>0.75</v>
+        <v>1.35</v>
       </c>
       <c r="R106" s="100"/>
       <c r="S106" s="100"/>
@@ -16597,10 +16657,10 @@
         <v>1</v>
       </c>
       <c r="D107" s="98" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="E107" s="100">
-        <f t="shared" ref="E107:E116" si="62">inp_Uc/inp_Un</f>
+        <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F107" s="100">
@@ -16609,21 +16669,20 @@
       <c r="G107" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H107" s="102" t="str">
-        <f>IF(inp_default="Q(U)","Q", "Q(U)")</f>
-        <v>Q(U)</v>
+      <c r="H107" s="101" t="s">
+        <v>108</v>
       </c>
       <c r="I107" s="100">
-        <f>IF(inp_default="Q",E107,IF(inp_default="PF",1,0))</f>
-        <v>1.0651315789473685</v>
+        <f>IF(inp_default="Q(U)",E113,IF(inp_default="PF",1,0))</f>
+        <v>0</v>
       </c>
       <c r="J107" s="102">
-        <f>inp_scr_tun</f>
+        <f t="shared" si="58"/>
+        <v>10</v>
+      </c>
+      <c r="K107" s="102">
+        <f t="shared" si="59"/>
         <v>20</v>
-      </c>
-      <c r="K107" s="102">
-        <f>inp_xr_tun</f>
-        <v>15</v>
       </c>
       <c r="L107" s="103">
         <v>12</v>
@@ -16634,27 +16693,16 @@
       <c r="N107" s="108">
         <v>0</v>
       </c>
-      <c r="O107" s="113">
-        <v>0.05</v>
+      <c r="O107" s="111">
+        <f>sel_lvfrt_start-0.02</f>
+        <v>0.83</v>
       </c>
       <c r="P107" s="108">
-        <v>0.15</v>
-      </c>
-      <c r="Q107" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="R107" s="100">
-        <f>N107+P107-0.001</f>
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="S107" s="100">
-        <f>inp_scr_min</f>
-        <v>10</v>
-      </c>
-      <c r="T107" s="100">
-        <f>inp_xr_min</f>
-        <v>20</v>
-      </c>
+        <v>1.35</v>
+      </c>
+      <c r="R107" s="100"/>
+      <c r="S107" s="100"/>
+      <c r="T107" s="100"/>
       <c r="U107" s="115"/>
       <c r="V107" s="108"/>
       <c r="W107" s="108"/>
@@ -16704,10 +16752,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="98" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E108" s="100">
-        <f t="shared" si="62"/>
+        <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F108" s="100">
@@ -16716,52 +16764,40 @@
       <c r="G108" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H108" s="102" t="str">
-        <f>IF(inp_default="Q(U)","Q", "Q(U)")</f>
+      <c r="H108" s="101" t="str">
+        <f t="shared" si="56"/>
         <v>Q(U)</v>
       </c>
       <c r="I108" s="100">
-        <f>IF(inp_default="Q",E108,IF(inp_default="PF",1,0))</f>
+        <f t="shared" si="57"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="J108" s="102">
-        <f>inp_scr_tun</f>
+        <f t="shared" si="58"/>
+        <v>10</v>
+      </c>
+      <c r="K108" s="102">
+        <f t="shared" si="59"/>
         <v>20</v>
-      </c>
-      <c r="K108" s="102">
-        <f>inp_xr_tun</f>
-        <v>15</v>
       </c>
       <c r="L108" s="103">
         <v>12</v>
       </c>
       <c r="M108" s="108" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N108" s="108">
         <v>0</v>
       </c>
-      <c r="O108" s="113">
-        <v>0.1</v>
+      <c r="O108" s="111">
+        <v>0.2</v>
       </c>
       <c r="P108" s="108">
-        <v>0.15</v>
-      </c>
-      <c r="Q108" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="R108" s="100">
-        <f>N108+P108-0.001</f>
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="S108" s="100">
-        <f>inp_scr_min</f>
-        <v>10</v>
-      </c>
-      <c r="T108" s="100">
-        <f>inp_xr_min</f>
-        <v>20</v>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="R108" s="100"/>
+      <c r="S108" s="100"/>
+      <c r="T108" s="100"/>
       <c r="U108" s="115"/>
       <c r="V108" s="108"/>
       <c r="W108" s="108"/>
@@ -16811,10 +16847,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="98" t="s">
-        <v>333</v>
+        <v>460</v>
       </c>
       <c r="E109" s="100">
-        <f t="shared" si="62"/>
+        <f t="shared" si="42"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F109" s="100">
@@ -16823,35 +16859,36 @@
       <c r="G109" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H109" s="101" t="s">
-        <v>108</v>
+      <c r="H109" s="101" t="str">
+        <f t="shared" si="56"/>
+        <v>Q(U)</v>
       </c>
       <c r="I109" s="100">
-        <f t="shared" ref="I109:I115" si="63">IF(inp_default="Q(U)",E109,IF(inp_default="PF",1,0))</f>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J109" s="102">
-        <f t="shared" ref="J109:J110" si="64">inp_scr_min</f>
+        <f t="shared" si="58"/>
         <v>10</v>
       </c>
       <c r="K109" s="102">
-        <f t="shared" ref="K109:K110" si="65">inp_xr_min</f>
+        <f t="shared" si="59"/>
         <v>20</v>
       </c>
       <c r="L109" s="103">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M109" s="108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N109" s="108">
         <v>0</v>
       </c>
       <c r="O109" s="111">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P109" s="108">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R109" s="100"/>
       <c r="S109" s="100"/>
@@ -16905,10 +16942,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="98" t="s">
-        <v>334</v>
+        <v>461</v>
       </c>
       <c r="E110" s="100">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="E110:E119" si="62">inp_Uc/inp_Un</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="F110" s="100">
@@ -16917,39 +16954,52 @@
       <c r="G110" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H110" s="101" t="s">
-        <v>108</v>
+      <c r="H110" s="102" t="str">
+        <f>IF(inp_default="Q(U)","Q", "Q(U)")</f>
+        <v>Q(U)</v>
       </c>
       <c r="I110" s="100">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <f>IF(inp_default="Q",E110,IF(inp_default="PF",1,0))</f>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J110" s="102">
-        <f t="shared" si="64"/>
+        <f>inp_scr_tun</f>
+        <v>20</v>
+      </c>
+      <c r="K110" s="102">
+        <f>inp_xr_tun</f>
+        <v>15</v>
+      </c>
+      <c r="L110" s="103">
+        <v>12</v>
+      </c>
+      <c r="M110" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="N110" s="108">
+        <v>0</v>
+      </c>
+      <c r="O110" s="113">
+        <v>0.05</v>
+      </c>
+      <c r="P110" s="108">
+        <v>0.15</v>
+      </c>
+      <c r="Q110" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="R110" s="100">
+        <f>N110+P110-0.001</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="S110" s="100">
+        <f>inp_scr_min</f>
         <v>10</v>
       </c>
-      <c r="K110" s="102">
-        <f t="shared" si="65"/>
+      <c r="T110" s="100">
+        <f>inp_xr_min</f>
         <v>20</v>
       </c>
-      <c r="L110" s="103">
-        <v>2</v>
-      </c>
-      <c r="M110" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="N110" s="108">
-        <v>0</v>
-      </c>
-      <c r="O110" s="111">
-        <v>0.2</v>
-      </c>
-      <c r="P110" s="108">
-        <v>0.25</v>
-      </c>
-      <c r="R110" s="100"/>
-      <c r="S110" s="100"/>
-      <c r="T110" s="100"/>
       <c r="U110" s="115"/>
       <c r="V110" s="108"/>
       <c r="W110" s="108"/>
@@ -16999,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="98" t="s">
-        <v>335</v>
+        <v>462</v>
       </c>
       <c r="E111" s="100">
         <f t="shared" si="62"/>
@@ -17011,37 +17061,52 @@
       <c r="G111" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H111" s="101" t="s">
-        <v>108</v>
+      <c r="H111" s="102" t="str">
+        <f>IF(inp_default="Q(U)","Q", "Q(U)")</f>
+        <v>Q(U)</v>
       </c>
       <c r="I111" s="100">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <f>IF(inp_default="Q",E111,IF(inp_default="PF",1,0))</f>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J111" s="102">
-        <v>2</v>
+        <f>inp_scr_tun</f>
+        <v>20</v>
       </c>
       <c r="K111" s="102">
-        <v>3</v>
+        <f>inp_xr_tun</f>
+        <v>15</v>
       </c>
       <c r="L111" s="103">
         <v>12</v>
       </c>
       <c r="M111" s="108" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N111" s="108">
         <v>0</v>
       </c>
-      <c r="O111" s="111">
-        <v>0.2</v>
+      <c r="O111" s="113">
+        <v>0.1</v>
       </c>
       <c r="P111" s="108">
-        <v>0.2</v>
-      </c>
-      <c r="R111" s="100"/>
-      <c r="S111" s="100"/>
-      <c r="T111" s="100"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q111" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="R111" s="100">
+        <f>N111+P111-0.001</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="S111" s="100">
+        <f>inp_scr_min</f>
+        <v>10</v>
+      </c>
+      <c r="T111" s="100">
+        <f>inp_xr_min</f>
+        <v>20</v>
+      </c>
       <c r="U111" s="115"/>
       <c r="V111" s="108"/>
       <c r="W111" s="108"/>
@@ -17091,7 +17156,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="98" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E112" s="100">
         <f t="shared" si="62"/>
@@ -17107,20 +17172,22 @@
         <v>108</v>
       </c>
       <c r="I112" s="100">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="I112:I118" si="63">IF(inp_default="Q(U)",E112,IF(inp_default="PF",1,0))</f>
         <v>0</v>
       </c>
       <c r="J112" s="102">
+        <f t="shared" ref="J112:J113" si="64">inp_scr_min</f>
+        <v>10</v>
+      </c>
+      <c r="K112" s="102">
+        <f t="shared" ref="K112:K113" si="65">inp_xr_min</f>
+        <v>20</v>
+      </c>
+      <c r="L112" s="103">
         <v>2</v>
       </c>
-      <c r="K112" s="102">
-        <v>3</v>
-      </c>
-      <c r="L112" s="103">
-        <v>12</v>
-      </c>
       <c r="M112" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N112" s="108">
         <v>0</v>
@@ -17129,7 +17196,7 @@
         <v>0.2</v>
       </c>
       <c r="P112" s="108">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R112" s="100"/>
       <c r="S112" s="100"/>
@@ -17183,7 +17250,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="98" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E113" s="100">
         <f t="shared" si="62"/>
@@ -17203,104 +17270,52 @@
         <v>0</v>
       </c>
       <c r="J113" s="102">
-        <f t="shared" ref="J113:J114" si="66">inp_scr_min</f>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="K113" s="102">
-        <f t="shared" ref="K113:K114" si="67">inp_xr_min</f>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
       <c r="L113" s="103">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M113" s="108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N113" s="108">
         <v>0</v>
       </c>
       <c r="O113" s="111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P113" s="108">
-        <v>0.2</v>
-      </c>
-      <c r="Q113" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="R113" s="100">
-        <v>1.21</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="R113" s="100"/>
       <c r="S113" s="100"/>
-      <c r="T113" s="100">
-        <v>4</v>
-      </c>
-      <c r="U113" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="V113" s="108">
-        <f>0.05+R113</f>
-        <v>1.26</v>
-      </c>
+      <c r="T113" s="100"/>
+      <c r="U113" s="115"/>
+      <c r="V113" s="108"/>
       <c r="W113" s="108"/>
-      <c r="X113" s="108">
-        <v>2</v>
-      </c>
-      <c r="Y113" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z113" s="100">
-        <f>0.15+R113</f>
-        <v>1.3599999999999999</v>
-      </c>
+      <c r="X113" s="108"/>
+      <c r="Z113" s="100"/>
       <c r="AA113" s="100"/>
-      <c r="AB113" s="100">
-        <v>1</v>
-      </c>
-      <c r="AC113" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD113" s="108">
-        <f>0.9+R113</f>
-        <v>2.11</v>
-      </c>
+      <c r="AB113" s="100"/>
+      <c r="AC113" s="115"/>
+      <c r="AD113" s="108"/>
       <c r="AE113" s="108"/>
-      <c r="AF113" s="108">
-        <v>0.35</v>
-      </c>
-      <c r="AG113" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH113" s="100">
-        <f>1.9+R113</f>
-        <v>3.11</v>
-      </c>
+      <c r="AF113" s="108"/>
+      <c r="AH113" s="100"/>
       <c r="AI113" s="100"/>
-      <c r="AJ113" s="100">
-        <v>0</v>
-      </c>
-      <c r="AK113" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL113" s="108">
-        <f>3.9+R113</f>
-        <v>5.1099999999999994</v>
-      </c>
+      <c r="AJ113" s="100"/>
+      <c r="AK113" s="115"/>
+      <c r="AL113" s="108"/>
       <c r="AM113" s="108"/>
-      <c r="AN113" s="108">
-        <v>-1</v>
-      </c>
-      <c r="AO113" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP113" s="100">
-        <f>4.9+R113</f>
-        <v>6.11</v>
-      </c>
+      <c r="AN113" s="108"/>
+      <c r="AP113" s="100"/>
       <c r="AQ113" s="100"/>
-      <c r="AR113" s="100">
-        <v>0</v>
-      </c>
+      <c r="AR113" s="100"/>
       <c r="AS113" s="115"/>
       <c r="AT113" s="108"/>
       <c r="AU113" s="108"/>
@@ -17321,15 +17336,15 @@
         <v>112</v>
       </c>
       <c r="B114" s="99" t="b">
-        <f t="shared" ref="B114:C130" si="68">inp_Un&gt;=110</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="C114" s="99" t="b">
-        <f t="shared" si="68"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="D114" s="98" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E114" s="100">
         <f t="shared" si="62"/>
@@ -17349,15 +17364,13 @@
         <v>0</v>
       </c>
       <c r="J114" s="102">
-        <f t="shared" si="66"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K114" s="102">
-        <f t="shared" si="67"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L114" s="103">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M114" s="108" t="s">
         <v>118</v>
@@ -17366,87 +17379,35 @@
         <v>0</v>
       </c>
       <c r="O114" s="111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P114" s="108">
         <v>0.2</v>
       </c>
-      <c r="Q114" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="R114" s="100">
-        <v>1.21</v>
-      </c>
+      <c r="R114" s="100"/>
       <c r="S114" s="100"/>
-      <c r="T114" s="100">
-        <v>-4</v>
-      </c>
-      <c r="U114" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="V114" s="108">
-        <f>0.05+R114</f>
-        <v>1.26</v>
-      </c>
+      <c r="T114" s="100"/>
+      <c r="U114" s="115"/>
+      <c r="V114" s="108"/>
       <c r="W114" s="108"/>
-      <c r="X114" s="108">
-        <v>-2</v>
-      </c>
-      <c r="Y114" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z114" s="100">
-        <f>0.15+R114</f>
-        <v>1.3599999999999999</v>
-      </c>
+      <c r="X114" s="108"/>
+      <c r="Z114" s="100"/>
       <c r="AA114" s="100"/>
-      <c r="AB114" s="100">
-        <v>-1</v>
-      </c>
-      <c r="AC114" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD114" s="108">
-        <f>0.9+R114</f>
-        <v>2.11</v>
-      </c>
+      <c r="AB114" s="100"/>
+      <c r="AC114" s="115"/>
+      <c r="AD114" s="108"/>
       <c r="AE114" s="108"/>
-      <c r="AF114" s="108">
-        <v>-0.35</v>
-      </c>
-      <c r="AG114" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH114" s="100">
-        <f>1.9+R114</f>
-        <v>3.11</v>
-      </c>
+      <c r="AF114" s="108"/>
+      <c r="AH114" s="100"/>
       <c r="AI114" s="100"/>
-      <c r="AJ114" s="100">
-        <v>0</v>
-      </c>
-      <c r="AK114" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL114" s="108">
-        <f>3.9+R114</f>
-        <v>5.1099999999999994</v>
-      </c>
+      <c r="AJ114" s="100"/>
+      <c r="AK114" s="115"/>
+      <c r="AL114" s="108"/>
       <c r="AM114" s="108"/>
-      <c r="AN114" s="108">
-        <v>1</v>
-      </c>
-      <c r="AO114" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP114" s="100">
-        <f>4.9+R114</f>
-        <v>6.11</v>
-      </c>
+      <c r="AN114" s="108"/>
+      <c r="AP114" s="100"/>
       <c r="AQ114" s="100"/>
-      <c r="AR114" s="100">
-        <v>0</v>
-      </c>
+      <c r="AR114" s="100"/>
       <c r="AS114" s="115"/>
       <c r="AT114" s="108"/>
       <c r="AU114" s="108"/>
@@ -17467,15 +17428,15 @@
         <v>113</v>
       </c>
       <c r="B115" s="99" t="b">
-        <f t="shared" si="68"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="C115" s="99" t="b">
-        <f t="shared" si="68"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="D115" s="98" t="s">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="E115" s="100">
         <f t="shared" si="62"/>
@@ -17495,63 +17456,35 @@
         <v>0</v>
       </c>
       <c r="J115" s="102">
-        <f>inp_scr_tun</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K115" s="102">
-        <f>inp_xr_tun</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L115" s="103">
         <v>12</v>
       </c>
       <c r="M115" s="108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N115" s="108">
         <v>0</v>
       </c>
       <c r="O115" s="111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P115" s="108">
         <v>0.2</v>
       </c>
-      <c r="Q115" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="R115" s="100">
-        <f>N115+P115-0.001</f>
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="S115" s="100">
-        <f>inp_scr_min</f>
-        <v>10</v>
-      </c>
-      <c r="T115" s="100">
-        <f>inp_xr_min</f>
-        <v>20</v>
-      </c>
-      <c r="U115" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="V115" s="108">
-        <f>N115+P115+0.005</f>
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="W115" s="108">
-        <v>51</v>
-      </c>
+      <c r="R115" s="100"/>
+      <c r="S115" s="100"/>
+      <c r="T115" s="100"/>
+      <c r="U115" s="115"/>
+      <c r="V115" s="108"/>
+      <c r="W115" s="108"/>
       <c r="X115" s="108"/>
-      <c r="Y115" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z115" s="100">
-        <v>6</v>
-      </c>
-      <c r="AA115" s="100">
-        <v>50</v>
-      </c>
+      <c r="Z115" s="100"/>
+      <c r="AA115" s="100"/>
       <c r="AB115" s="100"/>
       <c r="AC115" s="115"/>
       <c r="AD115" s="108"/>
@@ -17587,15 +17520,15 @@
         <v>114</v>
       </c>
       <c r="B116" s="99" t="b">
-        <f t="shared" si="68"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="C116" s="99" t="b">
-        <f t="shared" si="68"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="D116" s="98" t="s">
-        <v>464</v>
+        <v>337</v>
       </c>
       <c r="E116" s="100">
         <f t="shared" si="62"/>
@@ -17611,19 +17544,19 @@
         <v>108</v>
       </c>
       <c r="I116" s="100">
-        <f t="shared" ref="I116" si="69">IF(inp_default="Q(U)",E116,IF(inp_default="PF",1,0))</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J116" s="102">
-        <f>inp_scr_tun</f>
+        <f t="shared" ref="J116:J117" si="66">inp_scr_min</f>
+        <v>10</v>
+      </c>
+      <c r="K116" s="102">
+        <f t="shared" ref="K116:K117" si="67">inp_xr_min</f>
         <v>20</v>
       </c>
-      <c r="K116" s="102">
-        <f>inp_xr_tun</f>
+      <c r="L116" s="103">
         <v>15</v>
-      </c>
-      <c r="L116" s="103">
-        <v>12</v>
       </c>
       <c r="M116" s="108" t="s">
         <v>118</v>
@@ -17637,56 +17570,82 @@
       <c r="P116" s="108">
         <v>0.2</v>
       </c>
-      <c r="Q116" s="100" t="s">
-        <v>122</v>
+      <c r="Q116" s="98" t="s">
+        <v>110</v>
       </c>
       <c r="R116" s="100">
-        <f>N116+P116-0.001</f>
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="S116" s="100">
-        <f>inp_scr_min</f>
-        <v>10</v>
-      </c>
+        <v>1.21</v>
+      </c>
+      <c r="S116" s="100"/>
       <c r="T116" s="100">
-        <f>inp_xr_min</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="U116" s="115" t="s">
         <v>110</v>
       </c>
       <c r="V116" s="108">
-        <f>N116+P116+0.005</f>
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="W116" s="108">
-        <v>51</v>
-      </c>
-      <c r="X116" s="108"/>
+        <f>0.05+R116</f>
+        <v>1.26</v>
+      </c>
+      <c r="W116" s="108"/>
+      <c r="X116" s="108">
+        <v>2</v>
+      </c>
       <c r="Y116" s="98" t="s">
         <v>110</v>
       </c>
       <c r="Z116" s="100">
-        <v>4</v>
-      </c>
-      <c r="AA116" s="100">
-        <v>50</v>
-      </c>
-      <c r="AB116" s="100"/>
-      <c r="AC116" s="115"/>
-      <c r="AD116" s="108"/>
+        <f>0.15+R116</f>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="AA116" s="100"/>
+      <c r="AB116" s="100">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD116" s="108">
+        <f>0.9+R116</f>
+        <v>2.11</v>
+      </c>
       <c r="AE116" s="108"/>
-      <c r="AF116" s="108"/>
-      <c r="AH116" s="100"/>
+      <c r="AF116" s="108">
+        <v>0.35</v>
+      </c>
+      <c r="AG116" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH116" s="100">
+        <f>1.9+R116</f>
+        <v>3.11</v>
+      </c>
       <c r="AI116" s="100"/>
-      <c r="AJ116" s="100"/>
-      <c r="AK116" s="115"/>
-      <c r="AL116" s="108"/>
+      <c r="AJ116" s="100">
+        <v>0</v>
+      </c>
+      <c r="AK116" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL116" s="108">
+        <f>3.9+R116</f>
+        <v>5.1099999999999994</v>
+      </c>
       <c r="AM116" s="108"/>
-      <c r="AN116" s="108"/>
-      <c r="AP116" s="100"/>
+      <c r="AN116" s="108">
+        <v>-1</v>
+      </c>
+      <c r="AO116" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP116" s="100">
+        <f>4.9+R116</f>
+        <v>6.11</v>
+      </c>
       <c r="AQ116" s="100"/>
-      <c r="AR116" s="100"/>
+      <c r="AR116" s="100">
+        <v>0</v>
+      </c>
       <c r="AS116" s="115"/>
       <c r="AT116" s="108"/>
       <c r="AU116" s="108"/>
@@ -17707,7 +17666,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="99" t="b">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="B117:C133" si="68">inp_Un&gt;=110</f>
         <v>1</v>
       </c>
       <c r="C117" s="99" t="b">
@@ -17715,10 +17674,10 @@
         <v>1</v>
       </c>
       <c r="D117" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E117" s="100">
-        <f t="shared" ref="E117:E118" si="70">inp_Uc/inp_Un</f>
+        <f t="shared" si="62"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F117" s="100">
@@ -17731,69 +17690,108 @@
         <v>108</v>
       </c>
       <c r="I117" s="100">
-        <f t="shared" ref="I117" si="71">IF(inp_default="Q(U)",E117,IF(inp_default="PF",1,0))</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J117" s="102">
-        <f>inp_scr_max</f>
-        <v>30</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="K117" s="102">
-        <f>inp_xr_max</f>
-        <v>10</v>
+        <f t="shared" si="67"/>
+        <v>20</v>
       </c>
       <c r="L117" s="103">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M117" s="108" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N117" s="108">
         <v>0</v>
       </c>
-      <c r="O117" s="108">
-        <f>inp_scr_min</f>
-        <v>10</v>
+      <c r="O117" s="111">
+        <v>0.4</v>
       </c>
       <c r="P117" s="108">
-        <f>inp_xr_min</f>
-        <v>20</v>
-      </c>
-      <c r="Q117" s="100" t="s">
-        <v>122</v>
+        <v>0.2</v>
+      </c>
+      <c r="Q117" s="98" t="s">
+        <v>110</v>
       </c>
       <c r="R117" s="100">
-        <v>5</v>
-      </c>
-      <c r="S117" s="100">
-        <f>inp_scr_max</f>
-        <v>30</v>
-      </c>
+        <v>1.21</v>
+      </c>
+      <c r="S117" s="100"/>
       <c r="T117" s="100">
-        <f>inp_xr_max</f>
-        <v>10</v>
-      </c>
-      <c r="U117" s="115"/>
-      <c r="V117" s="108"/>
+        <v>-4</v>
+      </c>
+      <c r="U117" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="V117" s="108">
+        <f>0.05+R117</f>
+        <v>1.26</v>
+      </c>
       <c r="W117" s="108"/>
-      <c r="X117" s="108"/>
-      <c r="Z117" s="100"/>
+      <c r="X117" s="108">
+        <v>-2</v>
+      </c>
+      <c r="Y117" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z117" s="100">
+        <f>0.15+R117</f>
+        <v>1.3599999999999999</v>
+      </c>
       <c r="AA117" s="100"/>
-      <c r="AB117" s="100"/>
-      <c r="AC117" s="115"/>
-      <c r="AD117" s="108"/>
+      <c r="AB117" s="100">
+        <v>-1</v>
+      </c>
+      <c r="AC117" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD117" s="108">
+        <f>0.9+R117</f>
+        <v>2.11</v>
+      </c>
       <c r="AE117" s="108"/>
-      <c r="AF117" s="108"/>
-      <c r="AH117" s="100"/>
+      <c r="AF117" s="108">
+        <v>-0.35</v>
+      </c>
+      <c r="AG117" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH117" s="100">
+        <f>1.9+R117</f>
+        <v>3.11</v>
+      </c>
       <c r="AI117" s="100"/>
-      <c r="AJ117" s="100"/>
-      <c r="AK117" s="115"/>
-      <c r="AL117" s="108"/>
+      <c r="AJ117" s="100">
+        <v>0</v>
+      </c>
+      <c r="AK117" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL117" s="108">
+        <f>3.9+R117</f>
+        <v>5.1099999999999994</v>
+      </c>
       <c r="AM117" s="108"/>
-      <c r="AN117" s="108"/>
-      <c r="AP117" s="100"/>
+      <c r="AN117" s="108">
+        <v>1</v>
+      </c>
+      <c r="AO117" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP117" s="100">
+        <f>4.9+R117</f>
+        <v>6.11</v>
+      </c>
       <c r="AQ117" s="100"/>
-      <c r="AR117" s="100"/>
+      <c r="AR117" s="100">
+        <v>0</v>
+      </c>
       <c r="AS117" s="115"/>
       <c r="AT117" s="108"/>
       <c r="AU117" s="108"/>
@@ -17822,10 +17820,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="98" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="E118" s="100">
-        <f t="shared" si="70"/>
+        <f t="shared" si="62"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F118" s="100">
@@ -17834,59 +17832,71 @@
       <c r="G118" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H118" s="102" t="str">
-        <f>IF(inp_default="Q(U)","Q", "Q(U)")</f>
-        <v>Q(U)</v>
+      <c r="H118" s="101" t="s">
+        <v>108</v>
       </c>
       <c r="I118" s="100">
-        <f>IF(inp_default="Q",E118,IF(inp_default="PF",1,0))</f>
-        <v>1.0651315789473685</v>
+        <f t="shared" si="63"/>
+        <v>0</v>
       </c>
       <c r="J118" s="102">
-        <f>inp_scr_max</f>
-        <v>30</v>
+        <f>inp_scr_tun</f>
+        <v>20</v>
       </c>
       <c r="K118" s="102">
-        <f>inp_xr_max</f>
-        <v>10</v>
+        <f>inp_xr_tun</f>
+        <v>15</v>
       </c>
       <c r="L118" s="103">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M118" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="N118" s="108">
+        <v>0</v>
+      </c>
+      <c r="O118" s="111">
+        <v>0.4</v>
+      </c>
+      <c r="P118" s="108">
+        <v>0.2</v>
+      </c>
+      <c r="Q118" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="N118" s="108">
-        <v>0</v>
-      </c>
-      <c r="O118" s="108">
+      <c r="R118" s="100">
+        <f>N118+P118-0.001</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="S118" s="100">
         <f>inp_scr_min</f>
         <v>10</v>
       </c>
-      <c r="P118" s="108">
+      <c r="T118" s="100">
         <f>inp_xr_min</f>
         <v>20</v>
       </c>
-      <c r="Q118" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="R118" s="100">
-        <v>5</v>
-      </c>
-      <c r="S118" s="100">
-        <f>inp_scr_max</f>
-        <v>30</v>
-      </c>
-      <c r="T118" s="100">
-        <f>inp_xr_max</f>
-        <v>10</v>
-      </c>
-      <c r="U118" s="115"/>
-      <c r="V118" s="108"/>
-      <c r="W118" s="108"/>
+      <c r="U118" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="V118" s="108">
+        <f>N118+P118+0.005</f>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="W118" s="108">
+        <v>51</v>
+      </c>
       <c r="X118" s="108"/>
-      <c r="Z118" s="100"/>
-      <c r="AA118" s="100"/>
+      <c r="Y118" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z118" s="100">
+        <v>6</v>
+      </c>
+      <c r="AA118" s="100">
+        <v>50</v>
+      </c>
       <c r="AB118" s="100"/>
       <c r="AC118" s="115"/>
       <c r="AD118" s="108"/>
@@ -17930,10 +17940,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="98" t="s">
-        <v>340</v>
+        <v>464</v>
       </c>
       <c r="E119" s="100">
-        <f t="shared" ref="E119:E141" si="72">inp_Uc/inp_Un</f>
+        <f t="shared" si="62"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F119" s="100">
@@ -17943,38 +17953,70 @@
         <v>223</v>
       </c>
       <c r="H119" s="101" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="I119" s="100">
+        <f t="shared" ref="I119" si="69">IF(inp_default="Q(U)",E119,IF(inp_default="PF",1,0))</f>
         <v>0</v>
       </c>
       <c r="J119" s="102">
-        <v>-1</v>
+        <f>inp_scr_tun</f>
+        <v>20</v>
       </c>
       <c r="K119" s="102">
-        <v>0</v>
-      </c>
-      <c r="L119" s="103"/>
+        <f>inp_xr_tun</f>
+        <v>15</v>
+      </c>
+      <c r="L119" s="103">
+        <v>12</v>
+      </c>
       <c r="M119" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="N119" s="108"/>
-      <c r="O119" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="P119" s="114">
-        <f t="shared" ref="P119:P126" si="73">inp_Uc/inp_Un</f>
-        <v>1.0651315789473685</v>
-      </c>
-      <c r="R119" s="100"/>
-      <c r="S119" s="100"/>
-      <c r="T119" s="100"/>
-      <c r="U119" s="115"/>
-      <c r="V119" s="108"/>
-      <c r="W119" s="108"/>
+        <v>118</v>
+      </c>
+      <c r="N119" s="108">
+        <v>0</v>
+      </c>
+      <c r="O119" s="111">
+        <v>0.4</v>
+      </c>
+      <c r="P119" s="108">
+        <v>0.2</v>
+      </c>
+      <c r="Q119" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="R119" s="100">
+        <f>N119+P119-0.001</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="S119" s="100">
+        <f>inp_scr_min</f>
+        <v>10</v>
+      </c>
+      <c r="T119" s="100">
+        <f>inp_xr_min</f>
+        <v>20</v>
+      </c>
+      <c r="U119" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="V119" s="108">
+        <f>N119+P119+0.005</f>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="W119" s="108">
+        <v>51</v>
+      </c>
       <c r="X119" s="108"/>
-      <c r="Z119" s="100"/>
-      <c r="AA119" s="100"/>
+      <c r="Y119" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z119" s="100">
+        <v>4</v>
+      </c>
+      <c r="AA119" s="100">
+        <v>50</v>
+      </c>
       <c r="AB119" s="100"/>
       <c r="AC119" s="115"/>
       <c r="AD119" s="108"/>
@@ -18018,10 +18060,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="98" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E120" s="100">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="E120:E121" si="70">inp_Uc/inp_Un</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="F120" s="100">
@@ -18030,34 +18072,52 @@
       <c r="G120" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H120" s="102" t="s">
-        <v>113</v>
+      <c r="H120" s="101" t="s">
+        <v>108</v>
       </c>
       <c r="I120" s="100">
-        <f t="shared" ref="I120" si="74">inp_Uc/inp_Un</f>
-        <v>1.0651315789473685</v>
+        <f t="shared" ref="I120" si="71">IF(inp_default="Q(U)",E120,IF(inp_default="PF",1,0))</f>
+        <v>0</v>
       </c>
       <c r="J120" s="102">
-        <v>-1</v>
+        <f>inp_scr_max</f>
+        <v>30</v>
       </c>
       <c r="K120" s="102">
-        <v>0</v>
-      </c>
-      <c r="L120" s="103"/>
+        <f>inp_xr_max</f>
+        <v>10</v>
+      </c>
+      <c r="L120" s="103">
+        <v>10</v>
+      </c>
       <c r="M120" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="N120" s="108"/>
-      <c r="O120" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="P120" s="114">
-        <f t="shared" si="73"/>
-        <v>1.0651315789473685</v>
-      </c>
-      <c r="R120" s="100"/>
-      <c r="S120" s="100"/>
-      <c r="T120" s="100"/>
+        <v>122</v>
+      </c>
+      <c r="N120" s="108">
+        <v>0</v>
+      </c>
+      <c r="O120" s="108">
+        <f>inp_scr_min</f>
+        <v>10</v>
+      </c>
+      <c r="P120" s="108">
+        <f>inp_xr_min</f>
+        <v>20</v>
+      </c>
+      <c r="Q120" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="R120" s="100">
+        <v>5</v>
+      </c>
+      <c r="S120" s="100">
+        <f>inp_scr_max</f>
+        <v>30</v>
+      </c>
+      <c r="T120" s="100">
+        <f>inp_xr_max</f>
+        <v>10</v>
+      </c>
       <c r="U120" s="115"/>
       <c r="V120" s="108"/>
       <c r="W120" s="108"/>
@@ -18107,10 +18167,10 @@
         <v>1</v>
       </c>
       <c r="D121" s="98" t="s">
-        <v>342</v>
+        <v>498</v>
       </c>
       <c r="E121" s="100">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F121" s="100">
@@ -18119,35 +18179,53 @@
       <c r="G121" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H121" s="101" t="s">
-        <v>23</v>
+      <c r="H121" s="102" t="str">
+        <f>IF(inp_default="Q(U)","Q", "Q(U)")</f>
+        <v>Q(U)</v>
       </c>
       <c r="I121" s="100">
-        <v>0</v>
+        <f>IF(inp_default="Q",E121,IF(inp_default="PF",1,0))</f>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J121" s="102">
-        <f t="shared" ref="J121:J122" si="75">inp_scr_min</f>
+        <f>inp_scr_max</f>
+        <v>30</v>
+      </c>
+      <c r="K121" s="102">
+        <f>inp_xr_max</f>
         <v>10</v>
       </c>
-      <c r="K121" s="102">
-        <f t="shared" ref="K121:K122" si="76">inp_xr_min</f>
+      <c r="L121" s="103">
+        <v>10</v>
+      </c>
+      <c r="M121" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="N121" s="108">
+        <v>0</v>
+      </c>
+      <c r="O121" s="108">
+        <f>inp_scr_min</f>
+        <v>10</v>
+      </c>
+      <c r="P121" s="108">
+        <f>inp_xr_min</f>
         <v>20</v>
       </c>
-      <c r="L121" s="103"/>
-      <c r="M121" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="N121" s="108"/>
-      <c r="O121" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="P121" s="114">
-        <f t="shared" si="73"/>
-        <v>1.0651315789473685</v>
-      </c>
-      <c r="R121" s="100"/>
-      <c r="S121" s="100"/>
-      <c r="T121" s="100"/>
+      <c r="Q121" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="R121" s="100">
+        <v>5</v>
+      </c>
+      <c r="S121" s="100">
+        <f>inp_scr_max</f>
+        <v>30</v>
+      </c>
+      <c r="T121" s="100">
+        <f>inp_xr_max</f>
+        <v>10</v>
+      </c>
       <c r="U121" s="115"/>
       <c r="V121" s="108"/>
       <c r="W121" s="108"/>
@@ -18197,10 +18275,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="98" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E122" s="100">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="E122:E144" si="72">inp_Uc/inp_Un</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="F122" s="100">
@@ -18209,20 +18287,17 @@
       <c r="G122" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H122" s="102" t="s">
-        <v>113</v>
+      <c r="H122" s="101" t="s">
+        <v>23</v>
       </c>
       <c r="I122" s="100">
-        <f t="shared" ref="I122" si="77">inp_Uc/inp_Un</f>
-        <v>1.0651315789473685</v>
+        <v>0</v>
       </c>
       <c r="J122" s="102">
-        <f t="shared" si="75"/>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="K122" s="102">
-        <f t="shared" si="76"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L122" s="103"/>
       <c r="M122" s="108" t="s">
@@ -18233,7 +18308,7 @@
         <v>128</v>
       </c>
       <c r="P122" s="114">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="P122:P129" si="73">inp_Uc/inp_Un</f>
         <v>1.0651315789473685</v>
       </c>
       <c r="R122" s="100"/>
@@ -18288,7 +18363,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="98" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E123" s="100">
         <f t="shared" si="72"/>
@@ -18300,11 +18375,12 @@
       <c r="G123" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H123" s="101" t="s">
-        <v>23</v>
+      <c r="H123" s="102" t="s">
+        <v>113</v>
       </c>
       <c r="I123" s="100">
-        <v>0</v>
+        <f t="shared" ref="I123" si="74">inp_Uc/inp_Un</f>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J123" s="102">
         <v>-1</v>
@@ -18318,7 +18394,7 @@
       </c>
       <c r="N123" s="108"/>
       <c r="O123" s="114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P123" s="114">
         <f t="shared" si="73"/>
@@ -18376,7 +18452,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="98" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E124" s="100">
         <f t="shared" si="72"/>
@@ -18388,18 +18464,19 @@
       <c r="G124" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H124" s="102" t="s">
-        <v>113</v>
+      <c r="H124" s="101" t="s">
+        <v>23</v>
       </c>
       <c r="I124" s="100">
-        <f t="shared" ref="I124:I126" si="78">inp_Uc/inp_Un</f>
-        <v>1.0651315789473685</v>
+        <v>0</v>
       </c>
       <c r="J124" s="102">
-        <v>-1</v>
+        <f t="shared" ref="J124:J125" si="75">inp_scr_min</f>
+        <v>10</v>
       </c>
       <c r="K124" s="102">
-        <v>0</v>
+        <f t="shared" ref="K124:K125" si="76">inp_xr_min</f>
+        <v>20</v>
       </c>
       <c r="L124" s="103"/>
       <c r="M124" s="108" t="s">
@@ -18407,13 +18484,12 @@
       </c>
       <c r="N124" s="108"/>
       <c r="O124" s="114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P124" s="114">
         <f t="shared" si="73"/>
         <v>1.0651315789473685</v>
       </c>
-      <c r="Q124" s="100"/>
       <c r="R124" s="100"/>
       <c r="S124" s="100"/>
       <c r="T124" s="100"/>
@@ -18466,7 +18542,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="98" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
       <c r="E125" s="100">
         <f t="shared" si="72"/>
@@ -18478,17 +18554,20 @@
       <c r="G125" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H125" s="101" t="s">
-        <v>23</v>
+      <c r="H125" s="102" t="s">
+        <v>113</v>
       </c>
       <c r="I125" s="100">
-        <v>0</v>
+        <f t="shared" ref="I125" si="77">inp_Uc/inp_Un</f>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J125" s="102">
-        <v>-1</v>
+        <f t="shared" si="75"/>
+        <v>10</v>
       </c>
       <c r="K125" s="102">
-        <v>0</v>
+        <f t="shared" si="76"/>
+        <v>20</v>
       </c>
       <c r="L125" s="103"/>
       <c r="M125" s="108" t="s">
@@ -18496,7 +18575,7 @@
       </c>
       <c r="N125" s="108"/>
       <c r="O125" s="114" t="s">
-        <v>480</v>
+        <v>128</v>
       </c>
       <c r="P125" s="114">
         <f t="shared" si="73"/>
@@ -18554,7 +18633,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="98" t="s">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="E126" s="100">
         <f t="shared" si="72"/>
@@ -18566,12 +18645,11 @@
       <c r="G126" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H126" s="102" t="s">
-        <v>113</v>
+      <c r="H126" s="101" t="s">
+        <v>23</v>
       </c>
       <c r="I126" s="100">
-        <f t="shared" si="78"/>
-        <v>1.0651315789473685</v>
+        <v>0</v>
       </c>
       <c r="J126" s="102">
         <v>-1</v>
@@ -18585,13 +18663,12 @@
       </c>
       <c r="N126" s="108"/>
       <c r="O126" s="114" t="s">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="P126" s="114">
         <f t="shared" si="73"/>
         <v>1.0651315789473685</v>
       </c>
-      <c r="Q126" s="100"/>
       <c r="R126" s="100"/>
       <c r="S126" s="100"/>
       <c r="T126" s="100"/>
@@ -18629,7 +18706,7 @@
       <c r="BD126" s="108"/>
       <c r="BF126" s="100"/>
       <c r="BG126" s="100"/>
-      <c r="BH126" s="176"/>
+      <c r="BH126" s="100"/>
     </row>
     <row r="127" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -18644,7 +18721,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E127" s="100">
         <f t="shared" si="72"/>
@@ -18656,73 +18733,70 @@
       <c r="G127" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H127" s="101" t="s">
-        <v>23</v>
+      <c r="H127" s="102" t="s">
+        <v>113</v>
       </c>
       <c r="I127" s="100">
-        <v>0</v>
+        <f t="shared" ref="I127:I129" si="78">inp_Uc/inp_Un</f>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J127" s="102">
-        <f t="shared" ref="J127:J131" si="79">inp_scr_min</f>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="K127" s="102">
-        <f t="shared" ref="K127:K131" si="80">inp_xr_min</f>
-        <v>20</v>
-      </c>
-      <c r="L127" s="123">
-        <v>60</v>
-      </c>
-      <c r="M127" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="N127" s="142">
-        <v>0</v>
-      </c>
-      <c r="O127" s="142">
-        <v>0.2</v>
-      </c>
-      <c r="P127" s="142">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L127" s="103"/>
+      <c r="M127" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="N127" s="108"/>
+      <c r="O127" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="P127" s="114">
+        <f t="shared" si="73"/>
+        <v>1.0651315789473685</v>
+      </c>
+      <c r="Q127" s="100"/>
       <c r="R127" s="100"/>
       <c r="S127" s="100"/>
       <c r="T127" s="100"/>
-      <c r="U127" s="139"/>
-      <c r="V127" s="142"/>
-      <c r="W127" s="142"/>
-      <c r="X127" s="142"/>
+      <c r="U127" s="115"/>
+      <c r="V127" s="108"/>
+      <c r="W127" s="108"/>
+      <c r="X127" s="108"/>
       <c r="Z127" s="100"/>
       <c r="AA127" s="100"/>
       <c r="AB127" s="100"/>
-      <c r="AC127" s="139"/>
-      <c r="AD127" s="142"/>
-      <c r="AE127" s="142"/>
-      <c r="AF127" s="142"/>
+      <c r="AC127" s="115"/>
+      <c r="AD127" s="108"/>
+      <c r="AE127" s="108"/>
+      <c r="AF127" s="108"/>
       <c r="AH127" s="100"/>
       <c r="AI127" s="100"/>
       <c r="AJ127" s="100"/>
-      <c r="AK127" s="139"/>
-      <c r="AL127" s="142"/>
-      <c r="AM127" s="142"/>
-      <c r="AN127" s="142"/>
+      <c r="AK127" s="115"/>
+      <c r="AL127" s="108"/>
+      <c r="AM127" s="108"/>
+      <c r="AN127" s="108"/>
       <c r="AP127" s="100"/>
       <c r="AQ127" s="100"/>
       <c r="AR127" s="100"/>
-      <c r="AS127" s="139"/>
-      <c r="AT127" s="142"/>
-      <c r="AU127" s="142"/>
-      <c r="AV127" s="142"/>
+      <c r="AS127" s="115"/>
+      <c r="AT127" s="108"/>
+      <c r="AU127" s="108"/>
+      <c r="AV127" s="108"/>
       <c r="AX127" s="100"/>
       <c r="AY127" s="100"/>
       <c r="AZ127" s="100"/>
-      <c r="BA127" s="139"/>
-      <c r="BB127" s="142"/>
-      <c r="BC127" s="142"/>
-      <c r="BD127" s="142"/>
+      <c r="BA127" s="115"/>
+      <c r="BB127" s="108"/>
+      <c r="BC127" s="108"/>
+      <c r="BD127" s="108"/>
       <c r="BF127" s="100"/>
       <c r="BG127" s="100"/>
-      <c r="BH127" s="176"/>
+      <c r="BH127" s="100"/>
     </row>
     <row r="128" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -18737,7 +18811,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="98" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
       <c r="E128" s="100">
         <f t="shared" si="72"/>
@@ -18756,68 +18830,61 @@
         <v>0</v>
       </c>
       <c r="J128" s="102">
-        <f t="shared" si="79"/>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="K128" s="102">
-        <f t="shared" si="80"/>
-        <v>20</v>
-      </c>
-      <c r="L128" s="123">
-        <v>60</v>
-      </c>
-      <c r="M128" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="N128" s="142">
-        <v>0</v>
-      </c>
-      <c r="O128" s="142">
-        <v>0.3</v>
-      </c>
-      <c r="P128" s="142">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="140"/>
+        <v>0</v>
+      </c>
+      <c r="L128" s="103"/>
+      <c r="M128" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="N128" s="108"/>
+      <c r="O128" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="P128" s="114">
+        <f t="shared" si="73"/>
+        <v>1.0651315789473685</v>
+      </c>
       <c r="R128" s="100"/>
       <c r="S128" s="100"/>
       <c r="T128" s="100"/>
-      <c r="U128" s="139"/>
-      <c r="V128" s="142"/>
-      <c r="W128" s="142"/>
-      <c r="X128" s="142"/>
+      <c r="U128" s="115"/>
+      <c r="V128" s="108"/>
+      <c r="W128" s="108"/>
+      <c r="X128" s="108"/>
       <c r="Z128" s="100"/>
       <c r="AA128" s="100"/>
       <c r="AB128" s="100"/>
-      <c r="AC128" s="139"/>
-      <c r="AD128" s="142"/>
-      <c r="AE128" s="142"/>
-      <c r="AF128" s="142"/>
-      <c r="AG128" s="140"/>
+      <c r="AC128" s="115"/>
+      <c r="AD128" s="108"/>
+      <c r="AE128" s="108"/>
+      <c r="AF128" s="108"/>
       <c r="AH128" s="100"/>
       <c r="AI128" s="100"/>
       <c r="AJ128" s="100"/>
-      <c r="AK128" s="139"/>
-      <c r="AL128" s="142"/>
-      <c r="AM128" s="142"/>
-      <c r="AN128" s="142"/>
+      <c r="AK128" s="115"/>
+      <c r="AL128" s="108"/>
+      <c r="AM128" s="108"/>
+      <c r="AN128" s="108"/>
       <c r="AP128" s="100"/>
       <c r="AQ128" s="100"/>
       <c r="AR128" s="100"/>
-      <c r="AS128" s="139"/>
-      <c r="AT128" s="142"/>
-      <c r="AU128" s="142"/>
-      <c r="AV128" s="142"/>
+      <c r="AS128" s="115"/>
+      <c r="AT128" s="108"/>
+      <c r="AU128" s="108"/>
+      <c r="AV128" s="108"/>
       <c r="AX128" s="100"/>
       <c r="AY128" s="100"/>
       <c r="AZ128" s="100"/>
-      <c r="BA128" s="139"/>
-      <c r="BB128" s="142"/>
-      <c r="BC128" s="142"/>
-      <c r="BD128" s="142"/>
+      <c r="BA128" s="115"/>
+      <c r="BB128" s="108"/>
+      <c r="BC128" s="108"/>
+      <c r="BD128" s="108"/>
       <c r="BF128" s="100"/>
       <c r="BG128" s="100"/>
-      <c r="BH128" s="176"/>
+      <c r="BH128" s="100"/>
     </row>
     <row r="129" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -18832,7 +18899,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="98" t="s">
-        <v>348</v>
+        <v>479</v>
       </c>
       <c r="E129" s="100">
         <f t="shared" si="72"/>
@@ -18844,73 +18911,70 @@
       <c r="G129" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H129" s="101" t="s">
-        <v>23</v>
+      <c r="H129" s="102" t="s">
+        <v>113</v>
       </c>
       <c r="I129" s="100">
-        <v>0</v>
+        <f t="shared" si="78"/>
+        <v>1.0651315789473685</v>
       </c>
       <c r="J129" s="102">
-        <f t="shared" si="79"/>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="K129" s="102">
-        <f t="shared" si="80"/>
-        <v>20</v>
-      </c>
-      <c r="L129" s="123">
-        <v>60</v>
-      </c>
-      <c r="M129" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="N129" s="142">
-        <v>0</v>
-      </c>
-      <c r="O129" s="142">
-        <v>0.4</v>
-      </c>
-      <c r="P129" s="142">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L129" s="103"/>
+      <c r="M129" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="N129" s="108"/>
+      <c r="O129" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="P129" s="114">
+        <f t="shared" si="73"/>
+        <v>1.0651315789473685</v>
+      </c>
+      <c r="Q129" s="100"/>
       <c r="R129" s="100"/>
       <c r="S129" s="100"/>
       <c r="T129" s="100"/>
-      <c r="U129" s="139"/>
-      <c r="V129" s="142"/>
-      <c r="W129" s="142"/>
-      <c r="X129" s="142"/>
+      <c r="U129" s="115"/>
+      <c r="V129" s="108"/>
+      <c r="W129" s="108"/>
+      <c r="X129" s="108"/>
       <c r="Z129" s="100"/>
       <c r="AA129" s="100"/>
       <c r="AB129" s="100"/>
-      <c r="AC129" s="139"/>
-      <c r="AD129" s="142"/>
-      <c r="AE129" s="142"/>
-      <c r="AF129" s="142"/>
+      <c r="AC129" s="115"/>
+      <c r="AD129" s="108"/>
+      <c r="AE129" s="108"/>
+      <c r="AF129" s="108"/>
       <c r="AH129" s="100"/>
       <c r="AI129" s="100"/>
       <c r="AJ129" s="100"/>
-      <c r="AK129" s="139"/>
-      <c r="AL129" s="142"/>
-      <c r="AM129" s="142"/>
-      <c r="AN129" s="142"/>
+      <c r="AK129" s="115"/>
+      <c r="AL129" s="108"/>
+      <c r="AM129" s="108"/>
+      <c r="AN129" s="108"/>
       <c r="AP129" s="100"/>
       <c r="AQ129" s="100"/>
       <c r="AR129" s="100"/>
-      <c r="AS129" s="139"/>
-      <c r="AT129" s="142"/>
-      <c r="AU129" s="142"/>
-      <c r="AV129" s="142"/>
+      <c r="AS129" s="115"/>
+      <c r="AT129" s="108"/>
+      <c r="AU129" s="108"/>
+      <c r="AV129" s="108"/>
       <c r="AX129" s="100"/>
       <c r="AY129" s="100"/>
       <c r="AZ129" s="100"/>
-      <c r="BA129" s="139"/>
-      <c r="BB129" s="142"/>
-      <c r="BC129" s="142"/>
-      <c r="BD129" s="142"/>
+      <c r="BA129" s="115"/>
+      <c r="BB129" s="108"/>
+      <c r="BC129" s="108"/>
+      <c r="BD129" s="108"/>
       <c r="BF129" s="100"/>
       <c r="BG129" s="100"/>
-      <c r="BH129" s="176"/>
+      <c r="BH129" s="162"/>
     </row>
     <row r="130" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -18925,7 +18989,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="98" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E130" s="100">
         <f t="shared" si="72"/>
@@ -18944,11 +19008,11 @@
         <v>0</v>
       </c>
       <c r="J130" s="102">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="J130:J134" si="79">inp_scr_min</f>
         <v>10</v>
       </c>
       <c r="K130" s="102">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="K130:K134" si="80">inp_xr_min</f>
         <v>20</v>
       </c>
       <c r="L130" s="123">
@@ -18961,7 +19025,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="142">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P130" s="142">
         <v>0</v>
@@ -19003,22 +19067,22 @@
       <c r="BD130" s="142"/>
       <c r="BF130" s="100"/>
       <c r="BG130" s="100"/>
-      <c r="BH130" s="176"/>
+      <c r="BH130" s="162"/>
     </row>
     <row r="131" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="99" t="b">
-        <f t="shared" ref="B131:C141" si="81">inp_Un&gt;=110</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="C131" s="99" t="b">
-        <f t="shared" si="81"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="D131" s="98" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
       <c r="E131" s="100">
         <f t="shared" si="72"/>
@@ -19045,145 +19109,75 @@
         <v>20</v>
       </c>
       <c r="L131" s="123">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="M131" s="139" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N131" s="142">
         <v>0</v>
       </c>
       <c r="O131" s="142">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="P131" s="142">
         <v>0</v>
       </c>
-      <c r="Q131" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="R131" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="S131" s="100">
-        <v>1</v>
-      </c>
+      <c r="Q131" s="140"/>
+      <c r="R131" s="100"/>
+      <c r="S131" s="100"/>
       <c r="T131" s="100"/>
-      <c r="U131" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="V131" s="142">
-        <v>1</v>
-      </c>
-      <c r="W131" s="142">
-        <v>1.5</v>
-      </c>
+      <c r="U131" s="139"/>
+      <c r="V131" s="142"/>
+      <c r="W131" s="142"/>
       <c r="X131" s="142"/>
-      <c r="Y131" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z131" s="100">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA131" s="100">
-        <v>1</v>
-      </c>
+      <c r="Z131" s="100"/>
+      <c r="AA131" s="100"/>
       <c r="AB131" s="100"/>
-      <c r="AC131" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD131" s="142">
-        <v>2</v>
-      </c>
-      <c r="AE131" s="142">
-        <v>1.7</v>
-      </c>
+      <c r="AC131" s="139"/>
+      <c r="AD131" s="142"/>
+      <c r="AE131" s="142"/>
       <c r="AF131" s="142"/>
-      <c r="AG131" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH131" s="100">
-        <v>2.1</v>
-      </c>
-      <c r="AI131" s="100">
-        <v>1</v>
-      </c>
+      <c r="AG131" s="140"/>
+      <c r="AH131" s="100"/>
+      <c r="AI131" s="100"/>
       <c r="AJ131" s="100"/>
-      <c r="AK131" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL131" s="142">
-        <v>3</v>
-      </c>
-      <c r="AM131" s="142">
-        <v>1.9</v>
-      </c>
+      <c r="AK131" s="139"/>
+      <c r="AL131" s="142"/>
+      <c r="AM131" s="142"/>
       <c r="AN131" s="142"/>
-      <c r="AO131" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP131" s="100">
-        <v>3.1</v>
-      </c>
-      <c r="AQ131" s="100">
-        <v>1</v>
-      </c>
+      <c r="AP131" s="100"/>
+      <c r="AQ131" s="100"/>
       <c r="AR131" s="100"/>
-      <c r="AS131" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT131" s="142">
-        <v>4</v>
-      </c>
-      <c r="AU131" s="142">
-        <v>2.1</v>
-      </c>
+      <c r="AS131" s="139"/>
+      <c r="AT131" s="142"/>
+      <c r="AU131" s="142"/>
       <c r="AV131" s="142"/>
-      <c r="AW131" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX131" s="100">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AY131" s="100">
-        <v>1</v>
-      </c>
+      <c r="AX131" s="100"/>
+      <c r="AY131" s="100"/>
       <c r="AZ131" s="100"/>
-      <c r="BA131" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB131" s="142">
-        <v>5</v>
-      </c>
-      <c r="BC131" s="142">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="BA131" s="139"/>
+      <c r="BB131" s="142"/>
+      <c r="BC131" s="142"/>
       <c r="BD131" s="142"/>
-      <c r="BE131" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF131" s="100">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BG131" s="100">
-        <v>1</v>
-      </c>
-      <c r="BH131" s="176"/>
+      <c r="BF131" s="100"/>
+      <c r="BG131" s="100"/>
+      <c r="BH131" s="162"/>
     </row>
     <row r="132" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="99" t="b">
-        <f t="shared" si="81"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="C132" s="99" t="b">
-        <f t="shared" si="81"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="D132" s="98" t="s">
-        <v>466</v>
+        <v>348</v>
       </c>
       <c r="E132" s="100">
         <f t="shared" si="72"/>
@@ -19202,153 +19196,81 @@
         <v>0</v>
       </c>
       <c r="J132" s="102">
-        <f>inp_scr_max</f>
-        <v>30</v>
+        <f t="shared" si="79"/>
+        <v>10</v>
       </c>
       <c r="K132" s="102">
-        <f>inp_xr_max</f>
-        <v>10</v>
+        <f t="shared" si="80"/>
+        <v>20</v>
       </c>
       <c r="L132" s="123">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="M132" s="139" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N132" s="142">
         <v>0</v>
       </c>
       <c r="O132" s="142">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="P132" s="142">
         <v>0</v>
       </c>
-      <c r="Q132" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="R132" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="S132" s="100">
-        <v>1</v>
-      </c>
+      <c r="R132" s="100"/>
+      <c r="S132" s="100"/>
       <c r="T132" s="100"/>
-      <c r="U132" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="V132" s="142">
-        <v>1</v>
-      </c>
-      <c r="W132" s="142">
-        <v>1.5</v>
-      </c>
+      <c r="U132" s="139"/>
+      <c r="V132" s="142"/>
+      <c r="W132" s="142"/>
       <c r="X132" s="142"/>
-      <c r="Y132" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z132" s="100">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA132" s="100">
-        <v>1</v>
-      </c>
+      <c r="Z132" s="100"/>
+      <c r="AA132" s="100"/>
       <c r="AB132" s="100"/>
-      <c r="AC132" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD132" s="142">
-        <v>2</v>
-      </c>
-      <c r="AE132" s="142">
-        <v>1.7</v>
-      </c>
+      <c r="AC132" s="139"/>
+      <c r="AD132" s="142"/>
+      <c r="AE132" s="142"/>
       <c r="AF132" s="142"/>
-      <c r="AG132" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH132" s="100">
-        <v>2.1</v>
-      </c>
-      <c r="AI132" s="100">
-        <v>1</v>
-      </c>
+      <c r="AH132" s="100"/>
+      <c r="AI132" s="100"/>
       <c r="AJ132" s="100"/>
-      <c r="AK132" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL132" s="142">
-        <v>3</v>
-      </c>
-      <c r="AM132" s="142">
-        <v>1.9</v>
-      </c>
+      <c r="AK132" s="139"/>
+      <c r="AL132" s="142"/>
+      <c r="AM132" s="142"/>
       <c r="AN132" s="142"/>
-      <c r="AO132" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP132" s="100">
-        <v>3.1</v>
-      </c>
-      <c r="AQ132" s="100">
-        <v>1</v>
-      </c>
+      <c r="AP132" s="100"/>
+      <c r="AQ132" s="100"/>
       <c r="AR132" s="100"/>
-      <c r="AS132" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT132" s="142">
-        <v>4</v>
-      </c>
-      <c r="AU132" s="142">
-        <v>2.1</v>
-      </c>
+      <c r="AS132" s="139"/>
+      <c r="AT132" s="142"/>
+      <c r="AU132" s="142"/>
       <c r="AV132" s="142"/>
-      <c r="AW132" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX132" s="100">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AY132" s="100">
-        <v>1</v>
-      </c>
+      <c r="AX132" s="100"/>
+      <c r="AY132" s="100"/>
       <c r="AZ132" s="100"/>
-      <c r="BA132" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB132" s="142">
-        <v>5</v>
-      </c>
-      <c r="BC132" s="142">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="BA132" s="139"/>
+      <c r="BB132" s="142"/>
+      <c r="BC132" s="142"/>
       <c r="BD132" s="142"/>
-      <c r="BE132" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF132" s="100">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BG132" s="100">
-        <v>1</v>
-      </c>
-      <c r="BH132" s="176"/>
+      <c r="BF132" s="100"/>
+      <c r="BG132" s="100"/>
+      <c r="BH132" s="162"/>
     </row>
     <row r="133" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="99" t="b">
-        <f t="shared" si="81"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="C133" s="99" t="b">
-        <f t="shared" si="81"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="D133" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E133" s="100">
         <f t="shared" si="72"/>
@@ -19367,29 +19289,28 @@
         <v>0</v>
       </c>
       <c r="J133" s="102">
-        <f t="shared" ref="J133:J140" si="82">inp_scr_min</f>
+        <f t="shared" si="79"/>
         <v>10</v>
       </c>
       <c r="K133" s="102">
-        <f t="shared" ref="K133:K141" si="83">inp_xr_min</f>
+        <f t="shared" si="80"/>
         <v>20</v>
       </c>
       <c r="L133" s="123">
         <v>60</v>
       </c>
       <c r="M133" s="139" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N133" s="142">
         <v>0</v>
       </c>
-      <c r="O133" s="141">
-        <v>0.8</v>
+      <c r="O133" s="142">
+        <v>0.5</v>
       </c>
       <c r="P133" s="142">
-        <v>60</v>
-      </c>
-      <c r="Q133" s="140"/>
+        <v>0</v>
+      </c>
       <c r="R133" s="100"/>
       <c r="S133" s="100"/>
       <c r="T133" s="100"/>
@@ -19427,14 +19348,14 @@
       <c r="BD133" s="142"/>
       <c r="BF133" s="100"/>
       <c r="BG133" s="100"/>
-      <c r="BH133" s="176"/>
+      <c r="BH133" s="162"/>
     </row>
     <row r="134" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="99" t="b">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="B134:C144" si="81">inp_Un&gt;=110</f>
         <v>1</v>
       </c>
       <c r="C134" s="99" t="b">
@@ -19442,7 +19363,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="98" t="s">
-        <v>351</v>
+        <v>465</v>
       </c>
       <c r="E134" s="100">
         <f t="shared" si="72"/>
@@ -19461,67 +19382,138 @@
         <v>0</v>
       </c>
       <c r="J134" s="102">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>10</v>
       </c>
       <c r="K134" s="102">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>20</v>
       </c>
       <c r="L134" s="123">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="M134" s="139" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N134" s="142">
         <v>0</v>
       </c>
-      <c r="O134" s="141">
-        <v>0.6</v>
+      <c r="O134" s="142">
+        <v>1.3</v>
       </c>
       <c r="P134" s="142">
-        <v>60</v>
-      </c>
-      <c r="Q134" s="140"/>
-      <c r="R134" s="100"/>
-      <c r="S134" s="100"/>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="R134" s="100">
+        <v>0.1</v>
+      </c>
+      <c r="S134" s="100">
+        <v>1</v>
+      </c>
       <c r="T134" s="100"/>
-      <c r="U134" s="139"/>
-      <c r="V134" s="142"/>
-      <c r="W134" s="142"/>
+      <c r="U134" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="V134" s="142">
+        <v>1</v>
+      </c>
+      <c r="W134" s="142">
+        <v>1.5</v>
+      </c>
       <c r="X134" s="142"/>
-      <c r="Z134" s="100"/>
-      <c r="AA134" s="100"/>
+      <c r="Y134" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z134" s="100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA134" s="100">
+        <v>1</v>
+      </c>
       <c r="AB134" s="100"/>
-      <c r="AC134" s="139"/>
-      <c r="AD134" s="142"/>
-      <c r="AE134" s="142"/>
+      <c r="AC134" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD134" s="142">
+        <v>2</v>
+      </c>
+      <c r="AE134" s="142">
+        <v>1.7</v>
+      </c>
       <c r="AF134" s="142"/>
-      <c r="AH134" s="100"/>
-      <c r="AI134" s="100"/>
+      <c r="AG134" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH134" s="100">
+        <v>2.1</v>
+      </c>
+      <c r="AI134" s="100">
+        <v>1</v>
+      </c>
       <c r="AJ134" s="100"/>
-      <c r="AK134" s="139"/>
-      <c r="AL134" s="142"/>
-      <c r="AM134" s="142"/>
+      <c r="AK134" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL134" s="142">
+        <v>3</v>
+      </c>
+      <c r="AM134" s="142">
+        <v>1.9</v>
+      </c>
       <c r="AN134" s="142"/>
-      <c r="AP134" s="100"/>
-      <c r="AQ134" s="100"/>
+      <c r="AO134" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP134" s="100">
+        <v>3.1</v>
+      </c>
+      <c r="AQ134" s="100">
+        <v>1</v>
+      </c>
       <c r="AR134" s="100"/>
-      <c r="AS134" s="139"/>
-      <c r="AT134" s="142"/>
-      <c r="AU134" s="142"/>
+      <c r="AS134" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT134" s="142">
+        <v>4</v>
+      </c>
+      <c r="AU134" s="142">
+        <v>2.1</v>
+      </c>
       <c r="AV134" s="142"/>
-      <c r="AX134" s="100"/>
-      <c r="AY134" s="100"/>
+      <c r="AW134" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX134" s="100">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AY134" s="100">
+        <v>1</v>
+      </c>
       <c r="AZ134" s="100"/>
-      <c r="BA134" s="139"/>
-      <c r="BB134" s="142"/>
-      <c r="BC134" s="142"/>
+      <c r="BA134" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB134" s="142">
+        <v>5</v>
+      </c>
+      <c r="BC134" s="142">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="BD134" s="142"/>
-      <c r="BF134" s="100"/>
-      <c r="BG134" s="100"/>
-      <c r="BH134" s="176"/>
+      <c r="BE134" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF134" s="100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BG134" s="100">
+        <v>1</v>
+      </c>
+      <c r="BH134" s="162"/>
     </row>
     <row r="135" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
@@ -19536,7 +19528,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="98" t="s">
-        <v>352</v>
+        <v>466</v>
       </c>
       <c r="E135" s="100">
         <f t="shared" si="72"/>
@@ -19555,67 +19547,138 @@
         <v>0</v>
       </c>
       <c r="J135" s="102">
-        <f t="shared" si="82"/>
+        <f>inp_scr_max</f>
+        <v>30</v>
+      </c>
+      <c r="K135" s="102">
+        <f>inp_xr_max</f>
         <v>10</v>
       </c>
-      <c r="K135" s="102">
-        <f t="shared" si="83"/>
-        <v>20</v>
-      </c>
       <c r="L135" s="123">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="M135" s="139" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N135" s="142">
         <v>0</v>
       </c>
-      <c r="O135" s="141">
-        <v>0.4</v>
+      <c r="O135" s="142">
+        <v>1.3</v>
       </c>
       <c r="P135" s="142">
-        <v>60</v>
-      </c>
-      <c r="Q135" s="140"/>
-      <c r="R135" s="100"/>
-      <c r="S135" s="100"/>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="R135" s="100">
+        <v>0.1</v>
+      </c>
+      <c r="S135" s="100">
+        <v>1</v>
+      </c>
       <c r="T135" s="100"/>
-      <c r="U135" s="139"/>
-      <c r="V135" s="142"/>
-      <c r="W135" s="142"/>
+      <c r="U135" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="V135" s="142">
+        <v>1</v>
+      </c>
+      <c r="W135" s="142">
+        <v>1.5</v>
+      </c>
       <c r="X135" s="142"/>
-      <c r="Z135" s="100"/>
-      <c r="AA135" s="100"/>
+      <c r="Y135" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z135" s="100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA135" s="100">
+        <v>1</v>
+      </c>
       <c r="AB135" s="100"/>
-      <c r="AC135" s="139"/>
-      <c r="AD135" s="142"/>
-      <c r="AE135" s="142"/>
+      <c r="AC135" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD135" s="142">
+        <v>2</v>
+      </c>
+      <c r="AE135" s="142">
+        <v>1.7</v>
+      </c>
       <c r="AF135" s="142"/>
-      <c r="AH135" s="100"/>
-      <c r="AI135" s="100"/>
+      <c r="AG135" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH135" s="100">
+        <v>2.1</v>
+      </c>
+      <c r="AI135" s="100">
+        <v>1</v>
+      </c>
       <c r="AJ135" s="100"/>
-      <c r="AK135" s="139"/>
-      <c r="AL135" s="142"/>
-      <c r="AM135" s="142"/>
+      <c r="AK135" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL135" s="142">
+        <v>3</v>
+      </c>
+      <c r="AM135" s="142">
+        <v>1.9</v>
+      </c>
       <c r="AN135" s="142"/>
-      <c r="AP135" s="100"/>
-      <c r="AQ135" s="100"/>
+      <c r="AO135" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP135" s="100">
+        <v>3.1</v>
+      </c>
+      <c r="AQ135" s="100">
+        <v>1</v>
+      </c>
       <c r="AR135" s="100"/>
-      <c r="AS135" s="139"/>
-      <c r="AT135" s="142"/>
-      <c r="AU135" s="142"/>
+      <c r="AS135" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT135" s="142">
+        <v>4</v>
+      </c>
+      <c r="AU135" s="142">
+        <v>2.1</v>
+      </c>
       <c r="AV135" s="142"/>
-      <c r="AX135" s="100"/>
-      <c r="AY135" s="100"/>
+      <c r="AW135" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX135" s="100">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AY135" s="100">
+        <v>1</v>
+      </c>
       <c r="AZ135" s="100"/>
-      <c r="BA135" s="139"/>
-      <c r="BB135" s="142"/>
-      <c r="BC135" s="142"/>
+      <c r="BA135" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB135" s="142">
+        <v>5</v>
+      </c>
+      <c r="BC135" s="142">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="BD135" s="142"/>
-      <c r="BF135" s="100"/>
-      <c r="BG135" s="100"/>
-      <c r="BH135" s="176"/>
+      <c r="BE135" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF135" s="100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BG135" s="100">
+        <v>1</v>
+      </c>
+      <c r="BH135" s="162"/>
     </row>
     <row r="136" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -19630,7 +19693,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="98" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E136" s="100">
         <f t="shared" si="72"/>
@@ -19649,11 +19712,11 @@
         <v>0</v>
       </c>
       <c r="J136" s="102">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="J136:J143" si="82">inp_scr_min</f>
         <v>10</v>
       </c>
       <c r="K136" s="102">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="K136:K144" si="83">inp_xr_min</f>
         <v>20</v>
       </c>
       <c r="L136" s="123">
@@ -19666,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="141">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="P136" s="142">
         <v>60</v>
@@ -19709,7 +19772,7 @@
       <c r="BD136" s="142"/>
       <c r="BF136" s="100"/>
       <c r="BG136" s="100"/>
-      <c r="BH136" s="176"/>
+      <c r="BH136" s="162"/>
     </row>
     <row r="137" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -19724,14 +19787,14 @@
         <v>1</v>
       </c>
       <c r="D137" s="98" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E137" s="100">
         <f t="shared" si="72"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F137" s="100">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G137" s="102" t="s">
         <v>223</v>
@@ -19753,16 +19816,18 @@
       <c r="L137" s="123">
         <v>60</v>
       </c>
-      <c r="M137" s="115" t="s">
-        <v>110</v>
+      <c r="M137" s="139" t="s">
+        <v>118</v>
       </c>
       <c r="N137" s="142">
         <v>0</v>
       </c>
-      <c r="O137" s="142">
-        <v>51.6</v>
-      </c>
-      <c r="P137" s="142"/>
+      <c r="O137" s="141">
+        <v>0.6</v>
+      </c>
+      <c r="P137" s="142">
+        <v>60</v>
+      </c>
       <c r="Q137" s="140"/>
       <c r="R137" s="100"/>
       <c r="S137" s="100"/>
@@ -19801,7 +19866,7 @@
       <c r="BD137" s="142"/>
       <c r="BF137" s="100"/>
       <c r="BG137" s="100"/>
-      <c r="BH137" s="176"/>
+      <c r="BH137" s="162"/>
     </row>
     <row r="138" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -19816,14 +19881,14 @@
         <v>1</v>
       </c>
       <c r="D138" s="98" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E138" s="100">
         <f t="shared" si="72"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F138" s="100">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G138" s="102" t="s">
         <v>223</v>
@@ -19845,16 +19910,18 @@
       <c r="L138" s="123">
         <v>60</v>
       </c>
-      <c r="M138" s="115" t="s">
-        <v>110</v>
+      <c r="M138" s="139" t="s">
+        <v>118</v>
       </c>
       <c r="N138" s="142">
         <v>0</v>
       </c>
-      <c r="O138" s="142">
-        <v>47.4</v>
-      </c>
-      <c r="P138" s="142"/>
+      <c r="O138" s="141">
+        <v>0.4</v>
+      </c>
+      <c r="P138" s="142">
+        <v>60</v>
+      </c>
       <c r="Q138" s="140"/>
       <c r="R138" s="100"/>
       <c r="S138" s="100"/>
@@ -19893,7 +19960,7 @@
       <c r="BD138" s="142"/>
       <c r="BF138" s="100"/>
       <c r="BG138" s="100"/>
-      <c r="BH138" s="176"/>
+      <c r="BH138" s="162"/>
     </row>
     <row r="139" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -19908,14 +19975,14 @@
         <v>1</v>
       </c>
       <c r="D139" s="98" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E139" s="100">
         <f t="shared" si="72"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F139" s="100">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G139" s="102" t="s">
         <v>223</v>
@@ -19935,73 +20002,42 @@
         <v>20</v>
       </c>
       <c r="L139" s="123">
-        <v>40</v>
-      </c>
-      <c r="M139" s="115" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="M139" s="139" t="s">
+        <v>118</v>
       </c>
       <c r="N139" s="142">
         <v>0</v>
       </c>
-      <c r="O139" s="142">
-        <v>52</v>
-      </c>
-      <c r="P139" s="142"/>
-      <c r="Q139" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="R139" s="100">
-        <v>8</v>
-      </c>
-      <c r="S139" s="100">
-        <v>53</v>
-      </c>
+      <c r="O139" s="141">
+        <v>0.2</v>
+      </c>
+      <c r="P139" s="142">
+        <v>60</v>
+      </c>
+      <c r="Q139" s="140"/>
+      <c r="R139" s="100"/>
+      <c r="S139" s="100"/>
       <c r="T139" s="100"/>
-      <c r="U139" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="V139" s="142">
-        <v>16</v>
-      </c>
-      <c r="W139" s="142">
-        <v>54</v>
-      </c>
+      <c r="U139" s="139"/>
+      <c r="V139" s="142"/>
+      <c r="W139" s="142"/>
       <c r="X139" s="142"/>
-      <c r="Y139" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z139" s="100">
-        <v>24</v>
-      </c>
-      <c r="AA139" s="100">
-        <v>55</v>
-      </c>
+      <c r="Z139" s="100"/>
+      <c r="AA139" s="100"/>
       <c r="AB139" s="100"/>
-      <c r="AC139" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD139" s="142">
-        <v>32</v>
-      </c>
-      <c r="AE139" s="142">
-        <v>56</v>
-      </c>
+      <c r="AC139" s="139"/>
+      <c r="AD139" s="142"/>
+      <c r="AE139" s="142"/>
       <c r="AF139" s="142"/>
-      <c r="AG139" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH139" s="100">
-        <v>35</v>
-      </c>
-      <c r="AI139" s="100">
-        <v>50</v>
-      </c>
+      <c r="AH139" s="100"/>
+      <c r="AI139" s="100"/>
       <c r="AJ139" s="100"/>
       <c r="AK139" s="139"/>
       <c r="AL139" s="142"/>
       <c r="AM139" s="142"/>
       <c r="AN139" s="142"/>
-      <c r="AO139" s="140"/>
       <c r="AP139" s="100"/>
       <c r="AQ139" s="100"/>
       <c r="AR139" s="100"/>
@@ -20018,7 +20054,7 @@
       <c r="BD139" s="142"/>
       <c r="BF139" s="100"/>
       <c r="BG139" s="100"/>
-      <c r="BH139" s="176"/>
+      <c r="BH139" s="162"/>
     </row>
     <row r="140" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -20033,7 +20069,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="98" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E140" s="100">
         <f t="shared" si="72"/>
@@ -20060,7 +20096,7 @@
         <v>20</v>
       </c>
       <c r="L140" s="123">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M140" s="115" t="s">
         <v>110</v>
@@ -20069,58 +20105,26 @@
         <v>0</v>
       </c>
       <c r="O140" s="142">
-        <v>47</v>
+        <v>51.6</v>
       </c>
       <c r="P140" s="142"/>
-      <c r="Q140" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="R140" s="100">
-        <v>8</v>
-      </c>
-      <c r="S140" s="100">
-        <v>46</v>
-      </c>
+      <c r="Q140" s="140"/>
+      <c r="R140" s="100"/>
+      <c r="S140" s="100"/>
       <c r="T140" s="100"/>
-      <c r="U140" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="V140" s="142">
-        <v>16</v>
-      </c>
-      <c r="W140" s="142">
-        <v>45</v>
-      </c>
+      <c r="U140" s="139"/>
+      <c r="V140" s="142"/>
+      <c r="W140" s="142"/>
       <c r="X140" s="142"/>
-      <c r="Y140" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z140" s="100">
-        <v>24</v>
-      </c>
-      <c r="AA140" s="100">
-        <v>44</v>
-      </c>
+      <c r="Z140" s="100"/>
+      <c r="AA140" s="100"/>
       <c r="AB140" s="100"/>
-      <c r="AC140" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD140" s="142">
-        <v>32</v>
-      </c>
-      <c r="AE140" s="142">
-        <v>43</v>
-      </c>
+      <c r="AC140" s="139"/>
+      <c r="AD140" s="142"/>
+      <c r="AE140" s="142"/>
       <c r="AF140" s="142"/>
-      <c r="AG140" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH140" s="100">
-        <v>35</v>
-      </c>
-      <c r="AI140" s="100">
-        <v>50</v>
-      </c>
+      <c r="AH140" s="100"/>
+      <c r="AI140" s="100"/>
       <c r="AJ140" s="100"/>
       <c r="AK140" s="139"/>
       <c r="AL140" s="142"/>
@@ -20142,7 +20146,7 @@
       <c r="BD140" s="142"/>
       <c r="BF140" s="100"/>
       <c r="BG140" s="100"/>
-      <c r="BH140" s="176"/>
+      <c r="BH140" s="162"/>
     </row>
     <row r="141" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -20157,14 +20161,14 @@
         <v>1</v>
       </c>
       <c r="D141" s="98" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E141" s="100">
         <f t="shared" si="72"/>
         <v>1.0651315789473685</v>
       </c>
       <c r="F141" s="100">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G141" s="102" t="s">
         <v>223</v>
@@ -20176,8 +20180,8 @@
         <v>0</v>
       </c>
       <c r="J141" s="102">
-        <f>inp_scr_max</f>
-        <v>30</v>
+        <f t="shared" si="82"/>
+        <v>10</v>
       </c>
       <c r="K141" s="102">
         <f t="shared" si="83"/>
@@ -20186,131 +20190,394 @@
       <c r="L141" s="123">
         <v>60</v>
       </c>
-      <c r="M141" s="139" t="s">
-        <v>120</v>
+      <c r="M141" s="115" t="s">
+        <v>110</v>
       </c>
       <c r="N141" s="142">
         <v>0</v>
       </c>
-      <c r="O141" s="141">
-        <v>0.05</v>
-      </c>
-      <c r="P141" s="142">
-        <v>60</v>
-      </c>
+      <c r="O141" s="142">
+        <v>47.4</v>
+      </c>
+      <c r="P141" s="142"/>
       <c r="Q141" s="140"/>
+      <c r="R141" s="100"/>
       <c r="S141" s="100"/>
       <c r="T141" s="100"/>
       <c r="U141" s="139"/>
-      <c r="V141" s="139"/>
+      <c r="V141" s="142"/>
       <c r="W141" s="142"/>
       <c r="X141" s="142"/>
+      <c r="Z141" s="100"/>
       <c r="AA141" s="100"/>
       <c r="AB141" s="100"/>
       <c r="AC141" s="139"/>
-      <c r="AD141" s="139"/>
+      <c r="AD141" s="142"/>
       <c r="AE141" s="142"/>
       <c r="AF141" s="142"/>
+      <c r="AH141" s="100"/>
       <c r="AI141" s="100"/>
       <c r="AJ141" s="100"/>
       <c r="AK141" s="139"/>
-      <c r="AL141" s="139"/>
+      <c r="AL141" s="142"/>
       <c r="AM141" s="142"/>
       <c r="AN141" s="142"/>
+      <c r="AP141" s="100"/>
       <c r="AQ141" s="100"/>
       <c r="AR141" s="100"/>
       <c r="AS141" s="139"/>
-      <c r="AT141" s="139"/>
+      <c r="AT141" s="142"/>
       <c r="AU141" s="142"/>
       <c r="AV141" s="142"/>
+      <c r="AX141" s="100"/>
       <c r="AY141" s="100"/>
       <c r="AZ141" s="100"/>
       <c r="BA141" s="139"/>
-      <c r="BB141" s="139"/>
+      <c r="BB141" s="142"/>
       <c r="BC141" s="142"/>
       <c r="BD141" s="142"/>
+      <c r="BF141" s="100"/>
       <c r="BG141" s="100"/>
-      <c r="BH141" s="176"/>
-    </row>
-    <row r="142" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="L142" s="6"/>
-      <c r="P142" s="107"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="W142" s="107"/>
-      <c r="X142" s="107"/>
-      <c r="AA142" s="5"/>
-      <c r="AB142" s="5"/>
-      <c r="AE142" s="107"/>
-      <c r="AF142" s="107"/>
-      <c r="AI142" s="5"/>
-      <c r="AJ142" s="5"/>
-      <c r="AM142" s="107"/>
-      <c r="AN142" s="107"/>
-      <c r="AQ142" s="5"/>
-      <c r="AR142" s="5"/>
-      <c r="AU142" s="107"/>
-      <c r="AV142" s="107"/>
-      <c r="AY142" s="5"/>
-      <c r="AZ142" s="5"/>
-      <c r="BC142" s="107"/>
-      <c r="BD142" s="107"/>
-      <c r="BG142" s="5"/>
-      <c r="BH142" s="177"/>
-    </row>
-    <row r="143" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="L143" s="6"/>
-      <c r="P143" s="107"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-      <c r="W143" s="107"/>
-      <c r="X143" s="107"/>
-      <c r="AA143" s="5"/>
-      <c r="AB143" s="5"/>
-      <c r="AE143" s="107"/>
-      <c r="AF143" s="107"/>
-      <c r="AI143" s="5"/>
-      <c r="AJ143" s="5"/>
-      <c r="AM143" s="107"/>
-      <c r="AN143" s="107"/>
-      <c r="AQ143" s="5"/>
-      <c r="AR143" s="5"/>
-      <c r="AU143" s="107"/>
-      <c r="AV143" s="107"/>
-      <c r="AY143" s="5"/>
-      <c r="AZ143" s="5"/>
-      <c r="BC143" s="107"/>
-      <c r="BD143" s="107"/>
-      <c r="BG143" s="5"/>
-      <c r="BH143" s="177"/>
-    </row>
-    <row r="144" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="L144" s="6"/>
-      <c r="P144" s="107"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="W144" s="107"/>
-      <c r="X144" s="107"/>
-      <c r="AA144" s="5"/>
-      <c r="AB144" s="5"/>
-      <c r="AE144" s="107"/>
-      <c r="AF144" s="107"/>
-      <c r="AI144" s="5"/>
-      <c r="AJ144" s="5"/>
-      <c r="AM144" s="107"/>
-      <c r="AN144" s="107"/>
-      <c r="AQ144" s="5"/>
-      <c r="AR144" s="5"/>
-      <c r="AU144" s="107"/>
-      <c r="AV144" s="107"/>
-      <c r="AY144" s="5"/>
-      <c r="AZ144" s="5"/>
-      <c r="BC144" s="107"/>
-      <c r="BD144" s="107"/>
-      <c r="BG144" s="5"/>
-      <c r="BH144" s="177"/>
-    </row>
-    <row r="145" spans="12:56" x14ac:dyDescent="0.25">
+      <c r="BH141" s="162"/>
+    </row>
+    <row r="142" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="99" t="b">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="C142" s="99" t="b">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="D142" s="98" t="s">
+        <v>356</v>
+      </c>
+      <c r="E142" s="100">
+        <f t="shared" si="72"/>
+        <v>1.0651315789473685</v>
+      </c>
+      <c r="F142" s="100">
+        <v>0.7</v>
+      </c>
+      <c r="G142" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="H142" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I142" s="100">
+        <v>0</v>
+      </c>
+      <c r="J142" s="102">
+        <f t="shared" si="82"/>
+        <v>10</v>
+      </c>
+      <c r="K142" s="102">
+        <f t="shared" si="83"/>
+        <v>20</v>
+      </c>
+      <c r="L142" s="123">
+        <v>40</v>
+      </c>
+      <c r="M142" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="N142" s="142">
+        <v>0</v>
+      </c>
+      <c r="O142" s="142">
+        <v>52</v>
+      </c>
+      <c r="P142" s="142"/>
+      <c r="Q142" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="R142" s="100">
+        <v>8</v>
+      </c>
+      <c r="S142" s="100">
+        <v>53</v>
+      </c>
+      <c r="T142" s="100"/>
+      <c r="U142" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="V142" s="142">
+        <v>16</v>
+      </c>
+      <c r="W142" s="142">
+        <v>54</v>
+      </c>
+      <c r="X142" s="142"/>
+      <c r="Y142" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z142" s="100">
+        <v>24</v>
+      </c>
+      <c r="AA142" s="100">
+        <v>55</v>
+      </c>
+      <c r="AB142" s="100"/>
+      <c r="AC142" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD142" s="142">
+        <v>32</v>
+      </c>
+      <c r="AE142" s="142">
+        <v>56</v>
+      </c>
+      <c r="AF142" s="142"/>
+      <c r="AG142" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH142" s="100">
+        <v>35</v>
+      </c>
+      <c r="AI142" s="100">
+        <v>50</v>
+      </c>
+      <c r="AJ142" s="100"/>
+      <c r="AK142" s="139"/>
+      <c r="AL142" s="142"/>
+      <c r="AM142" s="142"/>
+      <c r="AN142" s="142"/>
+      <c r="AO142" s="140"/>
+      <c r="AP142" s="100"/>
+      <c r="AQ142" s="100"/>
+      <c r="AR142" s="100"/>
+      <c r="AS142" s="139"/>
+      <c r="AT142" s="142"/>
+      <c r="AU142" s="142"/>
+      <c r="AV142" s="142"/>
+      <c r="AX142" s="100"/>
+      <c r="AY142" s="100"/>
+      <c r="AZ142" s="100"/>
+      <c r="BA142" s="139"/>
+      <c r="BB142" s="142"/>
+      <c r="BC142" s="142"/>
+      <c r="BD142" s="142"/>
+      <c r="BF142" s="100"/>
+      <c r="BG142" s="100"/>
+      <c r="BH142" s="162"/>
+    </row>
+    <row r="143" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="99" t="b">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="C143" s="99" t="b">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="D143" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="E143" s="100">
+        <f t="shared" si="72"/>
+        <v>1.0651315789473685</v>
+      </c>
+      <c r="F143" s="100">
+        <v>0.7</v>
+      </c>
+      <c r="G143" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="H143" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I143" s="100">
+        <v>0</v>
+      </c>
+      <c r="J143" s="102">
+        <f t="shared" si="82"/>
+        <v>10</v>
+      </c>
+      <c r="K143" s="102">
+        <f t="shared" si="83"/>
+        <v>20</v>
+      </c>
+      <c r="L143" s="123">
+        <v>40</v>
+      </c>
+      <c r="M143" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="N143" s="142">
+        <v>0</v>
+      </c>
+      <c r="O143" s="142">
+        <v>47</v>
+      </c>
+      <c r="P143" s="142"/>
+      <c r="Q143" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="R143" s="100">
+        <v>8</v>
+      </c>
+      <c r="S143" s="100">
+        <v>46</v>
+      </c>
+      <c r="T143" s="100"/>
+      <c r="U143" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="V143" s="142">
+        <v>16</v>
+      </c>
+      <c r="W143" s="142">
+        <v>45</v>
+      </c>
+      <c r="X143" s="142"/>
+      <c r="Y143" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z143" s="100">
+        <v>24</v>
+      </c>
+      <c r="AA143" s="100">
+        <v>44</v>
+      </c>
+      <c r="AB143" s="100"/>
+      <c r="AC143" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD143" s="142">
+        <v>32</v>
+      </c>
+      <c r="AE143" s="142">
+        <v>43</v>
+      </c>
+      <c r="AF143" s="142"/>
+      <c r="AG143" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH143" s="100">
+        <v>35</v>
+      </c>
+      <c r="AI143" s="100">
+        <v>50</v>
+      </c>
+      <c r="AJ143" s="100"/>
+      <c r="AK143" s="139"/>
+      <c r="AL143" s="142"/>
+      <c r="AM143" s="142"/>
+      <c r="AN143" s="142"/>
+      <c r="AP143" s="100"/>
+      <c r="AQ143" s="100"/>
+      <c r="AR143" s="100"/>
+      <c r="AS143" s="139"/>
+      <c r="AT143" s="142"/>
+      <c r="AU143" s="142"/>
+      <c r="AV143" s="142"/>
+      <c r="AX143" s="100"/>
+      <c r="AY143" s="100"/>
+      <c r="AZ143" s="100"/>
+      <c r="BA143" s="139"/>
+      <c r="BB143" s="142"/>
+      <c r="BC143" s="142"/>
+      <c r="BD143" s="142"/>
+      <c r="BF143" s="100"/>
+      <c r="BG143" s="100"/>
+      <c r="BH143" s="162"/>
+    </row>
+    <row r="144" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="99" t="b">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="C144" s="99" t="b">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="E144" s="100">
+        <f t="shared" si="72"/>
+        <v>1.0651315789473685</v>
+      </c>
+      <c r="F144" s="100">
+        <v>1</v>
+      </c>
+      <c r="G144" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="H144" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I144" s="100">
+        <v>0</v>
+      </c>
+      <c r="J144" s="102">
+        <f>inp_scr_max</f>
+        <v>30</v>
+      </c>
+      <c r="K144" s="102">
+        <f t="shared" si="83"/>
+        <v>20</v>
+      </c>
+      <c r="L144" s="123">
+        <v>60</v>
+      </c>
+      <c r="M144" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="N144" s="142">
+        <v>0</v>
+      </c>
+      <c r="O144" s="141">
+        <v>0.05</v>
+      </c>
+      <c r="P144" s="142">
+        <v>60</v>
+      </c>
+      <c r="Q144" s="140"/>
+      <c r="S144" s="100"/>
+      <c r="T144" s="100"/>
+      <c r="U144" s="139"/>
+      <c r="V144" s="139"/>
+      <c r="W144" s="142"/>
+      <c r="X144" s="142"/>
+      <c r="AA144" s="100"/>
+      <c r="AB144" s="100"/>
+      <c r="AC144" s="139"/>
+      <c r="AD144" s="139"/>
+      <c r="AE144" s="142"/>
+      <c r="AF144" s="142"/>
+      <c r="AI144" s="100"/>
+      <c r="AJ144" s="100"/>
+      <c r="AK144" s="139"/>
+      <c r="AL144" s="139"/>
+      <c r="AM144" s="142"/>
+      <c r="AN144" s="142"/>
+      <c r="AQ144" s="100"/>
+      <c r="AR144" s="100"/>
+      <c r="AS144" s="139"/>
+      <c r="AT144" s="139"/>
+      <c r="AU144" s="142"/>
+      <c r="AV144" s="142"/>
+      <c r="AY144" s="100"/>
+      <c r="AZ144" s="100"/>
+      <c r="BA144" s="139"/>
+      <c r="BB144" s="139"/>
+      <c r="BC144" s="142"/>
+      <c r="BD144" s="142"/>
+      <c r="BG144" s="100"/>
+      <c r="BH144" s="162"/>
+    </row>
+    <row r="145" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L145" s="6"/>
       <c r="P145" s="107"/>
       <c r="S145" s="5"/>
@@ -20321,14 +20588,22 @@
       <c r="AB145" s="5"/>
       <c r="AE145" s="107"/>
       <c r="AF145" s="107"/>
+      <c r="AI145" s="5"/>
+      <c r="AJ145" s="5"/>
+      <c r="AM145" s="107"/>
+      <c r="AN145" s="107"/>
+      <c r="AQ145" s="5"/>
+      <c r="AR145" s="5"/>
       <c r="AU145" s="107"/>
       <c r="AV145" s="107"/>
       <c r="AY145" s="5"/>
       <c r="AZ145" s="5"/>
       <c r="BC145" s="107"/>
       <c r="BD145" s="107"/>
-    </row>
-    <row r="146" spans="12:56" x14ac:dyDescent="0.25">
+      <c r="BG145" s="5"/>
+      <c r="BH145" s="163"/>
+    </row>
+    <row r="146" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L146" s="6"/>
       <c r="P146" s="107"/>
       <c r="S146" s="5"/>
@@ -20339,12 +20614,22 @@
       <c r="AB146" s="5"/>
       <c r="AE146" s="107"/>
       <c r="AF146" s="107"/>
+      <c r="AI146" s="5"/>
+      <c r="AJ146" s="5"/>
+      <c r="AM146" s="107"/>
+      <c r="AN146" s="107"/>
+      <c r="AQ146" s="5"/>
+      <c r="AR146" s="5"/>
+      <c r="AU146" s="107"/>
+      <c r="AV146" s="107"/>
       <c r="AY146" s="5"/>
       <c r="AZ146" s="5"/>
       <c r="BC146" s="107"/>
       <c r="BD146" s="107"/>
-    </row>
-    <row r="147" spans="12:56" x14ac:dyDescent="0.25">
+      <c r="BG146" s="5"/>
+      <c r="BH146" s="163"/>
+    </row>
+    <row r="147" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L147" s="6"/>
       <c r="P147" s="107"/>
       <c r="S147" s="5"/>
@@ -20355,8 +20640,22 @@
       <c r="AB147" s="5"/>
       <c r="AE147" s="107"/>
       <c r="AF147" s="107"/>
-    </row>
-    <row r="148" spans="12:56" x14ac:dyDescent="0.25">
+      <c r="AI147" s="5"/>
+      <c r="AJ147" s="5"/>
+      <c r="AM147" s="107"/>
+      <c r="AN147" s="107"/>
+      <c r="AQ147" s="5"/>
+      <c r="AR147" s="5"/>
+      <c r="AU147" s="107"/>
+      <c r="AV147" s="107"/>
+      <c r="AY147" s="5"/>
+      <c r="AZ147" s="5"/>
+      <c r="BC147" s="107"/>
+      <c r="BD147" s="107"/>
+      <c r="BG147" s="5"/>
+      <c r="BH147" s="163"/>
+    </row>
+    <row r="148" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L148" s="6"/>
       <c r="P148" s="107"/>
       <c r="S148" s="5"/>
@@ -20367,8 +20666,14 @@
       <c r="AB148" s="5"/>
       <c r="AE148" s="107"/>
       <c r="AF148" s="107"/>
-    </row>
-    <row r="149" spans="12:56" x14ac:dyDescent="0.25">
+      <c r="AU148" s="107"/>
+      <c r="AV148" s="107"/>
+      <c r="AY148" s="5"/>
+      <c r="AZ148" s="5"/>
+      <c r="BC148" s="107"/>
+      <c r="BD148" s="107"/>
+    </row>
+    <row r="149" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L149" s="6"/>
       <c r="P149" s="107"/>
       <c r="S149" s="5"/>
@@ -20379,9 +20684,14 @@
       <c r="AB149" s="5"/>
       <c r="AE149" s="107"/>
       <c r="AF149" s="107"/>
-    </row>
-    <row r="150" spans="12:56" x14ac:dyDescent="0.25">
+      <c r="AY149" s="5"/>
+      <c r="AZ149" s="5"/>
+      <c r="BC149" s="107"/>
+      <c r="BD149" s="107"/>
+    </row>
+    <row r="150" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L150" s="6"/>
+      <c r="P150" s="107"/>
       <c r="S150" s="5"/>
       <c r="T150" s="5"/>
       <c r="W150" s="107"/>
@@ -20391,8 +20701,11 @@
       <c r="AE150" s="107"/>
       <c r="AF150" s="107"/>
     </row>
-    <row r="151" spans="12:56" x14ac:dyDescent="0.25">
+    <row r="151" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L151" s="6"/>
+      <c r="P151" s="107"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
       <c r="W151" s="107"/>
       <c r="X151" s="107"/>
       <c r="AA151" s="5"/>
@@ -20400,46 +20713,69 @@
       <c r="AE151" s="107"/>
       <c r="AF151" s="107"/>
     </row>
-    <row r="152" spans="12:56" x14ac:dyDescent="0.25">
+    <row r="152" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L152" s="6"/>
+      <c r="P152" s="107"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="W152" s="107"/>
+      <c r="X152" s="107"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
       <c r="AE152" s="107"/>
       <c r="AF152" s="107"/>
     </row>
-    <row r="153" spans="12:56" x14ac:dyDescent="0.25">
+    <row r="153" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L153" s="6"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="W153" s="107"/>
+      <c r="X153" s="107"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
       <c r="AE153" s="107"/>
       <c r="AF153" s="107"/>
     </row>
-    <row r="154" spans="12:56" x14ac:dyDescent="0.25">
+    <row r="154" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L154" s="6"/>
+      <c r="W154" s="107"/>
+      <c r="X154" s="107"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
       <c r="AE154" s="107"/>
       <c r="AF154" s="107"/>
     </row>
-    <row r="155" spans="12:56" x14ac:dyDescent="0.25">
+    <row r="155" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L155" s="6"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
       <c r="AE155" s="107"/>
       <c r="AF155" s="107"/>
     </row>
-    <row r="156" spans="12:56" x14ac:dyDescent="0.25">
+    <row r="156" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L156" s="6"/>
       <c r="AE156" s="107"/>
       <c r="AF156" s="107"/>
     </row>
-    <row r="157" spans="12:56" x14ac:dyDescent="0.25">
+    <row r="157" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L157" s="6"/>
       <c r="AE157" s="107"/>
       <c r="AF157" s="107"/>
     </row>
-    <row r="158" spans="12:56" x14ac:dyDescent="0.25">
+    <row r="158" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L158" s="6"/>
-    </row>
-    <row r="159" spans="12:56" x14ac:dyDescent="0.25">
+      <c r="AE158" s="107"/>
+      <c r="AF158" s="107"/>
+    </row>
+    <row r="159" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L159" s="6"/>
-    </row>
-    <row r="160" spans="12:56" x14ac:dyDescent="0.25">
+      <c r="AE159" s="107"/>
+      <c r="AF159" s="107"/>
+    </row>
+    <row r="160" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L160" s="6"/>
+      <c r="AE160" s="107"/>
+      <c r="AF160" s="107"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L161" s="6"/>
@@ -20510,8 +20846,17 @@
     <row r="183" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L183" s="6"/>
     </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L186" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:BH141" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:BH144"/>
   <mergeCells count="12">
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="M1:P1"/>
@@ -20530,42 +20875,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Z13:AA13 O51 E30 E35 I117 J132:K132" formula="1"/>
+    <ignoredError sqref="Z13:AA13 O51 E30 E35 I120 J135:K135 I91" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
-          <xm:sqref>Q24 Q142:Q181 Q22 Q3:Q20 AC3:AC24 AG3:AG24 AK3:AK24 Y3:Y24 U3:U24 M142:M1048576 AO3:AO72 AK29:AK72 AC26:AC72 M84 U26:U72 BA29:BA72 M3:M72 Q26:Q72 AG26:AG72 BA3:BA25 BE3:BE72 AW3:AW72 AS3:AS72 Q84 AC84 Y84 U84 Y26:Y72</xm:sqref>
+          <xm:sqref>Q24 Q145:Q184 Q22 Q3:Q20 AC3:AC24 AG3:AG24 AK3:AK24 Y3:Y24 U3:U24 M145:M1048576 AO3:AO72 AK29:AK72 AC26:AC72 M84 U26:U72 BA29:BA72 M3:M72 Q26:Q72 AG26:AG72 BA3:BA25 BE3:BE72 AW3:AW72 AS3:AS72 Q84 AC84 Y84 U84 Y26:Y72</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$272</xm:f>
           </x14:formula1>
-          <xm:sqref>AC73:AC83 Y73:Y83 U73:U83 Q73:Q83 M73:M83 AG139:AG140 Q139:Q140 Y139:Y140 AC139:AC140 U139:U140 M137:M140 AS73:AS126 BA73:BA126 AW73:AW126 BE73:BE126 Y85:Y126 AC85:AC126 AG73:AG126 AK73:AK126 M85:M126 U85:U126 Q85:Q126 AO73:AO126</xm:sqref>
+          <xm:sqref>AC73:AC83 Y73:Y83 U73:U83 Q73:Q83 M73:M83 AG142:AG143 Q142:Q143 Y142:Y143 AC142:AC143 U142:U143 M140:M143 AS73:AS129 BA73:BA129 AW73:AW129 BE73:BE129 Y85:Y129 AC85:AC129 AG73:AG129 AK73:AK129 AO73:AO129 M85:M129 Q85:Q129 U85:U129</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$228</xm:f>
           </x14:formula1>
-          <xm:sqref>U142</xm:sqref>
+          <xm:sqref>U145</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:C141</xm:sqref>
+          <xm:sqref>B3:C144</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
@@ -20578,7 +20923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN171"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20654,78 +20999,78 @@
       <c r="D1" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="172" t="s">
+      <c r="M1" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="170" t="s">
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172" t="s">
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="170" t="s">
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172" t="s">
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="170" t="s">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="172" t="s">
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="170" t="s">
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="175"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="172" t="s">
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="170"/>
+      <c r="AR1" s="173"/>
+      <c r="AS1" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="174"/>
-      <c r="AW1" s="170" t="s">
+      <c r="AT1" s="175"/>
+      <c r="AU1" s="175"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="172" t="s">
+      <c r="AX1" s="170"/>
+      <c r="AY1" s="170"/>
+      <c r="AZ1" s="173"/>
+      <c r="BA1" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="174"/>
-      <c r="BE1" s="170" t="s">
+      <c r="BB1" s="175"/>
+      <c r="BC1" s="175"/>
+      <c r="BD1" s="176"/>
+      <c r="BE1" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="168"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="171"/>
+      <c r="BF1" s="170"/>
+      <c r="BG1" s="170"/>
+      <c r="BH1" s="173"/>
     </row>
     <row r="2" spans="1:92" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -25794,7 +26139,7 @@
       <c r="BH171" s="85"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BH2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A2:BH2"/>
   <mergeCells count="12">
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="M1:P1"/>
@@ -25817,31 +26162,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
           <xm:sqref>M42:M1048576 AG22 AC22 Y22 U22 M22 Q22 Q42:Q66</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$272</xm:f>
           </x14:formula1>
           <xm:sqref>AG23:AG37 AC23:AC37 Y23:Y37 U23:U37 Q23:Q37 M23:M37 BE3:BE37 AG3:AG21 AC3:AC21 Y3:Y21 U3:U21 AK3:AK37 AO3:AO37 AS3:AS37 AW3:AW37 BA3:BA37 M3:M21 Q3:Q21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G42:G1048576 G3:G37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>H42:H1048576 H3:H37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
@@ -25854,7 +26199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -25928,78 +26273,78 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D1" s="96"/>
-      <c r="M1" s="175" t="s">
+      <c r="M1" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="168" t="s">
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="175" t="s">
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="168" t="s">
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="175" t="s">
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="168" t="s">
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="175" t="s">
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="170"/>
+      <c r="AK1" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="175"/>
-      <c r="AN1" s="175"/>
-      <c r="AO1" s="168" t="s">
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="175" t="s">
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="170"/>
+      <c r="AR1" s="170"/>
+      <c r="AS1" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="175"/>
-      <c r="AU1" s="175"/>
-      <c r="AV1" s="175"/>
-      <c r="AW1" s="168" t="s">
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="168"/>
-      <c r="BA1" s="175" t="s">
+      <c r="AX1" s="170"/>
+      <c r="AY1" s="170"/>
+      <c r="AZ1" s="170"/>
+      <c r="BA1" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="175"/>
-      <c r="BC1" s="175"/>
-      <c r="BD1" s="175"/>
-      <c r="BE1" s="168" t="s">
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="168"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="168"/>
+      <c r="BF1" s="170"/>
+      <c r="BG1" s="170"/>
+      <c r="BH1" s="170"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -32462,7 +32807,7 @@
       <c r="X62" s="148"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BH2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A2:BH2"/>
   <mergeCells count="12">
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="M1:P1"/>
@@ -32485,31 +32830,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$272</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG39 AC53:AC61 Y53:Y61 U53:U62 Q53:Q62 BE53:BE61 AK53:AK61 AO53:AO61 AS53:AS61 AW53:AW61 BA53:BA61 M53:M62 AG53:AG61 U3:U39 Y3:Y39 AC3:AC39 M41:M50 BA3:BA50 AW3:AW50 AS3:AS50 AO3:AO50 AK3:AK50 BE3:BE50 Q41:Q50 U41:U50 Y41:Y50 AC41:AC50 AG41:AG50 Q3:Q39 M3:M39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
           <xm:sqref>AG40 AC40 Y40 U40 M40 Q40 M63:M1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
           <xm:sqref>B53:C62 B3:C50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G53:G1048576 G3:G50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
@@ -32522,7 +32867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -32596,78 +32941,78 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D1" s="96"/>
-      <c r="M1" s="175" t="s">
+      <c r="M1" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="168" t="s">
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="175" t="s">
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="168" t="s">
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="175" t="s">
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="168" t="s">
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="175" t="s">
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="170"/>
+      <c r="AK1" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="175"/>
-      <c r="AN1" s="175"/>
-      <c r="AO1" s="168" t="s">
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="175" t="s">
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="170"/>
+      <c r="AR1" s="170"/>
+      <c r="AS1" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="175"/>
-      <c r="AU1" s="175"/>
-      <c r="AV1" s="175"/>
-      <c r="AW1" s="168" t="s">
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="168"/>
-      <c r="BA1" s="175" t="s">
+      <c r="AX1" s="170"/>
+      <c r="AY1" s="170"/>
+      <c r="AZ1" s="170"/>
+      <c r="BA1" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="175"/>
-      <c r="BC1" s="175"/>
-      <c r="BD1" s="175"/>
-      <c r="BE1" s="168" t="s">
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="168"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="168"/>
+      <c r="BF1" s="170"/>
+      <c r="BG1" s="170"/>
+      <c r="BH1" s="170"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -32917,7 +33262,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BH2" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A2:BH2"/>
   <mergeCells count="12">
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="M1:P1"/>
@@ -32937,25 +33282,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
           <xm:sqref>M3:M1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$46</xm:f>
           </x14:formula1>
@@ -32968,7 +33313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -33893,7 +34238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34013,14 +34358,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34273,27 +34616,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B21D61-7BBD-4BD3-A9A5-1E8F98F2F686}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
-    <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34318,9 +34654,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B21D61-7BBD-4BD3-A9A5-1E8F98F2F686}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
+    <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="662">
   <si>
     <t>Range</t>
   </si>
@@ -3670,56 +3670,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3728,18 +3683,12 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3771,9 +3720,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4008,6 +3954,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4016,9 +4019,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4702,16 +4702,16 @@
         <v>437</v>
       </c>
       <c r="H7" s="151"/>
-      <c r="I7" s="166" t="s">
+      <c r="I7" s="268" t="s">
         <v>468</v>
       </c>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166" t="s">
+      <c r="J7" s="268"/>
+      <c r="K7" s="268"/>
+      <c r="L7" s="268" t="s">
         <v>469</v>
       </c>
-      <c r="M7" s="166"/>
-      <c r="N7" s="167"/>
+      <c r="M7" s="268"/>
+      <c r="N7" s="269"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -4824,9 +4824,9 @@
         <v>11</v>
       </c>
       <c r="E13" s="147"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="267"/>
+      <c r="I13" s="267"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
@@ -5098,749 +5098,750 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="274">
+      <c r="A2" s="256">
         <v>2001</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="257" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="283" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="194" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="276">
+      <c r="A3" s="258">
         <v>2002</v>
       </c>
-      <c r="B3" s="277" t="s">
+      <c r="B3" s="259" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="203" t="s">
+      <c r="C3" s="281"/>
+      <c r="D3" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="276">
+      <c r="A4" s="258">
         <v>2003</v>
       </c>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="259" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="203" t="s">
+      <c r="C4" s="281"/>
+      <c r="D4" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="276">
+      <c r="A5" s="258">
         <v>2004</v>
       </c>
-      <c r="B5" s="277" t="s">
+      <c r="B5" s="259" t="s">
         <v>383</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="203" t="s">
+      <c r="C5" s="281"/>
+      <c r="D5" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="276">
+      <c r="A6" s="258">
         <v>2005</v>
       </c>
-      <c r="B6" s="277" t="s">
+      <c r="B6" s="259" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="203" t="s">
+      <c r="C6" s="281"/>
+      <c r="D6" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="278">
+      <c r="A7" s="260">
         <v>2006</v>
       </c>
-      <c r="B7" s="279" t="s">
+      <c r="B7" s="261" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="208" t="s">
+      <c r="C7" s="282"/>
+      <c r="D7" s="190" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="280">
+      <c r="A8" s="262">
         <v>2007</v>
       </c>
-      <c r="B8" s="281" t="s">
+      <c r="B8" s="263" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="282" t="s">
+      <c r="C8" s="264" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="283" t="s">
+      <c r="D8" s="265" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="197">
+      <c r="A9" s="180">
         <v>2008</v>
       </c>
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="181" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="284" t="s">
+      <c r="C9" s="285" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="212" t="s">
+      <c r="D9" s="194" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="205">
+      <c r="A10" s="187">
         <v>2009</v>
       </c>
-      <c r="B10" s="268" t="s">
+      <c r="B10" s="250" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="285"/>
-      <c r="D10" s="208" t="s">
+      <c r="C10" s="286"/>
+      <c r="D10" s="190" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="240">
+      <c r="A11" s="222">
         <v>2010</v>
       </c>
-      <c r="B11" s="264" t="s">
+      <c r="B11" s="246" t="s">
         <v>389</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="283" t="s">
         <v>647</v>
       </c>
-      <c r="D11" s="212" t="s">
+      <c r="D11" s="194" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="242">
+      <c r="A12" s="224">
         <v>2011</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="247" t="s">
         <v>390</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="203" t="s">
+      <c r="C12" s="281"/>
+      <c r="D12" s="185" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="226">
         <v>2012</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="248" t="s">
         <v>391</v>
       </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="208" t="s">
+      <c r="C13" s="282"/>
+      <c r="D13" s="190" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="225">
+      <c r="A14" s="207">
         <v>2013</v>
       </c>
-      <c r="B14" s="226" t="s">
+      <c r="B14" s="208" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="284" t="s">
+      <c r="C14" s="285" t="s">
         <v>566</v>
       </c>
-      <c r="D14" s="212" t="s">
+      <c r="D14" s="194" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="227">
+      <c r="A15" s="209">
         <v>2014</v>
       </c>
-      <c r="B15" s="262" t="s">
+      <c r="B15" s="244" t="s">
         <v>393</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="203" t="s">
+      <c r="C15" s="287"/>
+      <c r="D15" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="227">
+      <c r="A16" s="209">
         <v>2015</v>
       </c>
-      <c r="B16" s="262" t="s">
+      <c r="B16" s="244" t="s">
         <v>394</v>
       </c>
-      <c r="C16" s="286"/>
-      <c r="D16" s="203" t="s">
+      <c r="C16" s="287"/>
+      <c r="D16" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="227">
+      <c r="A17" s="209">
         <v>2016</v>
       </c>
-      <c r="B17" s="262" t="s">
+      <c r="B17" s="244" t="s">
         <v>395</v>
       </c>
-      <c r="C17" s="286"/>
-      <c r="D17" s="203" t="s">
+      <c r="C17" s="287"/>
+      <c r="D17" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="227">
+      <c r="A18" s="209">
         <v>2017</v>
       </c>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="244" t="s">
         <v>396</v>
       </c>
-      <c r="C18" s="286"/>
-      <c r="D18" s="203" t="s">
+      <c r="C18" s="287"/>
+      <c r="D18" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="227">
+      <c r="A19" s="209">
         <v>2018</v>
       </c>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="244" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="286"/>
-      <c r="D19" s="203" t="s">
+      <c r="C19" s="287"/>
+      <c r="D19" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="227">
+      <c r="A20" s="209">
         <v>2019</v>
       </c>
-      <c r="B20" s="262" t="s">
+      <c r="B20" s="244" t="s">
         <v>398</v>
       </c>
-      <c r="C20" s="286"/>
-      <c r="D20" s="203" t="s">
+      <c r="C20" s="287"/>
+      <c r="D20" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="227">
+      <c r="A21" s="209">
         <v>2020</v>
       </c>
-      <c r="B21" s="262" t="s">
+      <c r="B21" s="244" t="s">
         <v>399</v>
       </c>
-      <c r="C21" s="286"/>
-      <c r="D21" s="203" t="s">
+      <c r="C21" s="287"/>
+      <c r="D21" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="227">
+      <c r="A22" s="209">
         <v>2021</v>
       </c>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="244" t="s">
         <v>400</v>
       </c>
-      <c r="C22" s="286"/>
-      <c r="D22" s="203" t="s">
+      <c r="C22" s="287"/>
+      <c r="D22" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="227">
+      <c r="A23" s="209">
         <v>2022</v>
       </c>
-      <c r="B23" s="262" t="s">
+      <c r="B23" s="244" t="s">
         <v>401</v>
       </c>
-      <c r="C23" s="286"/>
-      <c r="D23" s="203" t="s">
+      <c r="C23" s="287"/>
+      <c r="D23" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="227">
+      <c r="A24" s="209">
         <v>2023</v>
       </c>
-      <c r="B24" s="262" t="s">
+      <c r="B24" s="244" t="s">
         <v>402</v>
       </c>
-      <c r="C24" s="286"/>
-      <c r="D24" s="203" t="s">
+      <c r="C24" s="287"/>
+      <c r="D24" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="227">
+      <c r="A25" s="209">
         <v>2024</v>
       </c>
-      <c r="B25" s="262" t="s">
+      <c r="B25" s="244" t="s">
         <v>403</v>
       </c>
-      <c r="C25" s="286"/>
-      <c r="D25" s="203" t="s">
+      <c r="C25" s="287"/>
+      <c r="D25" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="227">
+      <c r="A26" s="209">
         <v>2025</v>
       </c>
-      <c r="B26" s="262" t="s">
+      <c r="B26" s="244" t="s">
         <v>404</v>
       </c>
-      <c r="C26" s="286"/>
-      <c r="D26" s="203" t="s">
+      <c r="C26" s="287"/>
+      <c r="D26" s="185" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="227">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="209">
         <v>2026</v>
       </c>
-      <c r="B27" s="262" t="s">
+      <c r="B27" s="244" t="s">
         <v>405</v>
       </c>
-      <c r="C27" s="286"/>
-      <c r="D27" s="203" t="s">
+      <c r="C27" s="287"/>
+      <c r="D27" s="185" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="227">
+      <c r="A28" s="209">
         <v>2027</v>
       </c>
-      <c r="B28" s="262" t="s">
+      <c r="B28" s="244" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="286"/>
-      <c r="D28" s="203" t="s">
+      <c r="C28" s="287"/>
+      <c r="D28" s="185" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="227">
+      <c r="A29" s="209">
         <v>2028</v>
       </c>
-      <c r="B29" s="262" t="s">
+      <c r="B29" s="244" t="s">
         <v>407</v>
       </c>
-      <c r="C29" s="286"/>
-      <c r="D29" s="203" t="s">
+      <c r="C29" s="287"/>
+      <c r="D29" s="185" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="227">
+      <c r="A30" s="209">
         <v>2029</v>
       </c>
-      <c r="B30" s="262" t="s">
+      <c r="B30" s="244" t="s">
         <v>408</v>
       </c>
-      <c r="C30" s="286"/>
-      <c r="D30" s="209" t="s">
+      <c r="C30" s="287"/>
+      <c r="D30" s="191" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="227">
+      <c r="A31" s="209">
         <v>2030</v>
       </c>
-      <c r="B31" s="262" t="s">
+      <c r="B31" s="244" t="s">
         <v>409</v>
       </c>
-      <c r="C31" s="286"/>
-      <c r="D31" s="209" t="s">
+      <c r="C31" s="287"/>
+      <c r="D31" s="191" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="227">
+      <c r="A32" s="209">
         <v>2031</v>
       </c>
-      <c r="B32" s="262" t="s">
+      <c r="B32" s="244" t="s">
         <v>410</v>
       </c>
-      <c r="C32" s="286"/>
-      <c r="D32" s="203" t="s">
+      <c r="C32" s="287"/>
+      <c r="D32" s="185" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="227">
+      <c r="A33" s="209">
         <v>2032</v>
       </c>
-      <c r="B33" s="262" t="s">
+      <c r="B33" s="244" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="286"/>
-      <c r="D33" s="203" t="s">
+      <c r="C33" s="287"/>
+      <c r="D33" s="185" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="227">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="209">
         <v>2033</v>
       </c>
-      <c r="B34" s="262" t="s">
+      <c r="B34" s="244" t="s">
         <v>412</v>
       </c>
-      <c r="C34" s="286"/>
-      <c r="D34" s="203" t="s">
+      <c r="C34" s="287"/>
+      <c r="D34" s="185" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="227">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="209">
         <v>2034</v>
       </c>
-      <c r="B35" s="262" t="s">
+      <c r="B35" s="244" t="s">
         <v>413</v>
       </c>
-      <c r="C35" s="286"/>
-      <c r="D35" s="203" t="s">
+      <c r="C35" s="287"/>
+      <c r="D35" s="185" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="227">
+      <c r="A36" s="209">
         <v>2035</v>
       </c>
-      <c r="B36" s="262" t="s">
+      <c r="B36" s="244" t="s">
         <v>414</v>
       </c>
-      <c r="C36" s="286"/>
-      <c r="D36" s="203" t="s">
+      <c r="C36" s="287"/>
+      <c r="D36" s="185" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="232">
+      <c r="A37" s="214">
         <v>2036</v>
       </c>
-      <c r="B37" s="263" t="s">
+      <c r="B37" s="245" t="s">
         <v>490</v>
       </c>
-      <c r="C37" s="285"/>
-      <c r="D37" s="203" t="s">
+      <c r="C37" s="286"/>
+      <c r="D37" s="185" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="240">
+      <c r="A38" s="222">
         <v>2037</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="246" t="s">
         <v>415</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="283" t="s">
         <v>647</v>
       </c>
-      <c r="D38" s="212" t="s">
+      <c r="D38" s="194" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="242">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="224">
         <v>2038</v>
       </c>
-      <c r="B39" s="265" t="s">
+      <c r="B39" s="247" t="s">
         <v>416</v>
       </c>
-      <c r="C39" s="185"/>
-      <c r="D39" s="203" t="s">
+      <c r="C39" s="281"/>
+      <c r="D39" s="185" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="242">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="224">
         <v>2039</v>
       </c>
-      <c r="B40" s="265" t="s">
+      <c r="B40" s="247" t="s">
         <v>417</v>
       </c>
-      <c r="C40" s="185"/>
-      <c r="D40" s="203" t="s">
+      <c r="C40" s="281"/>
+      <c r="D40" s="185" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="244">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="226">
         <v>2040</v>
       </c>
-      <c r="B41" s="266" t="s">
+      <c r="B41" s="248" t="s">
         <v>418</v>
       </c>
-      <c r="C41" s="189"/>
-      <c r="D41" s="208" t="s">
+      <c r="C41" s="282"/>
+      <c r="D41" s="190" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="269">
+      <c r="A42" s="251">
         <v>2041</v>
       </c>
-      <c r="B42" s="270" t="s">
+      <c r="B42" s="252" t="s">
         <v>463</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="283" t="s">
         <v>655</v>
       </c>
-      <c r="D42" s="212" t="s">
+      <c r="D42" s="194" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="271">
+      <c r="A43" s="253">
         <v>2042</v>
       </c>
-      <c r="B43" s="253" t="s">
+      <c r="B43" s="235" t="s">
         <v>464</v>
       </c>
-      <c r="C43" s="185"/>
-      <c r="D43" s="203" t="s">
+      <c r="C43" s="281"/>
+      <c r="D43" s="185" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="271">
+      <c r="A44" s="253">
         <v>2043</v>
       </c>
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="235" t="s">
         <v>419</v>
       </c>
-      <c r="C44" s="185"/>
-      <c r="D44" s="203" t="s">
+      <c r="C44" s="281"/>
+      <c r="D44" s="185" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="271">
+      <c r="A45" s="253">
         <v>2044</v>
       </c>
-      <c r="B45" s="253" t="s">
+      <c r="B45" s="235" t="s">
         <v>420</v>
       </c>
-      <c r="C45" s="185"/>
-      <c r="D45" s="203" t="s">
+      <c r="C45" s="281"/>
+      <c r="D45" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="271">
+      <c r="A46" s="253">
         <v>2045</v>
       </c>
-      <c r="B46" s="253" t="s">
+      <c r="B46" s="235" t="s">
         <v>421</v>
       </c>
-      <c r="C46" s="185"/>
-      <c r="D46" s="203" t="s">
+      <c r="C46" s="281"/>
+      <c r="D46" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="271">
+      <c r="A47" s="253">
         <v>2046</v>
       </c>
-      <c r="B47" s="253" t="s">
+      <c r="B47" s="235" t="s">
         <v>422</v>
       </c>
-      <c r="C47" s="185"/>
-      <c r="D47" s="203" t="s">
+      <c r="C47" s="281"/>
+      <c r="D47" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="271">
+      <c r="A48" s="253">
         <v>2047</v>
       </c>
-      <c r="B48" s="253" t="s">
+      <c r="B48" s="235" t="s">
         <v>454</v>
       </c>
-      <c r="C48" s="185"/>
-      <c r="D48" s="203" t="s">
+      <c r="C48" s="281"/>
+      <c r="D48" s="185" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="271">
+      <c r="A49" s="253">
         <v>2048</v>
       </c>
-      <c r="B49" s="253" t="s">
+      <c r="B49" s="235" t="s">
         <v>455</v>
       </c>
-      <c r="C49" s="185"/>
-      <c r="D49" s="203" t="s">
+      <c r="C49" s="281"/>
+      <c r="D49" s="185" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="271">
+      <c r="A50" s="253">
         <v>2049</v>
       </c>
-      <c r="B50" s="253" t="s">
+      <c r="B50" s="235" t="s">
         <v>488</v>
       </c>
-      <c r="C50" s="185"/>
-      <c r="D50" s="203" t="s">
+      <c r="C50" s="281"/>
+      <c r="D50" s="185" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="271">
+      <c r="A51" s="253">
         <v>2050</v>
       </c>
-      <c r="B51" s="253" t="s">
+      <c r="B51" s="235" t="s">
         <v>489</v>
       </c>
-      <c r="C51" s="185"/>
-      <c r="D51" s="203" t="s">
+      <c r="C51" s="281"/>
+      <c r="D51" s="185" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="271">
+      <c r="A52" s="253">
         <v>2051</v>
       </c>
-      <c r="B52" s="253" t="s">
+      <c r="B52" s="235" t="s">
         <v>462</v>
       </c>
-      <c r="C52" s="185"/>
-      <c r="D52" s="203" t="s">
+      <c r="C52" s="281"/>
+      <c r="D52" s="185" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="271">
+      <c r="A53" s="253">
         <v>2052</v>
       </c>
-      <c r="B53" s="253" t="s">
+      <c r="B53" s="235" t="s">
         <v>458</v>
       </c>
-      <c r="C53" s="185"/>
-      <c r="D53" s="203" t="s">
+      <c r="C53" s="281"/>
+      <c r="D53" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="271">
+      <c r="A54" s="253">
         <v>2053</v>
       </c>
-      <c r="B54" s="253" t="s">
+      <c r="B54" s="235" t="s">
         <v>459</v>
       </c>
-      <c r="C54" s="185"/>
-      <c r="D54" s="203" t="s">
+      <c r="C54" s="281"/>
+      <c r="D54" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="271">
+      <c r="A55" s="253">
         <v>2054</v>
       </c>
-      <c r="B55" s="253" t="s">
+      <c r="B55" s="235" t="s">
         <v>461</v>
       </c>
-      <c r="C55" s="185"/>
-      <c r="D55" s="203" t="s">
+      <c r="C55" s="281"/>
+      <c r="D55" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="271">
+      <c r="A56" s="253">
         <v>2055</v>
       </c>
-      <c r="B56" s="253" t="s">
+      <c r="B56" s="235" t="s">
         <v>460</v>
       </c>
-      <c r="C56" s="185"/>
-      <c r="D56" s="203" t="s">
+      <c r="C56" s="281"/>
+      <c r="D56" s="185" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="271">
+      <c r="A57" s="253">
         <v>2056</v>
       </c>
-      <c r="B57" s="253" t="s">
+      <c r="B57" s="235" t="s">
         <v>423</v>
       </c>
-      <c r="C57" s="185"/>
-      <c r="D57" s="203" t="s">
+      <c r="C57" s="281"/>
+      <c r="D57" s="185" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="271">
+      <c r="A58" s="253">
         <v>2057</v>
       </c>
-      <c r="B58" s="253" t="s">
+      <c r="B58" s="235" t="s">
         <v>424</v>
       </c>
-      <c r="C58" s="185"/>
-      <c r="D58" s="203" t="s">
+      <c r="C58" s="281"/>
+      <c r="D58" s="185" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="271">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="253">
         <v>2058</v>
       </c>
-      <c r="B59" s="253" t="s">
+      <c r="B59" s="235" t="s">
         <v>425</v>
       </c>
-      <c r="C59" s="185"/>
-      <c r="D59" s="203" t="s">
+      <c r="C59" s="281"/>
+      <c r="D59" s="185" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="272">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="254">
         <v>2059</v>
       </c>
-      <c r="B60" s="273" t="s">
+      <c r="B60" s="255" t="s">
         <v>426</v>
       </c>
-      <c r="C60" s="189"/>
-      <c r="D60" s="208" t="s">
+      <c r="C60" s="282"/>
+      <c r="D60" s="190" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="280">
+      <c r="A61" s="262">
         <v>2060</v>
       </c>
-      <c r="B61" s="287" t="s">
+      <c r="B61" s="266" t="s">
         <v>457</v>
       </c>
-      <c r="C61" s="282" t="s">
+      <c r="C61" s="264" t="s">
         <v>659</v>
       </c>
-      <c r="D61" s="283" t="s">
+      <c r="D61" s="265" t="s">
         <v>660</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
+    <mergeCell ref="C42:C60"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C37"/>
     <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5984,16 +5985,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="168" t="s">
+      <c r="C1" s="271"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
       <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7038,78 +7039,78 @@
       <c r="D1" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="172" t="s">
+      <c r="M1" s="274" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="171" t="s">
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172" t="s">
+      <c r="R1" s="273"/>
+      <c r="S1" s="273"/>
+      <c r="T1" s="273"/>
+      <c r="U1" s="274" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="171" t="s">
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
+      <c r="Y1" s="273" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172" t="s">
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="171" t="s">
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="274"/>
+      <c r="AG1" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="172" t="s">
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="273"/>
+      <c r="AJ1" s="273"/>
+      <c r="AK1" s="274" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="172"/>
-      <c r="AM1" s="172"/>
-      <c r="AN1" s="172"/>
-      <c r="AO1" s="171" t="s">
+      <c r="AL1" s="274"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="274"/>
+      <c r="AO1" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="172" t="s">
+      <c r="AP1" s="273"/>
+      <c r="AQ1" s="273"/>
+      <c r="AR1" s="273"/>
+      <c r="AS1" s="274" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="172"/>
-      <c r="AU1" s="172"/>
-      <c r="AV1" s="172"/>
-      <c r="AW1" s="171" t="s">
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="274"/>
+      <c r="AV1" s="274"/>
+      <c r="AW1" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="172" t="s">
+      <c r="AX1" s="273"/>
+      <c r="AY1" s="273"/>
+      <c r="AZ1" s="273"/>
+      <c r="BA1" s="274" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="172"/>
-      <c r="BC1" s="172"/>
-      <c r="BD1" s="172"/>
-      <c r="BE1" s="171" t="s">
+      <c r="BB1" s="274"/>
+      <c r="BC1" s="274"/>
+      <c r="BD1" s="274"/>
+      <c r="BE1" s="273" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="171"/>
-      <c r="BH1" s="171"/>
+      <c r="BF1" s="273"/>
+      <c r="BG1" s="273"/>
+      <c r="BH1" s="273"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -11718,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="121">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M43" s="108" t="s">
         <v>111</v>
@@ -11727,7 +11728,6 @@
         <v>2</v>
       </c>
       <c r="O43" s="108">
-        <f>sel_lvfrt_start</f>
         <v>0.85</v>
       </c>
       <c r="P43" s="108"/>
@@ -11738,8 +11738,7 @@
         <v>8</v>
       </c>
       <c r="S43" s="100">
-        <f>sel_lvfrt_start-0.01</f>
-        <v>0.84</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="T43" s="100"/>
       <c r="U43" s="108" t="s">
@@ -11749,12 +11748,9 @@
         <v>14</v>
       </c>
       <c r="W43" s="108">
-        <f>$E43</f>
-        <v>1</v>
-      </c>
-      <c r="X43" s="108">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X43" s="108"/>
       <c r="Y43" s="100" t="s">
         <v>111</v>
       </c>
@@ -11762,65 +11758,78 @@
         <v>30</v>
       </c>
       <c r="AA43" s="100">
-        <f>sel_lvfrt_start-0.01</f>
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AB43" s="100"/>
       <c r="AC43" s="108" t="s">
         <v>111</v>
       </c>
       <c r="AD43" s="108">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE43" s="108">
-        <f>$E43</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AF43" s="108"/>
       <c r="AG43" s="100" t="s">
         <v>111</v>
       </c>
       <c r="AH43" s="122">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AI43" s="100">
-        <f>sel_lvfrt_start+0.02</f>
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="100"/>
       <c r="AK43" s="114" t="s">
         <v>111</v>
       </c>
       <c r="AL43" s="108">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM43" s="108">
-        <f>sel_lvfrt_start-0.02</f>
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AN43" s="108"/>
       <c r="AO43" s="100" t="s">
         <v>111</v>
       </c>
       <c r="AP43" s="122">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ43" s="100">
-        <f>$E43</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR43" s="100"/>
-      <c r="AS43" s="107"/>
-      <c r="AT43" s="107"/>
-      <c r="AU43" s="107"/>
+      <c r="AS43" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT43" s="107">
+        <v>67</v>
+      </c>
+      <c r="AU43" s="107">
+        <v>1</v>
+      </c>
       <c r="AV43" s="107"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
+      <c r="AW43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX43" s="5">
+        <v>75</v>
+      </c>
+      <c r="AY43" s="5">
+        <v>0.84</v>
+      </c>
       <c r="AZ43" s="5"/>
-      <c r="BA43" s="107"/>
-      <c r="BB43" s="107"/>
-      <c r="BC43" s="107"/>
+      <c r="BA43" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB43" s="107">
+        <v>81</v>
+      </c>
+      <c r="BC43" s="107">
+        <v>1</v>
+      </c>
       <c r="BD43" s="107"/>
       <c r="BE43" s="5"/>
       <c r="BF43" s="5"/>
@@ -23980,13 +23989,13 @@
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
-          <xm:sqref>Q38 Q153:Q192 Q36 M153:M1048576 M90 Q90 AC90 Y90 U90 BA3:BA39 AC3:AC38 AG3:AG38 AK3:AK38 Y3:Y38 M45:M88 U30:U38 Q30:Q34 M13:M27 U3:U27 Q3:Q27 AO45:AO88 Y45:Y88 AG45:AG88 Q45:Q88 U45:U88 AC45:AC88 M120:M121 AK45:AK88 Q120:Q121 AC40:AC42 U40:U42 Q40:Q42 AG40:AG42 Y40:Y42 AO3:AO42 M30:M42 AW3:AW88 AS3:AS88 BE3:BE88 BA43:BA88</xm:sqref>
+          <xm:sqref>Q38 Q153:Q192 Q36 M153:M1048576 M90 Q90 AC90 Y90 U90 BA3:BA39 AC3:AC38 AG3:AG38 AK3:AK38 Y3:Y38 M45:M88 U30:U38 Q30:Q34 M13:M27 U3:U27 Q3:Q27 AO45:AO88 Y45:Y88 AG45:AG88 Q45:Q88 U45:U88 AC45:AC88 M120:M121 AK45:AK88 Q120:Q121 AC40:AC42 U40:U42 Q40:Q42 AG40:AG42 Y40:Y42 AO3:AO42 M30:M42 AS44:AS88 BA44:BA88 BE3:BE88 AS3:AS42 AW3:AW42 AW44:AW88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$272</xm:f>
           </x14:formula1>
-          <xm:sqref>AG150:AG151 Q150:Q151 Y150:Y151 AC150:AC151 U150:U151 M148:M151 M3:M12 M28:M29 Q28:Q29 U28:U29 M89 Q89 U89 Y89 AC89 M122:M137 Q122:Q137 M91:M119 U91:U137 AK89:AK137 AG89:AG137 BE89:BE137 AW89:AW137 BA89:BA137 AS89:AS137 Y91:Y137 AC91:AC137 AO89:AO137 Q91:Q119 U43:U44 Q43:Q44 M43:M44 AC43:AC44 Y43:Y44 AG43:AG44 AK43:AK44 AO43:AO44</xm:sqref>
+          <xm:sqref>AG150:AG151 Q150:Q151 Y150:Y151 AC150:AC151 U150:U151 M148:M151 M3:M12 M28:M29 Q28:Q29 U28:U29 M89 Q89 U89 Y89 AC89 M122:M137 Q122:Q137 M91:M119 U91:U137 AK89:AK137 AG89:AG137 BE89:BE137 AW89:AW137 BA89:BA137 AS89:AS137 Y91:Y137 AC91:AC137 AO89:AO137 Q91:Q119 Q44 M44 AC44 Y44 AG44 AK44 AO44 U44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -24093,78 +24102,78 @@
       <c r="D1" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="175" t="s">
+      <c r="M1" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="173" t="s">
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="279"/>
+      <c r="Q1" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="175" t="s">
+      <c r="R1" s="273"/>
+      <c r="S1" s="273"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="277" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="173" t="s">
+      <c r="V1" s="278"/>
+      <c r="W1" s="278"/>
+      <c r="X1" s="279"/>
+      <c r="Y1" s="275" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="175" t="s">
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="177"/>
-      <c r="AG1" s="173" t="s">
+      <c r="AD1" s="278"/>
+      <c r="AE1" s="278"/>
+      <c r="AF1" s="279"/>
+      <c r="AG1" s="275" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="175" t="s">
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="273"/>
+      <c r="AJ1" s="276"/>
+      <c r="AK1" s="277" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="177"/>
-      <c r="AO1" s="173" t="s">
+      <c r="AL1" s="278"/>
+      <c r="AM1" s="278"/>
+      <c r="AN1" s="279"/>
+      <c r="AO1" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="175" t="s">
+      <c r="AP1" s="273"/>
+      <c r="AQ1" s="273"/>
+      <c r="AR1" s="276"/>
+      <c r="AS1" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="177"/>
-      <c r="AW1" s="173" t="s">
+      <c r="AT1" s="278"/>
+      <c r="AU1" s="278"/>
+      <c r="AV1" s="279"/>
+      <c r="AW1" s="275" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="174"/>
-      <c r="BA1" s="175" t="s">
+      <c r="AX1" s="273"/>
+      <c r="AY1" s="273"/>
+      <c r="AZ1" s="276"/>
+      <c r="BA1" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="177"/>
-      <c r="BE1" s="173" t="s">
+      <c r="BB1" s="278"/>
+      <c r="BC1" s="278"/>
+      <c r="BD1" s="279"/>
+      <c r="BE1" s="275" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="171"/>
-      <c r="BH1" s="174"/>
+      <c r="BF1" s="273"/>
+      <c r="BG1" s="273"/>
+      <c r="BH1" s="276"/>
     </row>
     <row r="2" spans="1:92" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -29365,78 +29374,78 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D1" s="96"/>
-      <c r="M1" s="178" t="s">
+      <c r="M1" s="280" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="171" t="s">
+      <c r="N1" s="280"/>
+      <c r="O1" s="280"/>
+      <c r="P1" s="280"/>
+      <c r="Q1" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="178" t="s">
+      <c r="R1" s="273"/>
+      <c r="S1" s="273"/>
+      <c r="T1" s="273"/>
+      <c r="U1" s="280" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="171" t="s">
+      <c r="V1" s="280"/>
+      <c r="W1" s="280"/>
+      <c r="X1" s="280"/>
+      <c r="Y1" s="273" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="178" t="s">
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="280" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="171" t="s">
+      <c r="AD1" s="280"/>
+      <c r="AE1" s="280"/>
+      <c r="AF1" s="280"/>
+      <c r="AG1" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="178" t="s">
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="273"/>
+      <c r="AJ1" s="273"/>
+      <c r="AK1" s="280" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="171" t="s">
+      <c r="AL1" s="280"/>
+      <c r="AM1" s="280"/>
+      <c r="AN1" s="280"/>
+      <c r="AO1" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="178" t="s">
+      <c r="AP1" s="273"/>
+      <c r="AQ1" s="273"/>
+      <c r="AR1" s="273"/>
+      <c r="AS1" s="280" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="171" t="s">
+      <c r="AT1" s="280"/>
+      <c r="AU1" s="280"/>
+      <c r="AV1" s="280"/>
+      <c r="AW1" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="178" t="s">
+      <c r="AX1" s="273"/>
+      <c r="AY1" s="273"/>
+      <c r="AZ1" s="273"/>
+      <c r="BA1" s="280" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="178"/>
-      <c r="BC1" s="178"/>
-      <c r="BD1" s="178"/>
-      <c r="BE1" s="171" t="s">
+      <c r="BB1" s="280"/>
+      <c r="BC1" s="280"/>
+      <c r="BD1" s="280"/>
+      <c r="BE1" s="273" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="171"/>
-      <c r="BH1" s="171"/>
+      <c r="BF1" s="273"/>
+      <c r="BG1" s="273"/>
+      <c r="BH1" s="273"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -36031,78 +36040,78 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D1" s="96"/>
-      <c r="M1" s="178" t="s">
+      <c r="M1" s="280" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="171" t="s">
+      <c r="N1" s="280"/>
+      <c r="O1" s="280"/>
+      <c r="P1" s="280"/>
+      <c r="Q1" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="178" t="s">
+      <c r="R1" s="273"/>
+      <c r="S1" s="273"/>
+      <c r="T1" s="273"/>
+      <c r="U1" s="280" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="171" t="s">
+      <c r="V1" s="280"/>
+      <c r="W1" s="280"/>
+      <c r="X1" s="280"/>
+      <c r="Y1" s="273" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="178" t="s">
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="280" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="171" t="s">
+      <c r="AD1" s="280"/>
+      <c r="AE1" s="280"/>
+      <c r="AF1" s="280"/>
+      <c r="AG1" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="178" t="s">
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="273"/>
+      <c r="AJ1" s="273"/>
+      <c r="AK1" s="280" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="171" t="s">
+      <c r="AL1" s="280"/>
+      <c r="AM1" s="280"/>
+      <c r="AN1" s="280"/>
+      <c r="AO1" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="178" t="s">
+      <c r="AP1" s="273"/>
+      <c r="AQ1" s="273"/>
+      <c r="AR1" s="273"/>
+      <c r="AS1" s="280" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="171" t="s">
+      <c r="AT1" s="280"/>
+      <c r="AU1" s="280"/>
+      <c r="AV1" s="280"/>
+      <c r="AW1" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="178" t="s">
+      <c r="AX1" s="273"/>
+      <c r="AY1" s="273"/>
+      <c r="AZ1" s="273"/>
+      <c r="BA1" s="280" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="178"/>
-      <c r="BC1" s="178"/>
-      <c r="BD1" s="178"/>
-      <c r="BE1" s="171" t="s">
+      <c r="BB1" s="280"/>
+      <c r="BC1" s="280"/>
+      <c r="BD1" s="280"/>
+      <c r="BE1" s="273" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="171"/>
-      <c r="BH1" s="171"/>
+      <c r="BF1" s="273"/>
+      <c r="BG1" s="273"/>
+      <c r="BH1" s="273"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -36291,8 +36300,7 @@
         <v>3001</v>
       </c>
       <c r="B3" s="1" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="b">
         <f>FALSE</f>
@@ -37360,1839 +37368,1846 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="179">
-        <v>1</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="165">
+        <v>1</v>
+      </c>
+      <c r="B2" s="166" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="283" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="182" t="s">
+      <c r="D2" s="167" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="183">
+      <c r="A3" s="168">
         <v>2</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186" t="s">
+      <c r="C3" s="281"/>
+      <c r="D3" s="170" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="168">
         <v>3</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="169" t="s">
         <v>498</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="186" t="s">
+      <c r="C4" s="281"/>
+      <c r="D4" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="183">
+      <c r="A5" s="168">
         <v>4</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="169" t="s">
         <v>499</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="186" t="s">
+      <c r="C5" s="281"/>
+      <c r="D5" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="183">
+      <c r="A6" s="168">
         <v>5</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="169" t="s">
         <v>500</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186" t="s">
+      <c r="C6" s="281"/>
+      <c r="D6" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="183">
+      <c r="A7" s="168">
         <v>6</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186" t="s">
+      <c r="C7" s="281"/>
+      <c r="D7" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="168">
         <v>7</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="169" t="s">
         <v>502</v>
       </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186" t="s">
+      <c r="C8" s="281"/>
+      <c r="D8" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="183">
+      <c r="A9" s="168">
         <v>8</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="169" t="s">
         <v>503</v>
       </c>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186" t="s">
+      <c r="C9" s="281"/>
+      <c r="D9" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="183">
+      <c r="A10" s="168">
         <v>9</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="169" t="s">
         <v>504</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="186" t="s">
+      <c r="C10" s="281"/>
+      <c r="D10" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187">
-        <v>10</v>
-      </c>
-      <c r="B11" s="188" t="s">
+      <c r="A11" s="171">
+        <v>10</v>
+      </c>
+      <c r="B11" s="172" t="s">
         <v>514</v>
       </c>
-      <c r="C11" s="189"/>
-      <c r="D11" s="190" t="s">
+      <c r="C11" s="282"/>
+      <c r="D11" s="173" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="191">
+      <c r="A12" s="174">
         <v>11</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="174" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="181" t="s">
+      <c r="C12" s="283" t="s">
         <v>520</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="167" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="192">
+      <c r="A13" s="175">
         <v>12</v>
       </c>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="175" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="186" t="s">
+      <c r="C13" s="281"/>
+      <c r="D13" s="170" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="192">
+      <c r="A14" s="175">
         <v>13</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="186" t="s">
+      <c r="C14" s="281"/>
+      <c r="D14" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="192">
+      <c r="A15" s="175">
         <v>14</v>
       </c>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="175" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="186" t="s">
+      <c r="C15" s="281"/>
+      <c r="D15" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="192">
+      <c r="A16" s="175">
         <v>15</v>
       </c>
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="175" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="186" t="s">
+      <c r="C16" s="281"/>
+      <c r="D16" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="193">
+      <c r="A17" s="176">
         <v>16</v>
       </c>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="176" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190" t="s">
+      <c r="C17" s="282"/>
+      <c r="D17" s="173" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="194">
+      <c r="A18" s="177">
         <v>17</v>
       </c>
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="181" t="s">
+      <c r="C18" s="283" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="182" t="s">
+      <c r="D18" s="167" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="195">
+      <c r="A19" s="178">
         <v>18</v>
       </c>
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="186" t="s">
+      <c r="C19" s="281"/>
+      <c r="D19" s="170" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="195">
+      <c r="A20" s="178">
         <v>19</v>
       </c>
-      <c r="B20" s="195" t="s">
+      <c r="B20" s="178" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="186" t="s">
+      <c r="C20" s="281"/>
+      <c r="D20" s="170" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="195">
+      <c r="A21" s="178">
         <v>20</v>
       </c>
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="186" t="s">
+      <c r="C21" s="281"/>
+      <c r="D21" s="170" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="195">
+      <c r="A22" s="178">
         <v>21</v>
       </c>
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="178" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="186" t="s">
+      <c r="C22" s="281"/>
+      <c r="D22" s="170" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="195">
+      <c r="A23" s="178">
         <v>22</v>
       </c>
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186" t="s">
+      <c r="C23" s="281"/>
+      <c r="D23" s="170" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="195">
+      <c r="A24" s="178">
         <v>23</v>
       </c>
-      <c r="B24" s="195" t="s">
+      <c r="B24" s="178" t="s">
         <v>494</v>
       </c>
-      <c r="C24" s="185"/>
-      <c r="D24" s="186" t="s">
+      <c r="C24" s="281"/>
+      <c r="D24" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="195">
+      <c r="A25" s="178">
         <v>24</v>
       </c>
-      <c r="B25" s="195" t="s">
+      <c r="B25" s="178" t="s">
         <v>495</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="186" t="s">
+      <c r="C25" s="281"/>
+      <c r="D25" s="170" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="195">
+      <c r="A26" s="178">
         <v>25</v>
       </c>
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="178" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="185"/>
-      <c r="D26" s="186" t="s">
+      <c r="C26" s="281"/>
+      <c r="D26" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="195">
+      <c r="A27" s="178">
         <v>26</v>
       </c>
-      <c r="B27" s="196" t="s">
+      <c r="B27" s="179" t="s">
         <v>505</v>
       </c>
-      <c r="C27" s="185"/>
-      <c r="D27" s="186" t="s">
+      <c r="C27" s="281"/>
+      <c r="D27" s="170" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="195">
+      <c r="A28" s="178">
         <v>27</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="179" t="s">
         <v>506</v>
       </c>
-      <c r="C28" s="185"/>
-      <c r="D28" s="186" t="s">
+      <c r="C28" s="281"/>
+      <c r="D28" s="170" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="197">
+      <c r="A29" s="180">
         <v>28</v>
       </c>
-      <c r="B29" s="198" t="s">
+      <c r="B29" s="181" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="283" t="s">
         <v>532</v>
       </c>
-      <c r="D29" s="182" t="s">
+      <c r="D29" s="167" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="199">
+      <c r="A30" s="182">
         <v>29</v>
       </c>
-      <c r="B30" s="200" t="s">
+      <c r="B30" s="183" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="201"/>
-      <c r="D30" s="186" t="s">
+      <c r="C30" s="284"/>
+      <c r="D30" s="170" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="199">
+      <c r="A31" s="182">
         <v>30</v>
       </c>
-      <c r="B31" s="202" t="s">
+      <c r="B31" s="184" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="201"/>
-      <c r="D31" s="186" t="s">
+      <c r="C31" s="284"/>
+      <c r="D31" s="170" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="199">
+      <c r="A32" s="182">
         <v>31</v>
       </c>
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="184" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="201"/>
-      <c r="D32" s="186" t="s">
+      <c r="C32" s="284"/>
+      <c r="D32" s="170" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="199">
+      <c r="A33" s="182">
         <v>32</v>
       </c>
-      <c r="B33" s="202" t="s">
+      <c r="B33" s="184" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="201"/>
-      <c r="D33" s="203" t="s">
+      <c r="C33" s="284"/>
+      <c r="D33" s="185" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="199">
+      <c r="A34" s="182">
         <v>33</v>
       </c>
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="183" t="s">
         <v>260</v>
       </c>
-      <c r="C34" s="201"/>
-      <c r="D34" s="186" t="s">
+      <c r="C34" s="284"/>
+      <c r="D34" s="170" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="199">
+      <c r="A35" s="182">
         <v>34</v>
       </c>
-      <c r="B35" s="202" t="s">
+      <c r="B35" s="184" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="201"/>
-      <c r="D35" s="186" t="s">
+      <c r="C35" s="284"/>
+      <c r="D35" s="170" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="199">
+      <c r="A36" s="182">
         <v>35</v>
       </c>
-      <c r="B36" s="200" t="s">
+      <c r="B36" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="C36" s="201"/>
-      <c r="D36" s="186" t="s">
+      <c r="C36" s="284"/>
+      <c r="D36" s="170" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="199">
+      <c r="A37" s="182">
         <v>36</v>
       </c>
-      <c r="B37" s="202" t="s">
+      <c r="B37" s="184" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="201"/>
-      <c r="D37" s="186" t="s">
+      <c r="C37" s="284"/>
+      <c r="D37" s="170" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="199">
+      <c r="A38" s="182">
         <v>37</v>
       </c>
-      <c r="B38" s="200" t="s">
+      <c r="B38" s="183" t="s">
         <v>264</v>
       </c>
-      <c r="C38" s="201"/>
-      <c r="D38" s="186" t="s">
+      <c r="C38" s="284"/>
+      <c r="D38" s="170" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="199">
+      <c r="A39" s="182">
         <v>38</v>
       </c>
-      <c r="B39" s="202" t="s">
+      <c r="B39" s="184" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="201"/>
-      <c r="D39" s="186" t="s">
+      <c r="C39" s="284"/>
+      <c r="D39" s="170" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="199">
+      <c r="A40" s="182">
         <v>39</v>
       </c>
-      <c r="B40" s="200" t="s">
+      <c r="B40" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="C40" s="201"/>
-      <c r="D40" s="186" t="s">
+      <c r="C40" s="284"/>
+      <c r="D40" s="170" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="199">
+      <c r="A41" s="182">
         <v>40</v>
       </c>
-      <c r="B41" s="202" t="s">
+      <c r="B41" s="184" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="201"/>
-      <c r="D41" s="186" t="s">
+      <c r="C41" s="284"/>
+      <c r="D41" s="170" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="199">
+      <c r="A42" s="182">
         <v>41</v>
       </c>
-      <c r="B42" s="200" t="s">
+      <c r="B42" s="183" t="s">
         <v>507</v>
       </c>
-      <c r="C42" s="204"/>
-      <c r="D42" s="203" t="s">
+      <c r="C42" s="186"/>
+      <c r="D42" s="185" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="205">
+      <c r="A43" s="187">
         <v>42</v>
       </c>
-      <c r="B43" s="206" t="s">
+      <c r="B43" s="188" t="s">
         <v>508</v>
       </c>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208" t="s">
+      <c r="C43" s="189"/>
+      <c r="D43" s="190" t="s">
         <v>545</v>
       </c>
-      <c r="H43" s="209"/>
+      <c r="H43" s="191"/>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="210">
+      <c r="A44" s="192">
         <v>43</v>
       </c>
-      <c r="B44" s="211" t="s">
+      <c r="B44" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="C44" s="181" t="s">
+      <c r="C44" s="283" t="s">
         <v>546</v>
       </c>
-      <c r="D44" s="212" t="s">
+      <c r="D44" s="194" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="213">
+      <c r="A45" s="195">
         <v>44</v>
       </c>
-      <c r="B45" s="214" t="s">
+      <c r="B45" s="196" t="s">
         <v>269</v>
       </c>
-      <c r="C45" s="201"/>
-      <c r="D45" s="186" t="s">
+      <c r="C45" s="284"/>
+      <c r="D45" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="213">
+      <c r="A46" s="195">
         <v>45</v>
       </c>
-      <c r="B46" s="214" t="s">
+      <c r="B46" s="196" t="s">
         <v>270</v>
       </c>
-      <c r="C46" s="201"/>
-      <c r="D46" s="186" t="s">
+      <c r="C46" s="284"/>
+      <c r="D46" s="170" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="213">
+      <c r="A47" s="195">
         <v>46</v>
       </c>
-      <c r="B47" s="214" t="s">
+      <c r="B47" s="196" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="201"/>
-      <c r="D47" s="203" t="s">
+      <c r="C47" s="284"/>
+      <c r="D47" s="185" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="213">
+      <c r="A48" s="195">
         <v>47</v>
       </c>
-      <c r="B48" s="214" t="s">
+      <c r="B48" s="196" t="s">
         <v>272</v>
       </c>
-      <c r="C48" s="201"/>
-      <c r="D48" s="186" t="s">
+      <c r="C48" s="284"/>
+      <c r="D48" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="213">
+      <c r="A49" s="195">
         <v>48</v>
       </c>
-      <c r="B49" s="214" t="s">
+      <c r="B49" s="196" t="s">
         <v>273</v>
       </c>
-      <c r="C49" s="201"/>
-      <c r="D49" s="186" t="s">
+      <c r="C49" s="284"/>
+      <c r="D49" s="170" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="213">
+      <c r="A50" s="195">
         <v>49</v>
       </c>
-      <c r="B50" s="214" t="s">
+      <c r="B50" s="196" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="201"/>
-      <c r="D50" s="186" t="s">
+      <c r="C50" s="284"/>
+      <c r="D50" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="213">
+      <c r="A51" s="195">
         <v>50</v>
       </c>
-      <c r="B51" s="214" t="s">
+      <c r="B51" s="196" t="s">
         <v>275</v>
       </c>
-      <c r="C51" s="201"/>
-      <c r="D51" s="186" t="s">
+      <c r="C51" s="284"/>
+      <c r="D51" s="170" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="213">
+      <c r="A52" s="195">
         <v>51</v>
       </c>
-      <c r="B52" s="214" t="s">
+      <c r="B52" s="196" t="s">
         <v>276</v>
       </c>
-      <c r="C52" s="201"/>
-      <c r="D52" s="203" t="s">
+      <c r="C52" s="284"/>
+      <c r="D52" s="185" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="215">
+      <c r="A53" s="197">
         <v>52</v>
       </c>
-      <c r="B53" s="216" t="s">
+      <c r="B53" s="198" t="s">
         <v>277</v>
       </c>
-      <c r="C53" s="189"/>
-      <c r="D53" s="190" t="s">
+      <c r="C53" s="282"/>
+      <c r="D53" s="173" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="217">
+      <c r="A54" s="199">
         <v>53</v>
       </c>
-      <c r="B54" s="217" t="s">
+      <c r="B54" s="199" t="s">
         <v>278</v>
       </c>
-      <c r="C54" s="201" t="s">
+      <c r="C54" s="284" t="s">
         <v>550</v>
       </c>
-      <c r="D54" s="203" t="s">
+      <c r="D54" s="185" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="218">
+      <c r="A55" s="200">
         <v>54</v>
       </c>
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="200" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="185"/>
-      <c r="D55" s="186" t="s">
+      <c r="C55" s="281"/>
+      <c r="D55" s="170" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="218">
+      <c r="A56" s="200">
         <v>55</v>
       </c>
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="200" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="185"/>
-      <c r="D56" s="186" t="s">
+      <c r="C56" s="281"/>
+      <c r="D56" s="170" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="219">
+      <c r="A57" s="201">
         <v>56</v>
       </c>
-      <c r="B57" s="219" t="s">
+      <c r="B57" s="201" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="189"/>
-      <c r="D57" s="190" t="s">
+      <c r="C57" s="282"/>
+      <c r="D57" s="173" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="220">
+      <c r="A58" s="202">
         <v>57</v>
       </c>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="203" t="s">
         <v>282</v>
       </c>
-      <c r="C58" s="207" t="s">
+      <c r="C58" s="189" t="s">
         <v>555</v>
       </c>
-      <c r="D58" s="190" t="s">
+      <c r="D58" s="173" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="222">
+      <c r="A59" s="204">
         <v>58</v>
       </c>
-      <c r="B59" s="222" t="s">
+      <c r="B59" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="C59" s="185" t="s">
+      <c r="C59" s="281" t="s">
         <v>557</v>
       </c>
-      <c r="D59" s="186" t="s">
+      <c r="D59" s="170" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="222">
+      <c r="A60" s="204">
         <v>59</v>
       </c>
-      <c r="B60" s="222" t="s">
+      <c r="B60" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="C60" s="185"/>
-      <c r="D60" s="186" t="s">
+      <c r="C60" s="281"/>
+      <c r="D60" s="170" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="222">
+      <c r="A61" s="204">
         <v>60</v>
       </c>
-      <c r="B61" s="222" t="s">
+      <c r="B61" s="204" t="s">
         <v>285</v>
       </c>
-      <c r="C61" s="185"/>
-      <c r="D61" s="186" t="s">
+      <c r="C61" s="281"/>
+      <c r="D61" s="170" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="222">
+      <c r="A62" s="204">
         <v>61</v>
       </c>
-      <c r="B62" s="222" t="s">
+      <c r="B62" s="204" t="s">
         <v>286</v>
       </c>
-      <c r="C62" s="185"/>
-      <c r="D62" s="186" t="s">
+      <c r="C62" s="281"/>
+      <c r="D62" s="170" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="222">
+      <c r="A63" s="204">
         <v>62</v>
       </c>
-      <c r="B63" s="222" t="s">
+      <c r="B63" s="204" t="s">
         <v>287</v>
       </c>
-      <c r="C63" s="185"/>
-      <c r="D63" s="186" t="s">
+      <c r="C63" s="281"/>
+      <c r="D63" s="170" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="222">
+      <c r="A64" s="204">
         <v>63</v>
       </c>
-      <c r="B64" s="222" t="s">
+      <c r="B64" s="204" t="s">
         <v>288</v>
       </c>
-      <c r="C64" s="185"/>
-      <c r="D64" s="186" t="s">
+      <c r="C64" s="281"/>
+      <c r="D64" s="170" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="222">
+      <c r="A65" s="204">
         <v>64</v>
       </c>
-      <c r="B65" s="222" t="s">
+      <c r="B65" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="C65" s="185"/>
-      <c r="D65" s="186" t="s">
+      <c r="C65" s="281"/>
+      <c r="D65" s="170" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="223">
+      <c r="A66" s="205">
         <v>65</v>
       </c>
-      <c r="B66" s="224" t="s">
+      <c r="B66" s="206" t="s">
         <v>290</v>
       </c>
-      <c r="C66" s="189"/>
-      <c r="D66" s="190" t="s">
+      <c r="C66" s="282"/>
+      <c r="D66" s="173" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="225">
+      <c r="A67" s="207">
         <v>66</v>
       </c>
-      <c r="B67" s="226" t="s">
+      <c r="B67" s="208" t="s">
         <v>291</v>
       </c>
-      <c r="C67" s="181" t="s">
+      <c r="C67" s="283" t="s">
         <v>566</v>
       </c>
-      <c r="D67" s="182" t="s">
+      <c r="D67" s="167" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="227">
+      <c r="A68" s="209">
         <v>67</v>
       </c>
-      <c r="B68" s="228" t="s">
+      <c r="B68" s="210" t="s">
         <v>292</v>
       </c>
-      <c r="C68" s="201"/>
-      <c r="D68" s="186" t="s">
+      <c r="C68" s="284"/>
+      <c r="D68" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="227">
+      <c r="A69" s="209">
         <v>68</v>
       </c>
-      <c r="B69" s="228" t="s">
+      <c r="B69" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="C69" s="201"/>
-      <c r="D69" s="186" t="s">
+      <c r="C69" s="284"/>
+      <c r="D69" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="227">
+      <c r="A70" s="209">
         <v>69</v>
       </c>
-      <c r="B70" s="228" t="s">
+      <c r="B70" s="210" t="s">
         <v>294</v>
       </c>
-      <c r="C70" s="201"/>
-      <c r="D70" s="186" t="s">
+      <c r="C70" s="284"/>
+      <c r="D70" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="227">
+      <c r="A71" s="209">
         <v>70</v>
       </c>
-      <c r="B71" s="228" t="s">
+      <c r="B71" s="210" t="s">
         <v>295</v>
       </c>
-      <c r="C71" s="201"/>
-      <c r="D71" s="186" t="s">
+      <c r="C71" s="284"/>
+      <c r="D71" s="170" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="227">
+      <c r="A72" s="209">
         <v>71</v>
       </c>
-      <c r="B72" s="228" t="s">
+      <c r="B72" s="210" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="201"/>
-      <c r="D72" s="186" t="s">
+      <c r="C72" s="284"/>
+      <c r="D72" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="227">
+      <c r="A73" s="209">
         <v>72</v>
       </c>
-      <c r="B73" s="228" t="s">
+      <c r="B73" s="210" t="s">
         <v>297</v>
       </c>
-      <c r="C73" s="201"/>
-      <c r="D73" s="186" t="s">
+      <c r="C73" s="284"/>
+      <c r="D73" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="227">
+      <c r="A74" s="209">
         <v>73</v>
       </c>
-      <c r="B74" s="228" t="s">
+      <c r="B74" s="210" t="s">
         <v>298</v>
       </c>
-      <c r="C74" s="201"/>
-      <c r="D74" s="186" t="s">
+      <c r="C74" s="284"/>
+      <c r="D74" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="227">
+      <c r="A75" s="209">
         <v>74</v>
       </c>
-      <c r="B75" s="228" t="s">
+      <c r="B75" s="210" t="s">
         <v>299</v>
       </c>
-      <c r="C75" s="201"/>
-      <c r="D75" s="186" t="s">
+      <c r="C75" s="284"/>
+      <c r="D75" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="227">
+      <c r="A76" s="209">
         <v>75</v>
       </c>
-      <c r="B76" s="228" t="s">
+      <c r="B76" s="210" t="s">
         <v>300</v>
       </c>
-      <c r="C76" s="201"/>
-      <c r="D76" s="186" t="s">
+      <c r="C76" s="284"/>
+      <c r="D76" s="170" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="227">
+      <c r="A77" s="209">
         <v>76</v>
       </c>
-      <c r="B77" s="228" t="s">
+      <c r="B77" s="210" t="s">
         <v>301</v>
       </c>
-      <c r="C77" s="201"/>
-      <c r="D77" s="186" t="s">
+      <c r="C77" s="284"/>
+      <c r="D77" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="227">
+      <c r="A78" s="209">
         <v>77</v>
       </c>
-      <c r="B78" s="228" t="s">
+      <c r="B78" s="210" t="s">
         <v>302</v>
       </c>
-      <c r="C78" s="201"/>
-      <c r="D78" s="186" t="s">
+      <c r="C78" s="284"/>
+      <c r="D78" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="227">
+      <c r="A79" s="209">
         <v>78</v>
       </c>
-      <c r="B79" s="229" t="s">
+      <c r="B79" s="211" t="s">
         <v>303</v>
       </c>
-      <c r="C79" s="201"/>
-      <c r="D79" s="186" t="s">
+      <c r="C79" s="284"/>
+      <c r="D79" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="227">
+      <c r="A80" s="209">
         <v>79</v>
       </c>
-      <c r="B80" s="229" t="s">
+      <c r="B80" s="211" t="s">
         <v>304</v>
       </c>
-      <c r="C80" s="201"/>
-      <c r="D80" s="186" t="s">
+      <c r="C80" s="284"/>
+      <c r="D80" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="227">
+      <c r="A81" s="209">
         <v>80</v>
       </c>
-      <c r="B81" s="229" t="s">
+      <c r="B81" s="211" t="s">
         <v>305</v>
       </c>
-      <c r="C81" s="201"/>
-      <c r="D81" s="186" t="s">
+      <c r="C81" s="284"/>
+      <c r="D81" s="170" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="227">
+      <c r="A82" s="209">
         <v>81</v>
       </c>
-      <c r="B82" s="229" t="s">
+      <c r="B82" s="211" t="s">
         <v>306</v>
       </c>
-      <c r="C82" s="201"/>
-      <c r="D82" s="186" t="s">
+      <c r="C82" s="284"/>
+      <c r="D82" s="170" t="s">
         <v>569</v>
       </c>
-      <c r="L82" s="230"/>
+      <c r="L82" s="212"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="227">
+      <c r="A83" s="209">
         <v>82</v>
       </c>
-      <c r="B83" s="231" t="s">
+      <c r="B83" s="213" t="s">
         <v>307</v>
       </c>
-      <c r="C83" s="201"/>
-      <c r="D83" s="186" t="s">
+      <c r="C83" s="284"/>
+      <c r="D83" s="170" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="227">
+      <c r="A84" s="209">
         <v>83</v>
       </c>
-      <c r="B84" s="231" t="s">
+      <c r="B84" s="213" t="s">
         <v>308</v>
       </c>
-      <c r="C84" s="201"/>
-      <c r="D84" s="186" t="s">
+      <c r="C84" s="284"/>
+      <c r="D84" s="170" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="227">
+      <c r="A85" s="209">
         <v>84</v>
       </c>
-      <c r="B85" s="231" t="s">
+      <c r="B85" s="213" t="s">
         <v>309</v>
       </c>
-      <c r="C85" s="201"/>
-      <c r="D85" s="186" t="s">
+      <c r="C85" s="284"/>
+      <c r="D85" s="170" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="227">
+      <c r="A86" s="209">
         <v>85</v>
       </c>
-      <c r="B86" s="231" t="s">
+      <c r="B86" s="213" t="s">
         <v>310</v>
       </c>
-      <c r="C86" s="201"/>
-      <c r="D86" s="186" t="s">
+      <c r="C86" s="284"/>
+      <c r="D86" s="170" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="232">
+      <c r="A87" s="214">
         <v>86</v>
       </c>
-      <c r="B87" s="233" t="s">
+      <c r="B87" s="215" t="s">
         <v>311</v>
       </c>
-      <c r="C87" s="189"/>
-      <c r="D87" s="190" t="s">
+      <c r="C87" s="282"/>
+      <c r="D87" s="173" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="234">
+      <c r="A88" s="216">
         <v>87</v>
       </c>
-      <c r="B88" s="235" t="s">
+      <c r="B88" s="217" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="185" t="s">
+      <c r="C88" s="281" t="s">
         <v>575</v>
       </c>
-      <c r="D88" s="186" t="s">
+      <c r="D88" s="170" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="234">
+      <c r="A89" s="216">
         <v>88</v>
       </c>
-      <c r="B89" s="235" t="s">
+      <c r="B89" s="217" t="s">
         <v>440</v>
       </c>
-      <c r="C89" s="185"/>
-      <c r="D89" s="236" t="s">
+      <c r="C89" s="281"/>
+      <c r="D89" s="218" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="234">
+      <c r="A90" s="216">
         <v>89</v>
       </c>
-      <c r="B90" s="235" t="s">
+      <c r="B90" s="217" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="185"/>
-      <c r="D90" s="237" t="s">
+      <c r="C90" s="281"/>
+      <c r="D90" s="219" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="238">
+      <c r="A91" s="220">
         <v>90</v>
       </c>
-      <c r="B91" s="239" t="s">
+      <c r="B91" s="221" t="s">
         <v>314</v>
       </c>
-      <c r="C91" s="189"/>
-      <c r="D91" s="208" t="s">
+      <c r="C91" s="282"/>
+      <c r="D91" s="190" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="210">
+      <c r="A92" s="192">
         <v>91</v>
       </c>
-      <c r="B92" s="211" t="s">
+      <c r="B92" s="193" t="s">
         <v>315</v>
       </c>
-      <c r="C92" s="181" t="s">
+      <c r="C92" s="283" t="s">
         <v>580</v>
       </c>
-      <c r="D92" s="212" t="s">
+      <c r="D92" s="194" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="213">
+      <c r="A93" s="195">
         <v>92</v>
       </c>
-      <c r="B93" s="214" t="s">
+      <c r="B93" s="196" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="201"/>
-      <c r="D93" s="203" t="s">
+      <c r="C93" s="284"/>
+      <c r="D93" s="185" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="213">
+      <c r="A94" s="195">
         <v>93</v>
       </c>
-      <c r="B94" s="214" t="s">
+      <c r="B94" s="196" t="s">
         <v>491</v>
       </c>
-      <c r="C94" s="201"/>
-      <c r="D94" s="186" t="s">
+      <c r="C94" s="284"/>
+      <c r="D94" s="170" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="213">
+      <c r="A95" s="195">
         <v>94</v>
       </c>
-      <c r="B95" s="214" t="s">
+      <c r="B95" s="196" t="s">
         <v>492</v>
       </c>
-      <c r="C95" s="201"/>
-      <c r="D95" s="186" t="s">
+      <c r="C95" s="284"/>
+      <c r="D95" s="170" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="215">
+      <c r="A96" s="197">
         <v>95</v>
       </c>
-      <c r="B96" s="216" t="s">
+      <c r="B96" s="198" t="s">
         <v>493</v>
       </c>
-      <c r="C96" s="189"/>
-      <c r="D96" s="190" t="s">
+      <c r="C96" s="282"/>
+      <c r="D96" s="173" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="240">
+      <c r="A97" s="222">
         <v>96</v>
       </c>
-      <c r="B97" s="241" t="s">
+      <c r="B97" s="223" t="s">
         <v>456</v>
       </c>
-      <c r="C97" s="181" t="s">
+      <c r="C97" s="283" t="s">
         <v>586</v>
       </c>
-      <c r="D97" s="182" t="s">
+      <c r="D97" s="167" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="242">
+      <c r="A98" s="224">
         <v>97</v>
       </c>
-      <c r="B98" s="243" t="s">
+      <c r="B98" s="225" t="s">
         <v>316</v>
       </c>
-      <c r="C98" s="201"/>
-      <c r="D98" s="186" t="s">
+      <c r="C98" s="284"/>
+      <c r="D98" s="170" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="242">
+      <c r="A99" s="224">
         <v>98</v>
       </c>
-      <c r="B99" s="243" t="s">
+      <c r="B99" s="225" t="s">
         <v>317</v>
       </c>
-      <c r="C99" s="201"/>
-      <c r="D99" s="186" t="s">
+      <c r="C99" s="284"/>
+      <c r="D99" s="170" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="242">
+      <c r="A100" s="224">
         <v>99</v>
       </c>
-      <c r="B100" s="243" t="s">
+      <c r="B100" s="225" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="201"/>
-      <c r="D100" s="186" t="s">
+      <c r="C100" s="284"/>
+      <c r="D100" s="170" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="242">
+      <c r="A101" s="224">
         <v>100</v>
       </c>
-      <c r="B101" s="243" t="s">
+      <c r="B101" s="225" t="s">
         <v>319</v>
       </c>
-      <c r="C101" s="201"/>
-      <c r="D101" s="186" t="s">
+      <c r="C101" s="284"/>
+      <c r="D101" s="170" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="244">
+      <c r="A102" s="226">
         <v>101</v>
       </c>
-      <c r="B102" s="245" t="s">
+      <c r="B102" s="227" t="s">
         <v>320</v>
       </c>
-      <c r="C102" s="189"/>
-      <c r="D102" s="190" t="s">
+      <c r="C102" s="282"/>
+      <c r="D102" s="173" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="246">
+      <c r="A103" s="228">
         <v>102</v>
       </c>
-      <c r="B103" s="247" t="s">
+      <c r="B103" s="229" t="s">
         <v>441</v>
       </c>
-      <c r="C103" s="181" t="s">
+      <c r="C103" s="283" t="s">
         <v>591</v>
       </c>
-      <c r="D103" s="212" t="s">
+      <c r="D103" s="194" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="248">
+      <c r="A104" s="230">
         <v>103</v>
       </c>
-      <c r="B104" s="249" t="s">
+      <c r="B104" s="231" t="s">
         <v>442</v>
       </c>
-      <c r="C104" s="185"/>
-      <c r="D104" s="186" t="s">
+      <c r="C104" s="281"/>
+      <c r="D104" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="248">
+      <c r="A105" s="230">
         <v>104</v>
       </c>
-      <c r="B105" s="249" t="s">
+      <c r="B105" s="231" t="s">
         <v>443</v>
       </c>
-      <c r="C105" s="185"/>
-      <c r="D105" s="186" t="s">
+      <c r="C105" s="281"/>
+      <c r="D105" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="248">
+      <c r="A106" s="230">
         <v>105</v>
       </c>
-      <c r="B106" s="249" t="s">
+      <c r="B106" s="231" t="s">
         <v>444</v>
       </c>
-      <c r="C106" s="185"/>
-      <c r="D106" s="186" t="s">
+      <c r="C106" s="281"/>
+      <c r="D106" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="248">
+      <c r="A107" s="230">
         <v>106</v>
       </c>
-      <c r="B107" s="249" t="s">
+      <c r="B107" s="231" t="s">
         <v>445</v>
       </c>
-      <c r="C107" s="185"/>
-      <c r="D107" s="186" t="s">
+      <c r="C107" s="281"/>
+      <c r="D107" s="170" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="248">
+      <c r="A108" s="230">
         <v>107</v>
       </c>
-      <c r="B108" s="249" t="s">
+      <c r="B108" s="231" t="s">
         <v>446</v>
       </c>
-      <c r="C108" s="185"/>
-      <c r="D108" s="186" t="s">
+      <c r="C108" s="281"/>
+      <c r="D108" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="248">
+      <c r="A109" s="230">
         <v>108</v>
       </c>
-      <c r="B109" s="249" t="s">
+      <c r="B109" s="231" t="s">
         <v>447</v>
       </c>
-      <c r="C109" s="185"/>
-      <c r="D109" s="186" t="s">
+      <c r="C109" s="281"/>
+      <c r="D109" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="248">
+      <c r="A110" s="230">
         <v>109</v>
       </c>
-      <c r="B110" s="249" t="s">
+      <c r="B110" s="231" t="s">
         <v>509</v>
       </c>
-      <c r="C110" s="185"/>
-      <c r="D110" s="186" t="s">
+      <c r="C110" s="281"/>
+      <c r="D110" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="248">
+      <c r="A111" s="230">
         <v>110</v>
       </c>
-      <c r="B111" s="249" t="s">
+      <c r="B111" s="231" t="s">
         <v>510</v>
       </c>
-      <c r="C111" s="185"/>
-      <c r="D111" s="186" t="s">
+      <c r="C111" s="281"/>
+      <c r="D111" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="248">
+      <c r="A112" s="230">
         <v>111</v>
       </c>
-      <c r="B112" s="249" t="s">
+      <c r="B112" s="231" t="s">
         <v>511</v>
       </c>
-      <c r="C112" s="185"/>
-      <c r="D112" s="186" t="s">
+      <c r="C112" s="281"/>
+      <c r="D112" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="248">
+      <c r="A113" s="230">
         <v>112</v>
       </c>
-      <c r="B113" s="249" t="s">
+      <c r="B113" s="231" t="s">
         <v>512</v>
       </c>
-      <c r="C113" s="185"/>
-      <c r="D113" s="186" t="s">
+      <c r="C113" s="281"/>
+      <c r="D113" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="248">
+      <c r="A114" s="230">
         <v>113</v>
       </c>
-      <c r="B114" s="249" t="s">
+      <c r="B114" s="231" t="s">
         <v>448</v>
       </c>
-      <c r="C114" s="185"/>
-      <c r="D114" s="186" t="s">
+      <c r="C114" s="281"/>
+      <c r="D114" s="170" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="248">
+      <c r="A115" s="230">
         <v>114</v>
       </c>
-      <c r="B115" s="249" t="s">
+      <c r="B115" s="231" t="s">
         <v>449</v>
       </c>
-      <c r="C115" s="185"/>
-      <c r="D115" s="186" t="s">
+      <c r="C115" s="281"/>
+      <c r="D115" s="170" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="248">
+      <c r="A116" s="230">
         <v>115</v>
       </c>
-      <c r="B116" s="249" t="s">
+      <c r="B116" s="231" t="s">
         <v>480</v>
       </c>
-      <c r="C116" s="185"/>
-      <c r="D116" s="186" t="s">
+      <c r="C116" s="281"/>
+      <c r="D116" s="170" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="248">
+      <c r="A117" s="230">
         <v>116</v>
       </c>
-      <c r="B117" s="249" t="s">
+      <c r="B117" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="C117" s="185"/>
-      <c r="D117" s="186" t="s">
+      <c r="C117" s="281"/>
+      <c r="D117" s="170" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="248">
+      <c r="A118" s="230">
         <v>117</v>
       </c>
-      <c r="B118" s="249" t="s">
+      <c r="B118" s="231" t="s">
         <v>513</v>
       </c>
-      <c r="C118" s="185"/>
-      <c r="D118" s="186" t="s">
+      <c r="C118" s="281"/>
+      <c r="D118" s="170" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="248">
+      <c r="A119" s="230">
         <v>118</v>
       </c>
-      <c r="B119" s="249" t="s">
+      <c r="B119" s="231" t="s">
         <v>516</v>
       </c>
-      <c r="C119" s="185"/>
-      <c r="D119" s="186" t="s">
+      <c r="C119" s="281"/>
+      <c r="D119" s="170" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="248">
+      <c r="A120" s="230">
         <v>119</v>
       </c>
-      <c r="B120" s="249" t="s">
+      <c r="B120" s="231" t="s">
         <v>515</v>
       </c>
-      <c r="C120" s="185"/>
-      <c r="D120" s="203" t="s">
+      <c r="C120" s="281"/>
+      <c r="D120" s="185" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="248">
+      <c r="A121" s="230">
         <v>120</v>
       </c>
-      <c r="B121" s="249" t="s">
+      <c r="B121" s="231" t="s">
         <v>322</v>
       </c>
-      <c r="C121" s="185"/>
-      <c r="D121" s="186" t="s">
+      <c r="C121" s="281"/>
+      <c r="D121" s="170" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="248">
+      <c r="A122" s="230">
         <v>121</v>
       </c>
-      <c r="B122" s="249" t="s">
+      <c r="B122" s="231" t="s">
         <v>323</v>
       </c>
-      <c r="C122" s="185"/>
-      <c r="D122" s="186" t="s">
+      <c r="C122" s="281"/>
+      <c r="D122" s="170" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="248">
+      <c r="A123" s="230">
         <v>122</v>
       </c>
-      <c r="B123" s="249" t="s">
+      <c r="B123" s="231" t="s">
         <v>324</v>
       </c>
-      <c r="C123" s="185"/>
-      <c r="D123" s="186" t="s">
+      <c r="C123" s="281"/>
+      <c r="D123" s="170" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="248">
+      <c r="A124" s="230">
         <v>123</v>
       </c>
-      <c r="B124" s="249" t="s">
+      <c r="B124" s="231" t="s">
         <v>325</v>
       </c>
-      <c r="C124" s="185"/>
-      <c r="D124" s="186" t="s">
+      <c r="C124" s="281"/>
+      <c r="D124" s="170" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="248">
+      <c r="A125" s="230">
         <v>124</v>
       </c>
-      <c r="B125" s="249" t="s">
+      <c r="B125" s="231" t="s">
         <v>450</v>
       </c>
-      <c r="C125" s="185"/>
-      <c r="D125" s="203" t="s">
+      <c r="C125" s="281"/>
+      <c r="D125" s="185" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="248">
+      <c r="A126" s="230">
         <v>125</v>
       </c>
-      <c r="B126" s="249" t="s">
+      <c r="B126" s="231" t="s">
         <v>451</v>
       </c>
-      <c r="C126" s="185"/>
-      <c r="D126" s="203" t="s">
+      <c r="C126" s="281"/>
+      <c r="D126" s="185" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="248">
+      <c r="A127" s="230">
         <v>126</v>
       </c>
-      <c r="B127" s="249" t="s">
+      <c r="B127" s="231" t="s">
         <v>326</v>
       </c>
-      <c r="C127" s="185"/>
-      <c r="D127" s="203" t="s">
+      <c r="C127" s="281"/>
+      <c r="D127" s="185" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="248">
+      <c r="A128" s="230">
         <v>127</v>
       </c>
-      <c r="B128" s="249" t="s">
+      <c r="B128" s="231" t="s">
         <v>483</v>
       </c>
-      <c r="C128" s="185"/>
-      <c r="D128" s="203" t="s">
+      <c r="C128" s="281"/>
+      <c r="D128" s="185" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="248">
+      <c r="A129" s="230">
         <v>128</v>
       </c>
-      <c r="B129" s="249" t="s">
+      <c r="B129" s="231" t="s">
         <v>327</v>
       </c>
-      <c r="C129" s="185"/>
-      <c r="D129" s="186" t="s">
+      <c r="C129" s="281"/>
+      <c r="D129" s="170" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="248">
+      <c r="A130" s="230">
         <v>129</v>
       </c>
-      <c r="B130" s="249" t="s">
+      <c r="B130" s="231" t="s">
         <v>328</v>
       </c>
-      <c r="C130" s="185"/>
-      <c r="D130" s="186" t="s">
+      <c r="C130" s="281"/>
+      <c r="D130" s="170" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="248">
+      <c r="A131" s="230">
         <v>130</v>
       </c>
-      <c r="B131" s="249" t="s">
+      <c r="B131" s="231" t="s">
         <v>329</v>
       </c>
-      <c r="C131" s="185"/>
-      <c r="D131" s="250" t="s">
+      <c r="C131" s="281"/>
+      <c r="D131" s="232" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="248">
+      <c r="A132" s="230">
         <v>131</v>
       </c>
-      <c r="B132" s="249" t="s">
+      <c r="B132" s="231" t="s">
         <v>330</v>
       </c>
-      <c r="C132" s="185"/>
-      <c r="D132" s="250" t="s">
+      <c r="C132" s="281"/>
+      <c r="D132" s="232" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="248">
+      <c r="A133" s="230">
         <v>132</v>
       </c>
-      <c r="B133" s="249" t="s">
+      <c r="B133" s="231" t="s">
         <v>331</v>
       </c>
-      <c r="C133" s="185"/>
-      <c r="D133" s="186" t="s">
+      <c r="C133" s="281"/>
+      <c r="D133" s="170" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="248">
+      <c r="A134" s="230">
         <v>133</v>
       </c>
-      <c r="B134" s="249" t="s">
+      <c r="B134" s="231" t="s">
         <v>332</v>
       </c>
-      <c r="C134" s="185"/>
-      <c r="D134" s="186" t="s">
+      <c r="C134" s="281"/>
+      <c r="D134" s="170" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="248">
+      <c r="A135" s="230">
         <v>134</v>
       </c>
-      <c r="B135" s="249" t="s">
+      <c r="B135" s="231" t="s">
         <v>465</v>
       </c>
-      <c r="C135" s="185"/>
-      <c r="D135" s="186" t="s">
+      <c r="C135" s="281"/>
+      <c r="D135" s="170" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="251">
+      <c r="A136" s="233">
         <v>135</v>
       </c>
-      <c r="B136" s="252" t="s">
+      <c r="B136" s="234" t="s">
         <v>466</v>
       </c>
-      <c r="C136" s="189"/>
-      <c r="D136" s="190" t="s">
+      <c r="C136" s="282"/>
+      <c r="D136" s="173" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="253">
+      <c r="A137" s="235">
         <v>136</v>
       </c>
-      <c r="B137" s="254" t="s">
+      <c r="B137" s="236" t="s">
         <v>333</v>
       </c>
-      <c r="C137" s="185" t="s">
+      <c r="C137" s="281" t="s">
         <v>613</v>
       </c>
-      <c r="D137" s="186" t="s">
+      <c r="D137" s="170" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="253">
+      <c r="A138" s="235">
         <v>137</v>
       </c>
-      <c r="B138" s="254" t="s">
+      <c r="B138" s="236" t="s">
         <v>334</v>
       </c>
-      <c r="C138" s="185"/>
-      <c r="D138" s="203" t="s">
+      <c r="C138" s="281"/>
+      <c r="D138" s="185" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="253">
+      <c r="A139" s="235">
         <v>138</v>
       </c>
-      <c r="B139" s="254" t="s">
+      <c r="B139" s="236" t="s">
         <v>335</v>
       </c>
-      <c r="C139" s="185"/>
-      <c r="D139" s="186" t="s">
+      <c r="C139" s="281"/>
+      <c r="D139" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="253">
+      <c r="A140" s="235">
         <v>139</v>
       </c>
-      <c r="B140" s="254" t="s">
+      <c r="B140" s="236" t="s">
         <v>336</v>
       </c>
-      <c r="C140" s="185"/>
-      <c r="D140" s="186" t="s">
+      <c r="C140" s="281"/>
+      <c r="D140" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="253">
+      <c r="A141" s="235">
         <v>140</v>
       </c>
-      <c r="B141" s="254" t="s">
+      <c r="B141" s="236" t="s">
         <v>452</v>
       </c>
-      <c r="C141" s="185"/>
-      <c r="D141" s="203" t="s">
+      <c r="C141" s="281"/>
+      <c r="D141" s="185" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="253">
+      <c r="A142" s="235">
         <v>141</v>
       </c>
-      <c r="B142" s="254" t="s">
+      <c r="B142" s="236" t="s">
         <v>453</v>
       </c>
-      <c r="C142" s="185"/>
-      <c r="D142" s="203" t="s">
+      <c r="C142" s="281"/>
+      <c r="D142" s="185" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="253">
+      <c r="A143" s="235">
         <v>142</v>
       </c>
-      <c r="B143" s="254" t="s">
+      <c r="B143" s="236" t="s">
         <v>337</v>
       </c>
-      <c r="C143" s="185"/>
-      <c r="D143" s="186" t="s">
+      <c r="C143" s="281"/>
+      <c r="D143" s="170" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="253">
+      <c r="A144" s="235">
         <v>143</v>
       </c>
-      <c r="B144" s="254" t="s">
+      <c r="B144" s="236" t="s">
         <v>338</v>
       </c>
-      <c r="C144" s="185"/>
-      <c r="D144" s="186" t="s">
+      <c r="C144" s="281"/>
+      <c r="D144" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="253">
+      <c r="A145" s="235">
         <v>144</v>
       </c>
-      <c r="B145" s="254" t="s">
+      <c r="B145" s="236" t="s">
         <v>339</v>
       </c>
-      <c r="C145" s="185"/>
-      <c r="D145" s="186" t="s">
+      <c r="C145" s="281"/>
+      <c r="D145" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="255">
+      <c r="A146" s="237">
         <v>145</v>
       </c>
-      <c r="B146" s="254" t="s">
+      <c r="B146" s="236" t="s">
         <v>340</v>
       </c>
-      <c r="C146" s="185"/>
-      <c r="D146" s="186" t="s">
+      <c r="C146" s="281"/>
+      <c r="D146" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="255">
+      <c r="A147" s="237">
         <v>146</v>
       </c>
-      <c r="B147" s="254" t="s">
+      <c r="B147" s="236" t="s">
         <v>341</v>
       </c>
-      <c r="C147" s="185"/>
-      <c r="D147" s="186" t="s">
+      <c r="C147" s="281"/>
+      <c r="D147" s="170" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="255">
+      <c r="A148" s="237">
         <v>147</v>
       </c>
-      <c r="B148" s="254" t="s">
+      <c r="B148" s="236" t="s">
         <v>342</v>
       </c>
-      <c r="C148" s="185"/>
-      <c r="D148" s="186" t="s">
+      <c r="C148" s="281"/>
+      <c r="D148" s="170" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="255">
+      <c r="A149" s="237">
         <v>148</v>
       </c>
-      <c r="B149" s="254" t="s">
+      <c r="B149" s="236" t="s">
         <v>343</v>
       </c>
-      <c r="C149" s="185"/>
-      <c r="D149" s="186" t="s">
+      <c r="C149" s="281"/>
+      <c r="D149" s="170" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="256">
+      <c r="A150" s="238">
         <v>149</v>
       </c>
-      <c r="B150" s="257" t="s">
+      <c r="B150" s="239" t="s">
         <v>344</v>
       </c>
-      <c r="C150" s="189"/>
-      <c r="D150" s="190" t="s">
+      <c r="C150" s="282"/>
+      <c r="D150" s="173" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="258">
+      <c r="A151" s="240">
         <v>150</v>
       </c>
-      <c r="B151" s="259" t="s">
+      <c r="B151" s="241" t="s">
         <v>345</v>
       </c>
-      <c r="C151" s="260" t="s">
+      <c r="C151" s="242" t="s">
         <v>623</v>
       </c>
-      <c r="D151" s="261" t="s">
+      <c r="D151" s="243" t="s">
         <v>624</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="C29:C41"/>
+    <mergeCell ref="C44:C53"/>
     <mergeCell ref="C137:C150"/>
     <mergeCell ref="C59:C66"/>
     <mergeCell ref="C67:C87"/>
@@ -39200,12 +39215,6 @@
     <mergeCell ref="C92:C96"/>
     <mergeCell ref="C97:C102"/>
     <mergeCell ref="C103:C136"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="C29:C41"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="C54:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -39245,482 +39254,483 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="225">
+      <c r="A2" s="207">
         <v>1001</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="208" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="283" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="182" t="s">
+      <c r="D2" s="167" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="227">
+      <c r="A3" s="209">
         <v>1002</v>
       </c>
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="244" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186" t="s">
+      <c r="C3" s="281"/>
+      <c r="D3" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="227">
+      <c r="A4" s="209">
         <v>1003</v>
       </c>
-      <c r="B4" s="262" t="s">
+      <c r="B4" s="244" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="186" t="s">
+      <c r="C4" s="281"/>
+      <c r="D4" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="227">
+      <c r="A5" s="209">
         <v>1004</v>
       </c>
-      <c r="B5" s="262" t="s">
+      <c r="B5" s="244" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="186" t="s">
+      <c r="C5" s="281"/>
+      <c r="D5" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="227">
+      <c r="A6" s="209">
         <v>1005</v>
       </c>
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="244" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186" t="s">
+      <c r="C6" s="281"/>
+      <c r="D6" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="227">
+      <c r="A7" s="209">
         <v>1006</v>
       </c>
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="244" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186" t="s">
+      <c r="C7" s="281"/>
+      <c r="D7" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="227">
+      <c r="A8" s="209">
         <v>1007</v>
       </c>
-      <c r="B8" s="262" t="s">
+      <c r="B8" s="244" t="s">
         <v>352</v>
       </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186" t="s">
+      <c r="C8" s="281"/>
+      <c r="D8" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="227">
+      <c r="A9" s="209">
         <v>1008</v>
       </c>
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="244" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186" t="s">
+      <c r="C9" s="281"/>
+      <c r="D9" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="227">
+      <c r="A10" s="209">
         <v>1009</v>
       </c>
-      <c r="B10" s="262" t="s">
+      <c r="B10" s="244" t="s">
         <v>354</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="186" t="s">
+      <c r="C10" s="281"/>
+      <c r="D10" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="227">
+      <c r="A11" s="209">
         <v>1010</v>
       </c>
-      <c r="B11" s="262" t="s">
+      <c r="B11" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="186" t="s">
+      <c r="C11" s="281"/>
+      <c r="D11" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="227">
+      <c r="A12" s="209">
         <v>1011</v>
       </c>
-      <c r="B12" s="262" t="s">
+      <c r="B12" s="244" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="186" t="s">
+      <c r="C12" s="281"/>
+      <c r="D12" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="227">
+      <c r="A13" s="209">
         <v>1012</v>
       </c>
-      <c r="B13" s="262" t="s">
+      <c r="B13" s="244" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="186" t="s">
+      <c r="C13" s="281"/>
+      <c r="D13" s="170" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="227">
+      <c r="A14" s="209">
         <v>1013</v>
       </c>
-      <c r="B14" s="262" t="s">
+      <c r="B14" s="244" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="186" t="s">
+      <c r="C14" s="281"/>
+      <c r="D14" s="170" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="227">
+      <c r="A15" s="209">
         <v>1014</v>
       </c>
-      <c r="B15" s="262" t="s">
+      <c r="B15" s="244" t="s">
         <v>359</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="186" t="s">
+      <c r="C15" s="281"/>
+      <c r="D15" s="170" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="232">
+      <c r="A16" s="214">
         <v>1015</v>
       </c>
-      <c r="B16" s="263" t="s">
+      <c r="B16" s="245" t="s">
         <v>482</v>
       </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190" t="s">
+      <c r="C16" s="282"/>
+      <c r="D16" s="173" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="240">
+      <c r="A17" s="222">
         <v>1016</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="246" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="283" t="s">
         <v>628</v>
       </c>
-      <c r="D17" s="182" t="s">
+      <c r="D17" s="167" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="242">
+      <c r="A18" s="224">
         <v>1017</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="247" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="186" t="s">
+      <c r="C18" s="281"/>
+      <c r="D18" s="170" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="242">
+      <c r="A19" s="224">
         <v>1018</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="247" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="186" t="s">
+      <c r="C19" s="281"/>
+      <c r="D19" s="170" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="242">
+      <c r="A20" s="224">
         <v>1019</v>
       </c>
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="247" t="s">
         <v>363</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="186" t="s">
+      <c r="C20" s="281"/>
+      <c r="D20" s="170" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="242">
+      <c r="A21" s="224">
         <v>1020</v>
       </c>
-      <c r="B21" s="265" t="s">
+      <c r="B21" s="247" t="s">
         <v>364</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="186" t="s">
+      <c r="C21" s="281"/>
+      <c r="D21" s="170" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="242">
+      <c r="A22" s="224">
         <v>1021</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="247" t="s">
         <v>365</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="186" t="s">
+      <c r="C22" s="281"/>
+      <c r="D22" s="170" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="242">
+      <c r="A23" s="224">
         <v>1022</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="247" t="s">
         <v>366</v>
       </c>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186" t="s">
+      <c r="C23" s="281"/>
+      <c r="D23" s="170" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="242">
+      <c r="A24" s="224">
         <v>1023</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="247" t="s">
         <v>367</v>
       </c>
-      <c r="C24" s="185"/>
-      <c r="D24" s="186" t="s">
+      <c r="C24" s="281"/>
+      <c r="D24" s="170" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="244">
+      <c r="A25" s="226">
         <v>1024</v>
       </c>
-      <c r="B25" s="266" t="s">
+      <c r="B25" s="248" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="189"/>
-      <c r="D25" s="190" t="s">
+      <c r="C25" s="282"/>
+      <c r="D25" s="173" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="197">
+      <c r="A26" s="180">
         <v>1025</v>
       </c>
-      <c r="B26" s="198" t="s">
+      <c r="B26" s="181" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="181" t="s">
+      <c r="C26" s="283" t="s">
         <v>632</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="167" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="199">
+      <c r="A27" s="182">
         <v>1026</v>
       </c>
-      <c r="B27" s="267" t="s">
+      <c r="B27" s="249" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="185"/>
-      <c r="D27" s="186" t="s">
+      <c r="C27" s="281"/>
+      <c r="D27" s="170" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="199">
+      <c r="A28" s="182">
         <v>1027</v>
       </c>
-      <c r="B28" s="267" t="s">
+      <c r="B28" s="249" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="185"/>
-      <c r="D28" s="186" t="s">
+      <c r="C28" s="281"/>
+      <c r="D28" s="170" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="199">
+      <c r="A29" s="182">
         <v>1028</v>
       </c>
-      <c r="B29" s="267" t="s">
+      <c r="B29" s="249" t="s">
         <v>372</v>
       </c>
-      <c r="C29" s="185"/>
-      <c r="D29" s="186" t="s">
+      <c r="C29" s="281"/>
+      <c r="D29" s="170" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="199">
+      <c r="A30" s="182">
         <v>1029</v>
       </c>
-      <c r="B30" s="267" t="s">
+      <c r="B30" s="249" t="s">
         <v>373</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="186" t="s">
+      <c r="C30" s="281"/>
+      <c r="D30" s="170" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="199">
+      <c r="A31" s="182">
         <v>1030</v>
       </c>
-      <c r="B31" s="267" t="s">
+      <c r="B31" s="249" t="s">
         <v>374</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="186" t="s">
+      <c r="C31" s="281"/>
+      <c r="D31" s="170" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="199">
+      <c r="A32" s="182">
         <v>1031</v>
       </c>
-      <c r="B32" s="267" t="s">
+      <c r="B32" s="249" t="s">
         <v>375</v>
       </c>
-      <c r="C32" s="185"/>
-      <c r="D32" s="186" t="s">
+      <c r="C32" s="281"/>
+      <c r="D32" s="170" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="199">
+      <c r="A33" s="182">
         <v>1032</v>
       </c>
-      <c r="B33" s="267" t="s">
+      <c r="B33" s="249" t="s">
         <v>376</v>
       </c>
-      <c r="C33" s="185"/>
-      <c r="D33" s="186" t="s">
+      <c r="C33" s="281"/>
+      <c r="D33" s="170" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="199">
+      <c r="A34" s="182">
         <v>1033</v>
       </c>
-      <c r="B34" s="267" t="s">
+      <c r="B34" s="249" t="s">
         <v>377</v>
       </c>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186" t="s">
+      <c r="C34" s="281"/>
+      <c r="D34" s="170" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="199">
+      <c r="A35" s="182">
         <v>1034</v>
       </c>
-      <c r="B35" s="267" t="s">
+      <c r="B35" s="249" t="s">
         <v>378</v>
       </c>
-      <c r="C35" s="185"/>
-      <c r="D35" s="186" t="s">
+      <c r="C35" s="281"/>
+      <c r="D35" s="170" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="205">
+      <c r="A36" s="187">
         <v>1035</v>
       </c>
-      <c r="B36" s="268" t="s">
+      <c r="B36" s="250" t="s">
         <v>379</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="186" t="s">
+      <c r="C36" s="282"/>
+      <c r="D36" s="170" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="269">
+      <c r="A37" s="251">
         <v>1036</v>
       </c>
-      <c r="B37" s="270" t="s">
+      <c r="B37" s="252" t="s">
         <v>484</v>
       </c>
-      <c r="C37" s="181" t="s">
+      <c r="C37" s="283" t="s">
         <v>639</v>
       </c>
-      <c r="D37" s="212" t="s">
+      <c r="D37" s="194" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="271">
+      <c r="A38" s="253">
         <v>1037</v>
       </c>
-      <c r="B38" s="253" t="s">
+      <c r="B38" s="235" t="s">
         <v>485</v>
       </c>
-      <c r="C38" s="185"/>
-      <c r="D38" s="203" t="s">
+      <c r="C38" s="281"/>
+      <c r="D38" s="185" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="271">
+      <c r="A39" s="253">
         <v>1038</v>
       </c>
-      <c r="B39" s="253" t="s">
+      <c r="B39" s="235" t="s">
         <v>486</v>
       </c>
-      <c r="C39" s="185"/>
-      <c r="D39" s="203" t="s">
+      <c r="C39" s="281"/>
+      <c r="D39" s="185" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="272">
+      <c r="A40" s="254">
         <v>1039</v>
       </c>
-      <c r="B40" s="273" t="s">
+      <c r="B40" s="255" t="s">
         <v>487</v>
       </c>
-      <c r="C40" s="189"/>
-      <c r="D40" s="208" t="s">
+      <c r="C40" s="282"/>
+      <c r="D40" s="190" t="s">
         <v>641</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C2:C16"/>
     <mergeCell ref="C17:C25"/>
@@ -39741,6 +39751,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004FD8CECCB51EC843BF514AFE68379818" ma:contentTypeVersion="18" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="eda339f53f012ceb64677667a741b441">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="107e75b3-53cc-4838-92d2-ebc011bd4832" xmlns:ns3="888ccf44-0d39-41a2-ab17-f7efb2bf6977" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04a86f3db711706e561c315688f1c464" ns2:_="" ns3:_="">
     <xsd:import namespace="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
@@ -39989,17 +40010,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B21D61-7BBD-4BD3-A9A5-1E8F98F2F686}">
   <ds:schemaRefs>
@@ -40009,6 +40019,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
+    <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F91B7B9-75FF-4624-B506-952B5B54766C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40025,21 +40052,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
-    <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -268,7 +268,7 @@
     <definedName name="sel_ures" localSheetId="9">'[1]Area values'!$H$27</definedName>
     <definedName name="sel_ures">'Area values'!$H$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3314,7 +3314,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3996,9 +3996,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4619,7 +4616,9 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4739,16 +4738,16 @@
         <v>437</v>
       </c>
       <c r="H7" s="151"/>
-      <c r="I7" s="265" t="s">
+      <c r="I7" s="264" t="s">
         <v>468</v>
       </c>
-      <c r="J7" s="265"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265" t="s">
+      <c r="J7" s="264"/>
+      <c r="K7" s="264"/>
+      <c r="L7" s="264" t="s">
         <v>469</v>
       </c>
-      <c r="M7" s="265"/>
-      <c r="N7" s="266"/>
+      <c r="M7" s="264"/>
+      <c r="N7" s="265"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -4862,7 +4861,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>15</v>
@@ -4880,9 +4879,9 @@
         <v>11</v>
       </c>
       <c r="E14" s="147"/>
-      <c r="G14" s="264"/>
-      <c r="H14" s="264"/>
-      <c r="I14" s="264"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -5071,8 +5070,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G14:I14"/>
+  <mergeCells count="2">
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
   </mergeCells>
@@ -5160,7 +5158,7 @@
       <c r="B2" s="246" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="280" t="s">
+      <c r="C2" s="279" t="s">
         <v>516</v>
       </c>
       <c r="D2" s="193" t="s">
@@ -5174,7 +5172,7 @@
       <c r="B3" s="248" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="278"/>
+      <c r="C3" s="277"/>
       <c r="D3" s="184" t="s">
         <v>11</v>
       </c>
@@ -5186,7 +5184,7 @@
       <c r="B4" s="248" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="278"/>
+      <c r="C4" s="277"/>
       <c r="D4" s="184" t="s">
         <v>11</v>
       </c>
@@ -5198,7 +5196,7 @@
       <c r="B5" s="248" t="s">
         <v>383</v>
       </c>
-      <c r="C5" s="278"/>
+      <c r="C5" s="277"/>
       <c r="D5" s="184" t="s">
         <v>11</v>
       </c>
@@ -5210,7 +5208,7 @@
       <c r="B6" s="248" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="278"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="184" t="s">
         <v>11</v>
       </c>
@@ -5222,7 +5220,7 @@
       <c r="B7" s="250" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="279"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="189" t="s">
         <v>11</v>
       </c>
@@ -5248,7 +5246,7 @@
       <c r="B9" s="180" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="281" t="s">
+      <c r="C9" s="280" t="s">
         <v>643</v>
       </c>
       <c r="D9" s="193" t="s">
@@ -5262,7 +5260,7 @@
       <c r="B10" s="239" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="282"/>
+      <c r="C10" s="281"/>
       <c r="D10" s="189" t="s">
         <v>645</v>
       </c>
@@ -5274,7 +5272,7 @@
       <c r="B11" s="236" t="s">
         <v>389</v>
       </c>
-      <c r="C11" s="280" t="s">
+      <c r="C11" s="279" t="s">
         <v>646</v>
       </c>
       <c r="D11" s="193" t="s">
@@ -5288,7 +5286,7 @@
       <c r="B12" s="237" t="s">
         <v>390</v>
       </c>
-      <c r="C12" s="278"/>
+      <c r="C12" s="277"/>
       <c r="D12" s="184" t="s">
         <v>648</v>
       </c>
@@ -5300,7 +5298,7 @@
       <c r="B13" s="238" t="s">
         <v>391</v>
       </c>
-      <c r="C13" s="279"/>
+      <c r="C13" s="278"/>
       <c r="D13" s="189" t="s">
         <v>649</v>
       </c>
@@ -5312,7 +5310,7 @@
       <c r="B14" s="206" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="281" t="s">
+      <c r="C14" s="280" t="s">
         <v>565</v>
       </c>
       <c r="D14" s="193" t="s">
@@ -5326,7 +5324,7 @@
       <c r="B15" s="208" t="s">
         <v>393</v>
       </c>
-      <c r="C15" s="283"/>
+      <c r="C15" s="282"/>
       <c r="D15" s="184" t="s">
         <v>11</v>
       </c>
@@ -5338,7 +5336,7 @@
       <c r="B16" s="208" t="s">
         <v>394</v>
       </c>
-      <c r="C16" s="283"/>
+      <c r="C16" s="282"/>
       <c r="D16" s="184" t="s">
         <v>11</v>
       </c>
@@ -5350,7 +5348,7 @@
       <c r="B17" s="208" t="s">
         <v>395</v>
       </c>
-      <c r="C17" s="283"/>
+      <c r="C17" s="282"/>
       <c r="D17" s="184" t="s">
         <v>11</v>
       </c>
@@ -5362,7 +5360,7 @@
       <c r="B18" s="208" t="s">
         <v>396</v>
       </c>
-      <c r="C18" s="283"/>
+      <c r="C18" s="282"/>
       <c r="D18" s="184" t="s">
         <v>11</v>
       </c>
@@ -5374,7 +5372,7 @@
       <c r="B19" s="208" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="283"/>
+      <c r="C19" s="282"/>
       <c r="D19" s="184" t="s">
         <v>11</v>
       </c>
@@ -5386,7 +5384,7 @@
       <c r="B20" s="208" t="s">
         <v>398</v>
       </c>
-      <c r="C20" s="283"/>
+      <c r="C20" s="282"/>
       <c r="D20" s="184" t="s">
         <v>11</v>
       </c>
@@ -5398,7 +5396,7 @@
       <c r="B21" s="208" t="s">
         <v>399</v>
       </c>
-      <c r="C21" s="283"/>
+      <c r="C21" s="282"/>
       <c r="D21" s="184" t="s">
         <v>11</v>
       </c>
@@ -5410,7 +5408,7 @@
       <c r="B22" s="208" t="s">
         <v>400</v>
       </c>
-      <c r="C22" s="283"/>
+      <c r="C22" s="282"/>
       <c r="D22" s="184" t="s">
         <v>11</v>
       </c>
@@ -5422,7 +5420,7 @@
       <c r="B23" s="208" t="s">
         <v>401</v>
       </c>
-      <c r="C23" s="283"/>
+      <c r="C23" s="282"/>
       <c r="D23" s="184" t="s">
         <v>11</v>
       </c>
@@ -5434,7 +5432,7 @@
       <c r="B24" s="208" t="s">
         <v>402</v>
       </c>
-      <c r="C24" s="283"/>
+      <c r="C24" s="282"/>
       <c r="D24" s="184" t="s">
         <v>11</v>
       </c>
@@ -5446,7 +5444,7 @@
       <c r="B25" s="208" t="s">
         <v>403</v>
       </c>
-      <c r="C25" s="283"/>
+      <c r="C25" s="282"/>
       <c r="D25" s="184" t="s">
         <v>11</v>
       </c>
@@ -5458,7 +5456,7 @@
       <c r="B26" s="208" t="s">
         <v>404</v>
       </c>
-      <c r="C26" s="283"/>
+      <c r="C26" s="282"/>
       <c r="D26" s="184" t="s">
         <v>568</v>
       </c>
@@ -5470,7 +5468,7 @@
       <c r="B27" s="208" t="s">
         <v>405</v>
       </c>
-      <c r="C27" s="283"/>
+      <c r="C27" s="282"/>
       <c r="D27" s="184" t="s">
         <v>569</v>
       </c>
@@ -5482,7 +5480,7 @@
       <c r="B28" s="208" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="283"/>
+      <c r="C28" s="282"/>
       <c r="D28" s="184" t="s">
         <v>570</v>
       </c>
@@ -5494,7 +5492,7 @@
       <c r="B29" s="208" t="s">
         <v>407</v>
       </c>
-      <c r="C29" s="283"/>
+      <c r="C29" s="282"/>
       <c r="D29" s="184" t="s">
         <v>571</v>
       </c>
@@ -5506,7 +5504,7 @@
       <c r="B30" s="208" t="s">
         <v>408</v>
       </c>
-      <c r="C30" s="283"/>
+      <c r="C30" s="282"/>
       <c r="D30" s="190" t="s">
         <v>651</v>
       </c>
@@ -5518,7 +5516,7 @@
       <c r="B31" s="208" t="s">
         <v>409</v>
       </c>
-      <c r="C31" s="283"/>
+      <c r="C31" s="282"/>
       <c r="D31" s="190" t="s">
         <v>651</v>
       </c>
@@ -5530,7 +5528,7 @@
       <c r="B32" s="208" t="s">
         <v>410</v>
       </c>
-      <c r="C32" s="283"/>
+      <c r="C32" s="282"/>
       <c r="D32" s="184" t="s">
         <v>599</v>
       </c>
@@ -5542,7 +5540,7 @@
       <c r="B33" s="208" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="283"/>
+      <c r="C33" s="282"/>
       <c r="D33" s="184" t="s">
         <v>599</v>
       </c>
@@ -5554,7 +5552,7 @@
       <c r="B34" s="208" t="s">
         <v>412</v>
       </c>
-      <c r="C34" s="283"/>
+      <c r="C34" s="282"/>
       <c r="D34" s="184" t="s">
         <v>572</v>
       </c>
@@ -5566,7 +5564,7 @@
       <c r="B35" s="208" t="s">
         <v>413</v>
       </c>
-      <c r="C35" s="283"/>
+      <c r="C35" s="282"/>
       <c r="D35" s="184" t="s">
         <v>573</v>
       </c>
@@ -5578,7 +5576,7 @@
       <c r="B36" s="208" t="s">
         <v>414</v>
       </c>
-      <c r="C36" s="283"/>
+      <c r="C36" s="282"/>
       <c r="D36" s="184" t="s">
         <v>652</v>
       </c>
@@ -5590,7 +5588,7 @@
       <c r="B37" s="235" t="s">
         <v>489</v>
       </c>
-      <c r="C37" s="282"/>
+      <c r="C37" s="281"/>
       <c r="D37" s="184" t="s">
         <v>653</v>
       </c>
@@ -5602,7 +5600,7 @@
       <c r="B38" s="236" t="s">
         <v>415</v>
       </c>
-      <c r="C38" s="280" t="s">
+      <c r="C38" s="279" t="s">
         <v>646</v>
       </c>
       <c r="D38" s="193" t="s">
@@ -5616,7 +5614,7 @@
       <c r="B39" s="237" t="s">
         <v>416</v>
       </c>
-      <c r="C39" s="278"/>
+      <c r="C39" s="277"/>
       <c r="D39" s="184" t="s">
         <v>558</v>
       </c>
@@ -5628,7 +5626,7 @@
       <c r="B40" s="237" t="s">
         <v>417</v>
       </c>
-      <c r="C40" s="278"/>
+      <c r="C40" s="277"/>
       <c r="D40" s="184" t="s">
         <v>561</v>
       </c>
@@ -5640,7 +5638,7 @@
       <c r="B41" s="238" t="s">
         <v>418</v>
       </c>
-      <c r="C41" s="279"/>
+      <c r="C41" s="278"/>
       <c r="D41" s="189" t="s">
         <v>562</v>
       </c>
@@ -5652,7 +5650,7 @@
       <c r="B42" s="241" t="s">
         <v>463</v>
       </c>
-      <c r="C42" s="280" t="s">
+      <c r="C42" s="279" t="s">
         <v>654</v>
       </c>
       <c r="D42" s="193" t="s">
@@ -5666,7 +5664,7 @@
       <c r="B43" s="229" t="s">
         <v>464</v>
       </c>
-      <c r="C43" s="278"/>
+      <c r="C43" s="277"/>
       <c r="D43" s="184" t="s">
         <v>656</v>
       </c>
@@ -5678,7 +5676,7 @@
       <c r="B44" s="229" t="s">
         <v>419</v>
       </c>
-      <c r="C44" s="278"/>
+      <c r="C44" s="277"/>
       <c r="D44" s="184" t="s">
         <v>657</v>
       </c>
@@ -5690,7 +5688,7 @@
       <c r="B45" s="229" t="s">
         <v>420</v>
       </c>
-      <c r="C45" s="278"/>
+      <c r="C45" s="277"/>
       <c r="D45" s="184" t="s">
         <v>11</v>
       </c>
@@ -5702,7 +5700,7 @@
       <c r="B46" s="229" t="s">
         <v>421</v>
       </c>
-      <c r="C46" s="278"/>
+      <c r="C46" s="277"/>
       <c r="D46" s="184" t="s">
         <v>11</v>
       </c>
@@ -5714,7 +5712,7 @@
       <c r="B47" s="229" t="s">
         <v>422</v>
       </c>
-      <c r="C47" s="278"/>
+      <c r="C47" s="277"/>
       <c r="D47" s="184" t="s">
         <v>11</v>
       </c>
@@ -5726,7 +5724,7 @@
       <c r="B48" s="229" t="s">
         <v>454</v>
       </c>
-      <c r="C48" s="278"/>
+      <c r="C48" s="277"/>
       <c r="D48" s="184" t="s">
         <v>615</v>
       </c>
@@ -5738,7 +5736,7 @@
       <c r="B49" s="229" t="s">
         <v>455</v>
       </c>
-      <c r="C49" s="278"/>
+      <c r="C49" s="277"/>
       <c r="D49" s="184" t="s">
         <v>616</v>
       </c>
@@ -5750,7 +5748,7 @@
       <c r="B50" s="229" t="s">
         <v>487</v>
       </c>
-      <c r="C50" s="278"/>
+      <c r="C50" s="277"/>
       <c r="D50" s="184" t="s">
         <v>639</v>
       </c>
@@ -5762,7 +5760,7 @@
       <c r="B51" s="229" t="s">
         <v>488</v>
       </c>
-      <c r="C51" s="278"/>
+      <c r="C51" s="277"/>
       <c r="D51" s="184" t="s">
         <v>640</v>
       </c>
@@ -5774,7 +5772,7 @@
       <c r="B52" s="229" t="s">
         <v>462</v>
       </c>
-      <c r="C52" s="278"/>
+      <c r="C52" s="277"/>
       <c r="D52" s="184" t="s">
         <v>617</v>
       </c>
@@ -5786,7 +5784,7 @@
       <c r="B53" s="229" t="s">
         <v>458</v>
       </c>
-      <c r="C53" s="278"/>
+      <c r="C53" s="277"/>
       <c r="D53" s="184" t="s">
         <v>11</v>
       </c>
@@ -5798,7 +5796,7 @@
       <c r="B54" s="229" t="s">
         <v>459</v>
       </c>
-      <c r="C54" s="278"/>
+      <c r="C54" s="277"/>
       <c r="D54" s="184" t="s">
         <v>11</v>
       </c>
@@ -5810,7 +5808,7 @@
       <c r="B55" s="229" t="s">
         <v>461</v>
       </c>
-      <c r="C55" s="278"/>
+      <c r="C55" s="277"/>
       <c r="D55" s="184" t="s">
         <v>11</v>
       </c>
@@ -5822,7 +5820,7 @@
       <c r="B56" s="229" t="s">
         <v>460</v>
       </c>
-      <c r="C56" s="278"/>
+      <c r="C56" s="277"/>
       <c r="D56" s="184" t="s">
         <v>11</v>
       </c>
@@ -5834,7 +5832,7 @@
       <c r="B57" s="229" t="s">
         <v>423</v>
       </c>
-      <c r="C57" s="278"/>
+      <c r="C57" s="277"/>
       <c r="D57" s="184" t="s">
         <v>618</v>
       </c>
@@ -5846,7 +5844,7 @@
       <c r="B58" s="229" t="s">
         <v>424</v>
       </c>
-      <c r="C58" s="278"/>
+      <c r="C58" s="277"/>
       <c r="D58" s="184" t="s">
         <v>619</v>
       </c>
@@ -5858,7 +5856,7 @@
       <c r="B59" s="229" t="s">
         <v>425</v>
       </c>
-      <c r="C59" s="278"/>
+      <c r="C59" s="277"/>
       <c r="D59" s="184" t="s">
         <v>620</v>
       </c>
@@ -5870,7 +5868,7 @@
       <c r="B60" s="244" t="s">
         <v>426</v>
       </c>
-      <c r="C60" s="279"/>
+      <c r="C60" s="278"/>
       <c r="D60" s="189" t="s">
         <v>621</v>
       </c>
@@ -6041,16 +6039,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="268"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="267" t="s">
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="266" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
       <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7095,78 +7093,78 @@
       <c r="D1" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="271" t="s">
+      <c r="M1" s="270" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="270" t="s">
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="269" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="271" t="s">
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="271"/>
-      <c r="W1" s="271"/>
-      <c r="X1" s="271"/>
-      <c r="Y1" s="270" t="s">
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="271" t="s">
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="270" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="271"/>
-      <c r="AE1" s="271"/>
-      <c r="AF1" s="271"/>
-      <c r="AG1" s="270" t="s">
+      <c r="AD1" s="270"/>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="269" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
-      <c r="AK1" s="271" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
+      <c r="AK1" s="270" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="271"/>
-      <c r="AM1" s="271"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="270" t="s">
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="270"/>
+      <c r="AN1" s="270"/>
+      <c r="AO1" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="270"/>
-      <c r="AS1" s="271" t="s">
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="270" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="271"/>
-      <c r="AU1" s="271"/>
-      <c r="AV1" s="271"/>
-      <c r="AW1" s="270" t="s">
+      <c r="AT1" s="270"/>
+      <c r="AU1" s="270"/>
+      <c r="AV1" s="270"/>
+      <c r="AW1" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="270"/>
-      <c r="AY1" s="270"/>
-      <c r="AZ1" s="270"/>
-      <c r="BA1" s="271" t="s">
+      <c r="AX1" s="269"/>
+      <c r="AY1" s="269"/>
+      <c r="AZ1" s="269"/>
+      <c r="BA1" s="270" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="271"/>
-      <c r="BC1" s="271"/>
-      <c r="BD1" s="271"/>
-      <c r="BE1" s="270" t="s">
+      <c r="BB1" s="270"/>
+      <c r="BC1" s="270"/>
+      <c r="BD1" s="270"/>
+      <c r="BE1" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="270"/>
-      <c r="BG1" s="270"/>
-      <c r="BH1" s="270"/>
+      <c r="BF1" s="269"/>
+      <c r="BG1" s="269"/>
+      <c r="BH1" s="269"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -11280,7 +11278,7 @@
       </c>
       <c r="O40" s="107">
         <f>$I40*inp_Vdroop/100*0.5</f>
-        <v>1.0651315789473686E-2</v>
+        <v>2.1302631578947372E-2</v>
       </c>
       <c r="P40" s="107"/>
       <c r="Q40" s="5" t="s">
@@ -11301,7 +11299,7 @@
       </c>
       <c r="W40" s="107">
         <f>-$I40*inp_Vdroop/100*0.5</f>
-        <v>-1.0651315789473686E-2</v>
+        <v>-2.1302631578947372E-2</v>
       </c>
       <c r="X40" s="107"/>
       <c r="Y40" s="5" t="s">
@@ -11322,7 +11320,7 @@
       </c>
       <c r="AE40" s="107">
         <f>$I40*inp_Vdroop/100</f>
-        <v>2.1302631578947372E-2</v>
+        <v>4.2605263157894743E-2</v>
       </c>
       <c r="AF40" s="107"/>
       <c r="AG40" s="5" t="s">
@@ -11343,7 +11341,7 @@
       </c>
       <c r="AM40" s="107">
         <f>-$I40*inp_Vdroop/100</f>
-        <v>-2.1302631578947372E-2</v>
+        <v>-4.2605263157894743E-2</v>
       </c>
       <c r="AN40" s="107"/>
       <c r="AO40" s="5" t="s">
@@ -11450,7 +11448,7 @@
       </c>
       <c r="O41" s="108">
         <f>$I41*inp_Vdroop/100*0.5</f>
-        <v>1.0651315789473686E-2</v>
+        <v>2.1302631578947372E-2</v>
       </c>
       <c r="P41" s="108"/>
       <c r="Q41" s="100" t="s">
@@ -11471,7 +11469,7 @@
       </c>
       <c r="W41" s="108">
         <f>-$I41*inp_Vdroop/100*0.5</f>
-        <v>-1.0651315789473686E-2</v>
+        <v>-2.1302631578947372E-2</v>
       </c>
       <c r="X41" s="108"/>
       <c r="Y41" s="100" t="s">
@@ -11492,7 +11490,7 @@
       </c>
       <c r="AE41" s="108">
         <f>$I41*inp_Vdroop/100</f>
-        <v>2.1302631578947372E-2</v>
+        <v>4.2605263157894743E-2</v>
       </c>
       <c r="AF41" s="108"/>
       <c r="AG41" s="100" t="s">
@@ -11513,7 +11511,7 @@
       </c>
       <c r="AM41" s="107">
         <f>-$I41*inp_Vdroop/100</f>
-        <v>-2.1302631578947372E-2</v>
+        <v>-4.2605263157894743E-2</v>
       </c>
       <c r="AN41" s="108"/>
       <c r="AO41" s="100" t="s">
@@ -11618,7 +11616,7 @@
       </c>
       <c r="O42" s="107">
         <f>$I42*inp_Vdroop/100*0.5</f>
-        <v>1.0651315789473686E-2</v>
+        <v>2.1302631578947372E-2</v>
       </c>
       <c r="P42" s="107"/>
       <c r="Q42" s="5" t="s">
@@ -11639,7 +11637,7 @@
       </c>
       <c r="W42" s="107">
         <f>-$I42*inp_Vdroop/100*0.5</f>
-        <v>-1.0651315789473686E-2</v>
+        <v>-2.1302631578947372E-2</v>
       </c>
       <c r="X42" s="107"/>
       <c r="Y42" s="5" t="s">
@@ -11660,7 +11658,7 @@
       </c>
       <c r="AE42" s="107">
         <f>$I42*inp_Vdroop/100</f>
-        <v>2.1302631578947372E-2</v>
+        <v>4.2605263157894743E-2</v>
       </c>
       <c r="AF42" s="107"/>
       <c r="AG42" s="5" t="s">
@@ -11681,7 +11679,7 @@
       </c>
       <c r="AM42" s="107">
         <f>-$I42*inp_Vdroop/100</f>
-        <v>-2.1302631578947372E-2</v>
+        <v>-4.2605263157894743E-2</v>
       </c>
       <c r="AN42" s="107"/>
       <c r="AO42" s="5" t="s">
@@ -24276,78 +24274,78 @@
       <c r="D1" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="274" t="s">
+      <c r="M1" s="273" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="276"/>
-      <c r="Q1" s="272" t="s">
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="275"/>
+      <c r="Q1" s="271" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="274" t="s">
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="272"/>
+      <c r="U1" s="273" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="272" t="s">
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="271" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="274" t="s">
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="273" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="275"/>
-      <c r="AE1" s="275"/>
-      <c r="AF1" s="276"/>
-      <c r="AG1" s="272" t="s">
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="275"/>
+      <c r="AG1" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="273"/>
-      <c r="AK1" s="274" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="272"/>
+      <c r="AK1" s="273" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="275"/>
-      <c r="AM1" s="275"/>
-      <c r="AN1" s="276"/>
-      <c r="AO1" s="272" t="s">
+      <c r="AL1" s="274"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="275"/>
+      <c r="AO1" s="271" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="273"/>
-      <c r="AS1" s="274" t="s">
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="272"/>
+      <c r="AS1" s="273" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="275"/>
-      <c r="AU1" s="275"/>
-      <c r="AV1" s="276"/>
-      <c r="AW1" s="272" t="s">
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="274"/>
+      <c r="AV1" s="275"/>
+      <c r="AW1" s="271" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="270"/>
-      <c r="AY1" s="270"/>
-      <c r="AZ1" s="273"/>
-      <c r="BA1" s="274" t="s">
+      <c r="AX1" s="269"/>
+      <c r="AY1" s="269"/>
+      <c r="AZ1" s="272"/>
+      <c r="BA1" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="275"/>
-      <c r="BC1" s="275"/>
-      <c r="BD1" s="276"/>
-      <c r="BE1" s="272" t="s">
+      <c r="BB1" s="274"/>
+      <c r="BC1" s="274"/>
+      <c r="BD1" s="275"/>
+      <c r="BE1" s="271" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="270"/>
-      <c r="BG1" s="270"/>
-      <c r="BH1" s="273"/>
+      <c r="BF1" s="269"/>
+      <c r="BG1" s="269"/>
+      <c r="BH1" s="272"/>
     </row>
     <row r="2" spans="1:92" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -29548,78 +29546,78 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D1" s="96"/>
-      <c r="M1" s="277" t="s">
+      <c r="M1" s="276" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="277"/>
-      <c r="O1" s="277"/>
-      <c r="P1" s="277"/>
-      <c r="Q1" s="270" t="s">
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="269" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="277" t="s">
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="277"/>
-      <c r="W1" s="277"/>
-      <c r="X1" s="277"/>
-      <c r="Y1" s="270" t="s">
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="277" t="s">
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="277"/>
-      <c r="AE1" s="277"/>
-      <c r="AF1" s="277"/>
-      <c r="AG1" s="270" t="s">
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="269" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
-      <c r="AK1" s="277" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
+      <c r="AK1" s="276" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="277"/>
-      <c r="AM1" s="277"/>
-      <c r="AN1" s="277"/>
-      <c r="AO1" s="270" t="s">
+      <c r="AL1" s="276"/>
+      <c r="AM1" s="276"/>
+      <c r="AN1" s="276"/>
+      <c r="AO1" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="270"/>
-      <c r="AS1" s="277" t="s">
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="276" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="277"/>
-      <c r="AU1" s="277"/>
-      <c r="AV1" s="277"/>
-      <c r="AW1" s="270" t="s">
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="276"/>
+      <c r="AV1" s="276"/>
+      <c r="AW1" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="270"/>
-      <c r="AY1" s="270"/>
-      <c r="AZ1" s="270"/>
-      <c r="BA1" s="277" t="s">
+      <c r="AX1" s="269"/>
+      <c r="AY1" s="269"/>
+      <c r="AZ1" s="269"/>
+      <c r="BA1" s="276" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="277"/>
-      <c r="BC1" s="277"/>
-      <c r="BD1" s="277"/>
-      <c r="BE1" s="270" t="s">
+      <c r="BB1" s="276"/>
+      <c r="BC1" s="276"/>
+      <c r="BD1" s="276"/>
+      <c r="BE1" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="270"/>
-      <c r="BG1" s="270"/>
-      <c r="BH1" s="270"/>
+      <c r="BF1" s="269"/>
+      <c r="BG1" s="269"/>
+      <c r="BH1" s="269"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -36217,78 +36215,78 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="96"/>
-      <c r="M1" s="277" t="s">
+      <c r="M1" s="276" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="277"/>
-      <c r="O1" s="277"/>
-      <c r="P1" s="277"/>
-      <c r="Q1" s="270" t="s">
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="269" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="277" t="s">
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="277"/>
-      <c r="W1" s="277"/>
-      <c r="X1" s="277"/>
-      <c r="Y1" s="270" t="s">
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="277" t="s">
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="277"/>
-      <c r="AE1" s="277"/>
-      <c r="AF1" s="277"/>
-      <c r="AG1" s="270" t="s">
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="269" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
-      <c r="AK1" s="277" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
+      <c r="AK1" s="276" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="277"/>
-      <c r="AM1" s="277"/>
-      <c r="AN1" s="277"/>
-      <c r="AO1" s="270" t="s">
+      <c r="AL1" s="276"/>
+      <c r="AM1" s="276"/>
+      <c r="AN1" s="276"/>
+      <c r="AO1" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="270"/>
-      <c r="AS1" s="277" t="s">
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="276" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="277"/>
-      <c r="AU1" s="277"/>
-      <c r="AV1" s="277"/>
-      <c r="AW1" s="270" t="s">
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="276"/>
+      <c r="AV1" s="276"/>
+      <c r="AW1" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="270"/>
-      <c r="AY1" s="270"/>
-      <c r="AZ1" s="270"/>
-      <c r="BA1" s="277" t="s">
+      <c r="AX1" s="269"/>
+      <c r="AY1" s="269"/>
+      <c r="AZ1" s="269"/>
+      <c r="BA1" s="276" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="277"/>
-      <c r="BC1" s="277"/>
-      <c r="BD1" s="277"/>
-      <c r="BE1" s="270" t="s">
+      <c r="BB1" s="276"/>
+      <c r="BC1" s="276"/>
+      <c r="BD1" s="276"/>
+      <c r="BE1" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="270"/>
-      <c r="BG1" s="270"/>
-      <c r="BH1" s="270"/>
+      <c r="BF1" s="269"/>
+      <c r="BG1" s="269"/>
+      <c r="BH1" s="269"/>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -36585,7 +36583,7 @@
       </c>
       <c r="O4" s="107">
         <f>$I4*inp_Vdroop/100*0.5</f>
-        <v>1.0651315789473686E-2</v>
+        <v>2.1302631578947372E-2</v>
       </c>
       <c r="P4" s="107"/>
       <c r="Q4" s="5" t="s">
@@ -36606,7 +36604,7 @@
       </c>
       <c r="W4" s="107">
         <f>-$I4*inp_Vdroop/100*0.5</f>
-        <v>-1.0651315789473686E-2</v>
+        <v>-2.1302631578947372E-2</v>
       </c>
       <c r="X4" s="107"/>
       <c r="Y4" s="5" t="s">
@@ -36627,7 +36625,7 @@
       </c>
       <c r="AE4" s="107">
         <f>$I4*inp_Vdroop/100</f>
-        <v>2.1302631578947372E-2</v>
+        <v>4.2605263157894743E-2</v>
       </c>
       <c r="AF4" s="107"/>
       <c r="AG4" s="5" t="s">
@@ -36648,7 +36646,7 @@
       </c>
       <c r="AM4" s="107">
         <f>-$I4*inp_Vdroop/100</f>
-        <v>-2.1302631578947372E-2</v>
+        <v>-4.2605263157894743E-2</v>
       </c>
       <c r="AN4" s="107"/>
       <c r="AO4" s="5" t="s">
@@ -38167,7 +38165,7 @@
       <c r="B2" s="165" t="s">
         <v>495</v>
       </c>
-      <c r="C2" s="280" t="s">
+      <c r="C2" s="279" t="s">
         <v>516</v>
       </c>
       <c r="D2" s="166" t="s">
@@ -38181,7 +38179,7 @@
       <c r="B3" s="168" t="s">
         <v>496</v>
       </c>
-      <c r="C3" s="278"/>
+      <c r="C3" s="277"/>
       <c r="D3" s="169" t="s">
         <v>518</v>
       </c>
@@ -38193,7 +38191,7 @@
       <c r="B4" s="168" t="s">
         <v>497</v>
       </c>
-      <c r="C4" s="278"/>
+      <c r="C4" s="277"/>
       <c r="D4" s="169" t="s">
         <v>11</v>
       </c>
@@ -38205,7 +38203,7 @@
       <c r="B5" s="168" t="s">
         <v>498</v>
       </c>
-      <c r="C5" s="278"/>
+      <c r="C5" s="277"/>
       <c r="D5" s="169" t="s">
         <v>11</v>
       </c>
@@ -38217,7 +38215,7 @@
       <c r="B6" s="168" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="278"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="169" t="s">
         <v>11</v>
       </c>
@@ -38229,7 +38227,7 @@
       <c r="B7" s="168" t="s">
         <v>500</v>
       </c>
-      <c r="C7" s="278"/>
+      <c r="C7" s="277"/>
       <c r="D7" s="169" t="s">
         <v>11</v>
       </c>
@@ -38241,7 +38239,7 @@
       <c r="B8" s="168" t="s">
         <v>501</v>
       </c>
-      <c r="C8" s="278"/>
+      <c r="C8" s="277"/>
       <c r="D8" s="169" t="s">
         <v>11</v>
       </c>
@@ -38253,7 +38251,7 @@
       <c r="B9" s="168" t="s">
         <v>502</v>
       </c>
-      <c r="C9" s="278"/>
+      <c r="C9" s="277"/>
       <c r="D9" s="169" t="s">
         <v>11</v>
       </c>
@@ -38265,7 +38263,7 @@
       <c r="B10" s="168" t="s">
         <v>503</v>
       </c>
-      <c r="C10" s="278"/>
+      <c r="C10" s="277"/>
       <c r="D10" s="169" t="s">
         <v>11</v>
       </c>
@@ -38277,7 +38275,7 @@
       <c r="B11" s="171" t="s">
         <v>513</v>
       </c>
-      <c r="C11" s="279"/>
+      <c r="C11" s="278"/>
       <c r="D11" s="172" t="s">
         <v>11</v>
       </c>
@@ -38289,7 +38287,7 @@
       <c r="B12" s="173" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="280" t="s">
+      <c r="C12" s="279" t="s">
         <v>519</v>
       </c>
       <c r="D12" s="166" t="s">
@@ -38303,7 +38301,7 @@
       <c r="B13" s="174" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="278"/>
+      <c r="C13" s="277"/>
       <c r="D13" s="169" t="s">
         <v>521</v>
       </c>
@@ -38315,7 +38313,7 @@
       <c r="B14" s="174" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="278"/>
+      <c r="C14" s="277"/>
       <c r="D14" s="169" t="s">
         <v>11</v>
       </c>
@@ -38327,7 +38325,7 @@
       <c r="B15" s="174" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="278"/>
+      <c r="C15" s="277"/>
       <c r="D15" s="169" t="s">
         <v>11</v>
       </c>
@@ -38339,7 +38337,7 @@
       <c r="B16" s="174" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="278"/>
+      <c r="C16" s="277"/>
       <c r="D16" s="169" t="s">
         <v>11</v>
       </c>
@@ -38351,7 +38349,7 @@
       <c r="B17" s="175" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="279"/>
+      <c r="C17" s="278"/>
       <c r="D17" s="172" t="s">
         <v>11</v>
       </c>
@@ -38363,7 +38361,7 @@
       <c r="B18" s="176" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="280" t="s">
+      <c r="C18" s="279" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="166" t="s">
@@ -38377,7 +38375,7 @@
       <c r="B19" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="278"/>
+      <c r="C19" s="277"/>
       <c r="D19" s="169" t="s">
         <v>523</v>
       </c>
@@ -38389,7 +38387,7 @@
       <c r="B20" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="278"/>
+      <c r="C20" s="277"/>
       <c r="D20" s="169" t="s">
         <v>524</v>
       </c>
@@ -38401,7 +38399,7 @@
       <c r="B21" s="177" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="278"/>
+      <c r="C21" s="277"/>
       <c r="D21" s="169" t="s">
         <v>525</v>
       </c>
@@ -38413,7 +38411,7 @@
       <c r="B22" s="177" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="278"/>
+      <c r="C22" s="277"/>
       <c r="D22" s="169" t="s">
         <v>526</v>
       </c>
@@ -38425,7 +38423,7 @@
       <c r="B23" s="177" t="s">
         <v>253</v>
       </c>
-      <c r="C23" s="278"/>
+      <c r="C23" s="277"/>
       <c r="D23" s="169" t="s">
         <v>527</v>
       </c>
@@ -38437,7 +38435,7 @@
       <c r="B24" s="177" t="s">
         <v>493</v>
       </c>
-      <c r="C24" s="278"/>
+      <c r="C24" s="277"/>
       <c r="D24" s="169" t="s">
         <v>11</v>
       </c>
@@ -38449,7 +38447,7 @@
       <c r="B25" s="177" t="s">
         <v>494</v>
       </c>
-      <c r="C25" s="278"/>
+      <c r="C25" s="277"/>
       <c r="D25" s="169" t="s">
         <v>528</v>
       </c>
@@ -38461,7 +38459,7 @@
       <c r="B26" s="177" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="278"/>
+      <c r="C26" s="277"/>
       <c r="D26" s="169" t="s">
         <v>11</v>
       </c>
@@ -38473,7 +38471,7 @@
       <c r="B27" s="178" t="s">
         <v>504</v>
       </c>
-      <c r="C27" s="278"/>
+      <c r="C27" s="277"/>
       <c r="D27" s="169" t="s">
         <v>529</v>
       </c>
@@ -38485,7 +38483,7 @@
       <c r="B28" s="178" t="s">
         <v>505</v>
       </c>
-      <c r="C28" s="278"/>
+      <c r="C28" s="277"/>
       <c r="D28" s="169" t="s">
         <v>530</v>
       </c>
@@ -38497,7 +38495,7 @@
       <c r="B29" s="180" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="280" t="s">
+      <c r="C29" s="279" t="s">
         <v>531</v>
       </c>
       <c r="D29" s="166" t="s">
@@ -38511,7 +38509,7 @@
       <c r="B30" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="278"/>
+      <c r="C30" s="277"/>
       <c r="D30" s="169" t="s">
         <v>533</v>
       </c>
@@ -38523,7 +38521,7 @@
       <c r="B31" s="183" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="278"/>
+      <c r="C31" s="277"/>
       <c r="D31" s="169" t="s">
         <v>534</v>
       </c>
@@ -38535,7 +38533,7 @@
       <c r="B32" s="183" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="278"/>
+      <c r="C32" s="277"/>
       <c r="D32" s="169" t="s">
         <v>535</v>
       </c>
@@ -38547,7 +38545,7 @@
       <c r="B33" s="183" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="278"/>
+      <c r="C33" s="277"/>
       <c r="D33" s="184" t="s">
         <v>536</v>
       </c>
@@ -38559,7 +38557,7 @@
       <c r="B34" s="182" t="s">
         <v>260</v>
       </c>
-      <c r="C34" s="278"/>
+      <c r="C34" s="277"/>
       <c r="D34" s="169" t="s">
         <v>537</v>
       </c>
@@ -38571,7 +38569,7 @@
       <c r="B35" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="278"/>
+      <c r="C35" s="277"/>
       <c r="D35" s="169" t="s">
         <v>538</v>
       </c>
@@ -38583,7 +38581,7 @@
       <c r="B36" s="182" t="s">
         <v>262</v>
       </c>
-      <c r="C36" s="278"/>
+      <c r="C36" s="277"/>
       <c r="D36" s="169" t="s">
         <v>538</v>
       </c>
@@ -38595,7 +38593,7 @@
       <c r="B37" s="183" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="278"/>
+      <c r="C37" s="277"/>
       <c r="D37" s="169" t="s">
         <v>539</v>
       </c>
@@ -38607,7 +38605,7 @@
       <c r="B38" s="182" t="s">
         <v>264</v>
       </c>
-      <c r="C38" s="278"/>
+      <c r="C38" s="277"/>
       <c r="D38" s="169" t="s">
         <v>539</v>
       </c>
@@ -38619,7 +38617,7 @@
       <c r="B39" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="278"/>
+      <c r="C39" s="277"/>
       <c r="D39" s="169" t="s">
         <v>540</v>
       </c>
@@ -38631,7 +38629,7 @@
       <c r="B40" s="182" t="s">
         <v>266</v>
       </c>
-      <c r="C40" s="278"/>
+      <c r="C40" s="277"/>
       <c r="D40" s="169" t="s">
         <v>541</v>
       </c>
@@ -38643,7 +38641,7 @@
       <c r="B41" s="183" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="278"/>
+      <c r="C41" s="277"/>
       <c r="D41" s="169" t="s">
         <v>542</v>
       </c>
@@ -38680,7 +38678,7 @@
       <c r="B44" s="192" t="s">
         <v>268</v>
       </c>
-      <c r="C44" s="280" t="s">
+      <c r="C44" s="279" t="s">
         <v>545</v>
       </c>
       <c r="D44" s="193" t="s">
@@ -38694,7 +38692,7 @@
       <c r="B45" s="195" t="s">
         <v>269</v>
       </c>
-      <c r="C45" s="278"/>
+      <c r="C45" s="277"/>
       <c r="D45" s="169" t="s">
         <v>11</v>
       </c>
@@ -38706,7 +38704,7 @@
       <c r="B46" s="195" t="s">
         <v>270</v>
       </c>
-      <c r="C46" s="278"/>
+      <c r="C46" s="277"/>
       <c r="D46" s="169" t="s">
         <v>546</v>
       </c>
@@ -38718,7 +38716,7 @@
       <c r="B47" s="195" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="278"/>
+      <c r="C47" s="277"/>
       <c r="D47" s="184" t="s">
         <v>547</v>
       </c>
@@ -38730,7 +38728,7 @@
       <c r="B48" s="195" t="s">
         <v>272</v>
       </c>
-      <c r="C48" s="278"/>
+      <c r="C48" s="277"/>
       <c r="D48" s="169" t="s">
         <v>11</v>
       </c>
@@ -38742,7 +38740,7 @@
       <c r="B49" s="195" t="s">
         <v>273</v>
       </c>
-      <c r="C49" s="278"/>
+      <c r="C49" s="277"/>
       <c r="D49" s="169" t="s">
         <v>548</v>
       </c>
@@ -38754,7 +38752,7 @@
       <c r="B50" s="195" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="278"/>
+      <c r="C50" s="277"/>
       <c r="D50" s="169" t="s">
         <v>11</v>
       </c>
@@ -38766,7 +38764,7 @@
       <c r="B51" s="195" t="s">
         <v>275</v>
       </c>
-      <c r="C51" s="278"/>
+      <c r="C51" s="277"/>
       <c r="D51" s="169" t="s">
         <v>548</v>
       </c>
@@ -38778,7 +38776,7 @@
       <c r="B52" s="195" t="s">
         <v>276</v>
       </c>
-      <c r="C52" s="278"/>
+      <c r="C52" s="277"/>
       <c r="D52" s="184" t="s">
         <v>547</v>
       </c>
@@ -38790,7 +38788,7 @@
       <c r="B53" s="197" t="s">
         <v>277</v>
       </c>
-      <c r="C53" s="279"/>
+      <c r="C53" s="278"/>
       <c r="D53" s="172" t="s">
         <v>11</v>
       </c>
@@ -38802,7 +38800,7 @@
       <c r="B54" s="198" t="s">
         <v>278</v>
       </c>
-      <c r="C54" s="278" t="s">
+      <c r="C54" s="277" t="s">
         <v>549</v>
       </c>
       <c r="D54" s="184" t="s">
@@ -38816,7 +38814,7 @@
       <c r="B55" s="198" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="278"/>
+      <c r="C55" s="277"/>
       <c r="D55" s="169" t="s">
         <v>551</v>
       </c>
@@ -38828,7 +38826,7 @@
       <c r="B56" s="198" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="278"/>
+      <c r="C56" s="277"/>
       <c r="D56" s="169" t="s">
         <v>552</v>
       </c>
@@ -38840,7 +38838,7 @@
       <c r="B57" s="199" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="279"/>
+      <c r="C57" s="278"/>
       <c r="D57" s="172" t="s">
         <v>553</v>
       </c>
@@ -38866,7 +38864,7 @@
       <c r="B59" s="202" t="s">
         <v>283</v>
       </c>
-      <c r="C59" s="278" t="s">
+      <c r="C59" s="277" t="s">
         <v>556</v>
       </c>
       <c r="D59" s="169" t="s">
@@ -38880,7 +38878,7 @@
       <c r="B60" s="202" t="s">
         <v>284</v>
       </c>
-      <c r="C60" s="278"/>
+      <c r="C60" s="277"/>
       <c r="D60" s="169" t="s">
         <v>558</v>
       </c>
@@ -38892,7 +38890,7 @@
       <c r="B61" s="202" t="s">
         <v>285</v>
       </c>
-      <c r="C61" s="278"/>
+      <c r="C61" s="277"/>
       <c r="D61" s="169" t="s">
         <v>559</v>
       </c>
@@ -38904,7 +38902,7 @@
       <c r="B62" s="202" t="s">
         <v>286</v>
       </c>
-      <c r="C62" s="278"/>
+      <c r="C62" s="277"/>
       <c r="D62" s="169" t="s">
         <v>560</v>
       </c>
@@ -38916,7 +38914,7 @@
       <c r="B63" s="202" t="s">
         <v>287</v>
       </c>
-      <c r="C63" s="278"/>
+      <c r="C63" s="277"/>
       <c r="D63" s="169" t="s">
         <v>561</v>
       </c>
@@ -38928,7 +38926,7 @@
       <c r="B64" s="202" t="s">
         <v>288</v>
       </c>
-      <c r="C64" s="278"/>
+      <c r="C64" s="277"/>
       <c r="D64" s="169" t="s">
         <v>562</v>
       </c>
@@ -38940,7 +38938,7 @@
       <c r="B65" s="202" t="s">
         <v>289</v>
       </c>
-      <c r="C65" s="278"/>
+      <c r="C65" s="277"/>
       <c r="D65" s="169" t="s">
         <v>563</v>
       </c>
@@ -38952,7 +38950,7 @@
       <c r="B66" s="204" t="s">
         <v>290</v>
       </c>
-      <c r="C66" s="279"/>
+      <c r="C66" s="278"/>
       <c r="D66" s="172" t="s">
         <v>564</v>
       </c>
@@ -38964,7 +38962,7 @@
       <c r="B67" s="206" t="s">
         <v>291</v>
       </c>
-      <c r="C67" s="280" t="s">
+      <c r="C67" s="279" t="s">
         <v>565</v>
       </c>
       <c r="D67" s="166" t="s">
@@ -38978,7 +38976,7 @@
       <c r="B68" s="208" t="s">
         <v>292</v>
       </c>
-      <c r="C68" s="278"/>
+      <c r="C68" s="277"/>
       <c r="D68" s="169" t="s">
         <v>11</v>
       </c>
@@ -38990,7 +38988,7 @@
       <c r="B69" s="208" t="s">
         <v>293</v>
       </c>
-      <c r="C69" s="278"/>
+      <c r="C69" s="277"/>
       <c r="D69" s="169" t="s">
         <v>11</v>
       </c>
@@ -39002,7 +39000,7 @@
       <c r="B70" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="C70" s="278"/>
+      <c r="C70" s="277"/>
       <c r="D70" s="169" t="s">
         <v>11</v>
       </c>
@@ -39014,7 +39012,7 @@
       <c r="B71" s="208" t="s">
         <v>295</v>
       </c>
-      <c r="C71" s="278"/>
+      <c r="C71" s="277"/>
       <c r="D71" s="169" t="s">
         <v>567</v>
       </c>
@@ -39026,7 +39024,7 @@
       <c r="B72" s="208" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="278"/>
+      <c r="C72" s="277"/>
       <c r="D72" s="169" t="s">
         <v>11</v>
       </c>
@@ -39038,7 +39036,7 @@
       <c r="B73" s="208" t="s">
         <v>297</v>
       </c>
-      <c r="C73" s="278"/>
+      <c r="C73" s="277"/>
       <c r="D73" s="169" t="s">
         <v>11</v>
       </c>
@@ -39050,7 +39048,7 @@
       <c r="B74" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="C74" s="278"/>
+      <c r="C74" s="277"/>
       <c r="D74" s="169" t="s">
         <v>11</v>
       </c>
@@ -39062,7 +39060,7 @@
       <c r="B75" s="208" t="s">
         <v>299</v>
       </c>
-      <c r="C75" s="278"/>
+      <c r="C75" s="277"/>
       <c r="D75" s="169" t="s">
         <v>11</v>
       </c>
@@ -39074,7 +39072,7 @@
       <c r="B76" s="208" t="s">
         <v>300</v>
       </c>
-      <c r="C76" s="278"/>
+      <c r="C76" s="277"/>
       <c r="D76" s="169" t="s">
         <v>567</v>
       </c>
@@ -39086,7 +39084,7 @@
       <c r="B77" s="208" t="s">
         <v>301</v>
       </c>
-      <c r="C77" s="278"/>
+      <c r="C77" s="277"/>
       <c r="D77" s="169" t="s">
         <v>11</v>
       </c>
@@ -39098,7 +39096,7 @@
       <c r="B78" s="208" t="s">
         <v>302</v>
       </c>
-      <c r="C78" s="278"/>
+      <c r="C78" s="277"/>
       <c r="D78" s="169" t="s">
         <v>11</v>
       </c>
@@ -39110,7 +39108,7 @@
       <c r="B79" s="209" t="s">
         <v>303</v>
       </c>
-      <c r="C79" s="278"/>
+      <c r="C79" s="277"/>
       <c r="D79" s="169" t="s">
         <v>11</v>
       </c>
@@ -39122,7 +39120,7 @@
       <c r="B80" s="209" t="s">
         <v>304</v>
       </c>
-      <c r="C80" s="278"/>
+      <c r="C80" s="277"/>
       <c r="D80" s="169" t="s">
         <v>11</v>
       </c>
@@ -39134,7 +39132,7 @@
       <c r="B81" s="209" t="s">
         <v>305</v>
       </c>
-      <c r="C81" s="278"/>
+      <c r="C81" s="277"/>
       <c r="D81" s="169" t="s">
         <v>567</v>
       </c>
@@ -39146,7 +39144,7 @@
       <c r="B82" s="209" t="s">
         <v>306</v>
       </c>
-      <c r="C82" s="278"/>
+      <c r="C82" s="277"/>
       <c r="D82" s="169" t="s">
         <v>568</v>
       </c>
@@ -39158,7 +39156,7 @@
       <c r="B83" s="210" t="s">
         <v>307</v>
       </c>
-      <c r="C83" s="278"/>
+      <c r="C83" s="277"/>
       <c r="D83" s="169" t="s">
         <v>569</v>
       </c>
@@ -39170,7 +39168,7 @@
       <c r="B84" s="210" t="s">
         <v>308</v>
       </c>
-      <c r="C84" s="278"/>
+      <c r="C84" s="277"/>
       <c r="D84" s="169" t="s">
         <v>570</v>
       </c>
@@ -39182,7 +39180,7 @@
       <c r="B85" s="210" t="s">
         <v>309</v>
       </c>
-      <c r="C85" s="278"/>
+      <c r="C85" s="277"/>
       <c r="D85" s="169" t="s">
         <v>571</v>
       </c>
@@ -39194,7 +39192,7 @@
       <c r="B86" s="210" t="s">
         <v>310</v>
       </c>
-      <c r="C86" s="278"/>
+      <c r="C86" s="277"/>
       <c r="D86" s="169" t="s">
         <v>572</v>
       </c>
@@ -39206,7 +39204,7 @@
       <c r="B87" s="212" t="s">
         <v>311</v>
       </c>
-      <c r="C87" s="279"/>
+      <c r="C87" s="278"/>
       <c r="D87" s="172" t="s">
         <v>573</v>
       </c>
@@ -39218,7 +39216,7 @@
       <c r="B88" s="214" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="278" t="s">
+      <c r="C88" s="277" t="s">
         <v>574</v>
       </c>
       <c r="D88" s="169" t="s">
@@ -39232,7 +39230,7 @@
       <c r="B89" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="C89" s="278"/>
+      <c r="C89" s="277"/>
       <c r="D89" s="215" t="s">
         <v>576</v>
       </c>
@@ -39244,7 +39242,7 @@
       <c r="B90" s="214" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="278"/>
+      <c r="C90" s="277"/>
       <c r="D90" s="216" t="s">
         <v>577</v>
       </c>
@@ -39256,7 +39254,7 @@
       <c r="B91" s="218" t="s">
         <v>314</v>
       </c>
-      <c r="C91" s="279"/>
+      <c r="C91" s="278"/>
       <c r="D91" s="189" t="s">
         <v>578</v>
       </c>
@@ -39268,7 +39266,7 @@
       <c r="B92" s="192" t="s">
         <v>315</v>
       </c>
-      <c r="C92" s="280" t="s">
+      <c r="C92" s="279" t="s">
         <v>579</v>
       </c>
       <c r="D92" s="193" t="s">
@@ -39282,7 +39280,7 @@
       <c r="B93" s="195" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="278"/>
+      <c r="C93" s="277"/>
       <c r="D93" s="184" t="s">
         <v>581</v>
       </c>
@@ -39294,7 +39292,7 @@
       <c r="B94" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="C94" s="278"/>
+      <c r="C94" s="277"/>
       <c r="D94" s="169" t="s">
         <v>582</v>
       </c>
@@ -39306,7 +39304,7 @@
       <c r="B95" s="195" t="s">
         <v>491</v>
       </c>
-      <c r="C95" s="278"/>
+      <c r="C95" s="277"/>
       <c r="D95" s="169" t="s">
         <v>583</v>
       </c>
@@ -39318,7 +39316,7 @@
       <c r="B96" s="195" t="s">
         <v>492</v>
       </c>
-      <c r="C96" s="278"/>
+      <c r="C96" s="277"/>
       <c r="D96" s="169" t="s">
         <v>584</v>
       </c>
@@ -39330,7 +39328,7 @@
       <c r="B97" s="197" t="s">
         <v>663</v>
       </c>
-      <c r="C97" s="279"/>
+      <c r="C97" s="278"/>
       <c r="D97" s="189" t="s">
         <v>664</v>
       </c>
@@ -39342,7 +39340,7 @@
       <c r="B98" s="220" t="s">
         <v>456</v>
       </c>
-      <c r="C98" s="280" t="s">
+      <c r="C98" s="279" t="s">
         <v>585</v>
       </c>
       <c r="D98" s="166" t="s">
@@ -39356,7 +39354,7 @@
       <c r="B99" s="222" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="278"/>
+      <c r="C99" s="277"/>
       <c r="D99" s="169" t="s">
         <v>587</v>
       </c>
@@ -39368,7 +39366,7 @@
       <c r="B100" s="222" t="s">
         <v>317</v>
       </c>
-      <c r="C100" s="278"/>
+      <c r="C100" s="277"/>
       <c r="D100" s="169" t="s">
         <v>588</v>
       </c>
@@ -39380,7 +39378,7 @@
       <c r="B101" s="222" t="s">
         <v>318</v>
       </c>
-      <c r="C101" s="278"/>
+      <c r="C101" s="277"/>
       <c r="D101" s="169" t="s">
         <v>588</v>
       </c>
@@ -39392,7 +39390,7 @@
       <c r="B102" s="222" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="278"/>
+      <c r="C102" s="277"/>
       <c r="D102" s="169" t="s">
         <v>589</v>
       </c>
@@ -39404,7 +39402,7 @@
       <c r="B103" s="224" t="s">
         <v>320</v>
       </c>
-      <c r="C103" s="279"/>
+      <c r="C103" s="278"/>
       <c r="D103" s="172" t="s">
         <v>589</v>
       </c>
@@ -39416,7 +39414,7 @@
       <c r="B104" s="225" t="s">
         <v>441</v>
       </c>
-      <c r="C104" s="280" t="s">
+      <c r="C104" s="279" t="s">
         <v>590</v>
       </c>
       <c r="D104" s="193" t="s">
@@ -39430,7 +39428,7 @@
       <c r="B105" s="226" t="s">
         <v>442</v>
       </c>
-      <c r="C105" s="278"/>
+      <c r="C105" s="277"/>
       <c r="D105" s="169" t="s">
         <v>11</v>
       </c>
@@ -39442,7 +39440,7 @@
       <c r="B106" s="226" t="s">
         <v>443</v>
       </c>
-      <c r="C106" s="278"/>
+      <c r="C106" s="277"/>
       <c r="D106" s="169" t="s">
         <v>11</v>
       </c>
@@ -39454,7 +39452,7 @@
       <c r="B107" s="226" t="s">
         <v>444</v>
       </c>
-      <c r="C107" s="278"/>
+      <c r="C107" s="277"/>
       <c r="D107" s="169" t="s">
         <v>11</v>
       </c>
@@ -39466,7 +39464,7 @@
       <c r="B108" s="226" t="s">
         <v>445</v>
       </c>
-      <c r="C108" s="278"/>
+      <c r="C108" s="277"/>
       <c r="D108" s="169" t="s">
         <v>567</v>
       </c>
@@ -39478,7 +39476,7 @@
       <c r="B109" s="226" t="s">
         <v>446</v>
       </c>
-      <c r="C109" s="278"/>
+      <c r="C109" s="277"/>
       <c r="D109" s="169" t="s">
         <v>11</v>
       </c>
@@ -39490,7 +39488,7 @@
       <c r="B110" s="226" t="s">
         <v>447</v>
       </c>
-      <c r="C110" s="278"/>
+      <c r="C110" s="277"/>
       <c r="D110" s="169" t="s">
         <v>11</v>
       </c>
@@ -39502,7 +39500,7 @@
       <c r="B111" s="226" t="s">
         <v>508</v>
       </c>
-      <c r="C111" s="278"/>
+      <c r="C111" s="277"/>
       <c r="D111" s="169" t="s">
         <v>11</v>
       </c>
@@ -39514,7 +39512,7 @@
       <c r="B112" s="226" t="s">
         <v>509</v>
       </c>
-      <c r="C112" s="278"/>
+      <c r="C112" s="277"/>
       <c r="D112" s="169" t="s">
         <v>11</v>
       </c>
@@ -39526,7 +39524,7 @@
       <c r="B113" s="226" t="s">
         <v>510</v>
       </c>
-      <c r="C113" s="278"/>
+      <c r="C113" s="277"/>
       <c r="D113" s="169" t="s">
         <v>11</v>
       </c>
@@ -39538,7 +39536,7 @@
       <c r="B114" s="226" t="s">
         <v>511</v>
       </c>
-      <c r="C114" s="278"/>
+      <c r="C114" s="277"/>
       <c r="D114" s="169" t="s">
         <v>11</v>
       </c>
@@ -39550,7 +39548,7 @@
       <c r="B115" s="226" t="s">
         <v>448</v>
       </c>
-      <c r="C115" s="278"/>
+      <c r="C115" s="277"/>
       <c r="D115" s="169" t="s">
         <v>592</v>
       </c>
@@ -39562,7 +39560,7 @@
       <c r="B116" s="226" t="s">
         <v>449</v>
       </c>
-      <c r="C116" s="278"/>
+      <c r="C116" s="277"/>
       <c r="D116" s="169" t="s">
         <v>593</v>
       </c>
@@ -39574,7 +39572,7 @@
       <c r="B117" s="226" t="s">
         <v>479</v>
       </c>
-      <c r="C117" s="278"/>
+      <c r="C117" s="277"/>
       <c r="D117" s="169" t="s">
         <v>594</v>
       </c>
@@ -39586,7 +39584,7 @@
       <c r="B118" s="226" t="s">
         <v>480</v>
       </c>
-      <c r="C118" s="278"/>
+      <c r="C118" s="277"/>
       <c r="D118" s="169" t="s">
         <v>595</v>
       </c>
@@ -39598,7 +39596,7 @@
       <c r="B119" s="226" t="s">
         <v>512</v>
       </c>
-      <c r="C119" s="278"/>
+      <c r="C119" s="277"/>
       <c r="D119" s="169" t="s">
         <v>596</v>
       </c>
@@ -39610,7 +39608,7 @@
       <c r="B120" s="226" t="s">
         <v>515</v>
       </c>
-      <c r="C120" s="278"/>
+      <c r="C120" s="277"/>
       <c r="D120" s="169" t="s">
         <v>597</v>
       </c>
@@ -39622,7 +39620,7 @@
       <c r="B121" s="226" t="s">
         <v>514</v>
       </c>
-      <c r="C121" s="278"/>
+      <c r="C121" s="277"/>
       <c r="D121" s="184" t="s">
         <v>598</v>
       </c>
@@ -39634,7 +39632,7 @@
       <c r="B122" s="226" t="s">
         <v>322</v>
       </c>
-      <c r="C122" s="278"/>
+      <c r="C122" s="277"/>
       <c r="D122" s="169" t="s">
         <v>599</v>
       </c>
@@ -39646,7 +39644,7 @@
       <c r="B123" s="226" t="s">
         <v>323</v>
       </c>
-      <c r="C123" s="278"/>
+      <c r="C123" s="277"/>
       <c r="D123" s="169" t="s">
         <v>599</v>
       </c>
@@ -39658,7 +39656,7 @@
       <c r="B124" s="226" t="s">
         <v>324</v>
       </c>
-      <c r="C124" s="278"/>
+      <c r="C124" s="277"/>
       <c r="D124" s="169" t="s">
         <v>600</v>
       </c>
@@ -39670,7 +39668,7 @@
       <c r="B125" s="226" t="s">
         <v>325</v>
       </c>
-      <c r="C125" s="278"/>
+      <c r="C125" s="277"/>
       <c r="D125" s="169" t="s">
         <v>600</v>
       </c>
@@ -39682,7 +39680,7 @@
       <c r="B126" s="226" t="s">
         <v>450</v>
       </c>
-      <c r="C126" s="278"/>
+      <c r="C126" s="277"/>
       <c r="D126" s="184" t="s">
         <v>601</v>
       </c>
@@ -39694,7 +39692,7 @@
       <c r="B127" s="226" t="s">
         <v>451</v>
       </c>
-      <c r="C127" s="278"/>
+      <c r="C127" s="277"/>
       <c r="D127" s="184" t="s">
         <v>602</v>
       </c>
@@ -39706,7 +39704,7 @@
       <c r="B128" s="226" t="s">
         <v>326</v>
       </c>
-      <c r="C128" s="278"/>
+      <c r="C128" s="277"/>
       <c r="D128" s="184" t="s">
         <v>603</v>
       </c>
@@ -39718,7 +39716,7 @@
       <c r="B129" s="226" t="s">
         <v>482</v>
       </c>
-      <c r="C129" s="278"/>
+      <c r="C129" s="277"/>
       <c r="D129" s="184" t="s">
         <v>604</v>
       </c>
@@ -39730,7 +39728,7 @@
       <c r="B130" s="226" t="s">
         <v>327</v>
       </c>
-      <c r="C130" s="278"/>
+      <c r="C130" s="277"/>
       <c r="D130" s="169" t="s">
         <v>605</v>
       </c>
@@ -39742,7 +39740,7 @@
       <c r="B131" s="226" t="s">
         <v>328</v>
       </c>
-      <c r="C131" s="278"/>
+      <c r="C131" s="277"/>
       <c r="D131" s="169" t="s">
         <v>606</v>
       </c>
@@ -39754,7 +39752,7 @@
       <c r="B132" s="226" t="s">
         <v>329</v>
       </c>
-      <c r="C132" s="278"/>
+      <c r="C132" s="277"/>
       <c r="D132" s="227" t="s">
         <v>607</v>
       </c>
@@ -39766,7 +39764,7 @@
       <c r="B133" s="226" t="s">
         <v>330</v>
       </c>
-      <c r="C133" s="278"/>
+      <c r="C133" s="277"/>
       <c r="D133" s="227" t="s">
         <v>607</v>
       </c>
@@ -39778,7 +39776,7 @@
       <c r="B134" s="226" t="s">
         <v>331</v>
       </c>
-      <c r="C134" s="278"/>
+      <c r="C134" s="277"/>
       <c r="D134" s="169" t="s">
         <v>608</v>
       </c>
@@ -39790,7 +39788,7 @@
       <c r="B135" s="226" t="s">
         <v>332</v>
       </c>
-      <c r="C135" s="278"/>
+      <c r="C135" s="277"/>
       <c r="D135" s="169" t="s">
         <v>609</v>
       </c>
@@ -39802,7 +39800,7 @@
       <c r="B136" s="226" t="s">
         <v>465</v>
       </c>
-      <c r="C136" s="278"/>
+      <c r="C136" s="277"/>
       <c r="D136" s="169" t="s">
         <v>610</v>
       </c>
@@ -39814,7 +39812,7 @@
       <c r="B137" s="228" t="s">
         <v>466</v>
       </c>
-      <c r="C137" s="279"/>
+      <c r="C137" s="278"/>
       <c r="D137" s="172" t="s">
         <v>611</v>
       </c>
@@ -39826,7 +39824,7 @@
       <c r="B138" s="230" t="s">
         <v>333</v>
       </c>
-      <c r="C138" s="278" t="s">
+      <c r="C138" s="277" t="s">
         <v>612</v>
       </c>
       <c r="D138" s="169" t="s">
@@ -39840,7 +39838,7 @@
       <c r="B139" s="230" t="s">
         <v>334</v>
       </c>
-      <c r="C139" s="278"/>
+      <c r="C139" s="277"/>
       <c r="D139" s="184" t="s">
         <v>614</v>
       </c>
@@ -39852,7 +39850,7 @@
       <c r="B140" s="230" t="s">
         <v>335</v>
       </c>
-      <c r="C140" s="278"/>
+      <c r="C140" s="277"/>
       <c r="D140" s="169" t="s">
         <v>11</v>
       </c>
@@ -39864,7 +39862,7 @@
       <c r="B141" s="230" t="s">
         <v>336</v>
       </c>
-      <c r="C141" s="278"/>
+      <c r="C141" s="277"/>
       <c r="D141" s="169" t="s">
         <v>11</v>
       </c>
@@ -39876,7 +39874,7 @@
       <c r="B142" s="230" t="s">
         <v>452</v>
       </c>
-      <c r="C142" s="278"/>
+      <c r="C142" s="277"/>
       <c r="D142" s="184" t="s">
         <v>615</v>
       </c>
@@ -39888,7 +39886,7 @@
       <c r="B143" s="230" t="s">
         <v>453</v>
       </c>
-      <c r="C143" s="278"/>
+      <c r="C143" s="277"/>
       <c r="D143" s="184" t="s">
         <v>616</v>
       </c>
@@ -39900,7 +39898,7 @@
       <c r="B144" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="C144" s="278"/>
+      <c r="C144" s="277"/>
       <c r="D144" s="169" t="s">
         <v>617</v>
       </c>
@@ -39912,7 +39910,7 @@
       <c r="B145" s="230" t="s">
         <v>338</v>
       </c>
-      <c r="C145" s="278"/>
+      <c r="C145" s="277"/>
       <c r="D145" s="169" t="s">
         <v>11</v>
       </c>
@@ -39924,7 +39922,7 @@
       <c r="B146" s="230" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="278"/>
+      <c r="C146" s="277"/>
       <c r="D146" s="169" t="s">
         <v>11</v>
       </c>
@@ -39936,7 +39934,7 @@
       <c r="B147" s="230" t="s">
         <v>340</v>
       </c>
-      <c r="C147" s="278"/>
+      <c r="C147" s="277"/>
       <c r="D147" s="169" t="s">
         <v>11</v>
       </c>
@@ -39948,7 +39946,7 @@
       <c r="B148" s="230" t="s">
         <v>341</v>
       </c>
-      <c r="C148" s="278"/>
+      <c r="C148" s="277"/>
       <c r="D148" s="169" t="s">
         <v>618</v>
       </c>
@@ -39960,7 +39958,7 @@
       <c r="B149" s="230" t="s">
         <v>342</v>
       </c>
-      <c r="C149" s="278"/>
+      <c r="C149" s="277"/>
       <c r="D149" s="169" t="s">
         <v>619</v>
       </c>
@@ -39972,7 +39970,7 @@
       <c r="B150" s="230" t="s">
         <v>343</v>
       </c>
-      <c r="C150" s="278"/>
+      <c r="C150" s="277"/>
       <c r="D150" s="169" t="s">
         <v>620</v>
       </c>
@@ -39984,7 +39982,7 @@
       <c r="B151" s="231" t="s">
         <v>344</v>
       </c>
-      <c r="C151" s="279"/>
+      <c r="C151" s="278"/>
       <c r="D151" s="172" t="s">
         <v>621</v>
       </c>
@@ -40006,6 +40004,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="C29:C41"/>
+    <mergeCell ref="C44:C53"/>
     <mergeCell ref="C138:C151"/>
     <mergeCell ref="C59:C66"/>
     <mergeCell ref="C67:C87"/>
@@ -40013,12 +40017,6 @@
     <mergeCell ref="C92:C97"/>
     <mergeCell ref="C98:C103"/>
     <mergeCell ref="C104:C137"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="C29:C41"/>
-    <mergeCell ref="C44:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -40064,7 +40062,7 @@
       <c r="B2" s="206" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="280" t="s">
+      <c r="C2" s="279" t="s">
         <v>565</v>
       </c>
       <c r="D2" s="166" t="s">
@@ -40078,7 +40076,7 @@
       <c r="B3" s="208" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="278"/>
+      <c r="C3" s="277"/>
       <c r="D3" s="169" t="s">
         <v>11</v>
       </c>
@@ -40090,7 +40088,7 @@
       <c r="B4" s="208" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="278"/>
+      <c r="C4" s="277"/>
       <c r="D4" s="169" t="s">
         <v>11</v>
       </c>
@@ -40102,7 +40100,7 @@
       <c r="B5" s="208" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="278"/>
+      <c r="C5" s="277"/>
       <c r="D5" s="169" t="s">
         <v>11</v>
       </c>
@@ -40114,7 +40112,7 @@
       <c r="B6" s="208" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="278"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="169" t="s">
         <v>11</v>
       </c>
@@ -40126,7 +40124,7 @@
       <c r="B7" s="208" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="278"/>
+      <c r="C7" s="277"/>
       <c r="D7" s="169" t="s">
         <v>11</v>
       </c>
@@ -40138,7 +40136,7 @@
       <c r="B8" s="208" t="s">
         <v>352</v>
       </c>
-      <c r="C8" s="278"/>
+      <c r="C8" s="277"/>
       <c r="D8" s="169" t="s">
         <v>11</v>
       </c>
@@ -40150,7 +40148,7 @@
       <c r="B9" s="208" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="278"/>
+      <c r="C9" s="277"/>
       <c r="D9" s="169" t="s">
         <v>11</v>
       </c>
@@ -40162,7 +40160,7 @@
       <c r="B10" s="208" t="s">
         <v>354</v>
       </c>
-      <c r="C10" s="278"/>
+      <c r="C10" s="277"/>
       <c r="D10" s="169" t="s">
         <v>11</v>
       </c>
@@ -40174,7 +40172,7 @@
       <c r="B11" s="208" t="s">
         <v>355</v>
       </c>
-      <c r="C11" s="278"/>
+      <c r="C11" s="277"/>
       <c r="D11" s="169" t="s">
         <v>11</v>
       </c>
@@ -40186,7 +40184,7 @@
       <c r="B12" s="208" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="278"/>
+      <c r="C12" s="277"/>
       <c r="D12" s="169" t="s">
         <v>11</v>
       </c>
@@ -40198,7 +40196,7 @@
       <c r="B13" s="208" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="278"/>
+      <c r="C13" s="277"/>
       <c r="D13" s="169" t="s">
         <v>11</v>
       </c>
@@ -40210,7 +40208,7 @@
       <c r="B14" s="208" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="278"/>
+      <c r="C14" s="277"/>
       <c r="D14" s="169" t="s">
         <v>625</v>
       </c>
@@ -40222,7 +40220,7 @@
       <c r="B15" s="208" t="s">
         <v>359</v>
       </c>
-      <c r="C15" s="278"/>
+      <c r="C15" s="277"/>
       <c r="D15" s="169" t="s">
         <v>625</v>
       </c>
@@ -40234,7 +40232,7 @@
       <c r="B16" s="235" t="s">
         <v>481</v>
       </c>
-      <c r="C16" s="279"/>
+      <c r="C16" s="278"/>
       <c r="D16" s="172" t="s">
         <v>626</v>
       </c>
@@ -40246,7 +40244,7 @@
       <c r="B17" s="236" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="280" t="s">
+      <c r="C17" s="279" t="s">
         <v>627</v>
       </c>
       <c r="D17" s="166" t="s">
@@ -40260,7 +40258,7 @@
       <c r="B18" s="237" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="278"/>
+      <c r="C18" s="277"/>
       <c r="D18" s="169" t="s">
         <v>629</v>
       </c>
@@ -40272,7 +40270,7 @@
       <c r="B19" s="237" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="278"/>
+      <c r="C19" s="277"/>
       <c r="D19" s="169" t="s">
         <v>630</v>
       </c>
@@ -40284,7 +40282,7 @@
       <c r="B20" s="237" t="s">
         <v>363</v>
       </c>
-      <c r="C20" s="278"/>
+      <c r="C20" s="277"/>
       <c r="D20" s="169" t="s">
         <v>557</v>
       </c>
@@ -40296,7 +40294,7 @@
       <c r="B21" s="237" t="s">
         <v>364</v>
       </c>
-      <c r="C21" s="278"/>
+      <c r="C21" s="277"/>
       <c r="D21" s="169" t="s">
         <v>558</v>
       </c>
@@ -40308,7 +40306,7 @@
       <c r="B22" s="237" t="s">
         <v>365</v>
       </c>
-      <c r="C22" s="278"/>
+      <c r="C22" s="277"/>
       <c r="D22" s="169" t="s">
         <v>559</v>
       </c>
@@ -40320,7 +40318,7 @@
       <c r="B23" s="237" t="s">
         <v>366</v>
       </c>
-      <c r="C23" s="278"/>
+      <c r="C23" s="277"/>
       <c r="D23" s="169" t="s">
         <v>560</v>
       </c>
@@ -40332,7 +40330,7 @@
       <c r="B24" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="C24" s="278"/>
+      <c r="C24" s="277"/>
       <c r="D24" s="169" t="s">
         <v>561</v>
       </c>
@@ -40344,7 +40342,7 @@
       <c r="B25" s="238" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="279"/>
+      <c r="C25" s="278"/>
       <c r="D25" s="172" t="s">
         <v>562</v>
       </c>
@@ -40356,7 +40354,7 @@
       <c r="B26" s="180" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="280" t="s">
+      <c r="C26" s="279" t="s">
         <v>631</v>
       </c>
       <c r="D26" s="166" t="s">
@@ -40370,7 +40368,7 @@
       <c r="B27" s="183" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="278"/>
+      <c r="C27" s="277"/>
       <c r="D27" s="169" t="s">
         <v>633</v>
       </c>
@@ -40382,7 +40380,7 @@
       <c r="B28" s="183" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="278"/>
+      <c r="C28" s="277"/>
       <c r="D28" s="169" t="s">
         <v>634</v>
       </c>
@@ -40394,7 +40392,7 @@
       <c r="B29" s="183" t="s">
         <v>372</v>
       </c>
-      <c r="C29" s="278"/>
+      <c r="C29" s="277"/>
       <c r="D29" s="169" t="s">
         <v>635</v>
       </c>
@@ -40406,7 +40404,7 @@
       <c r="B30" s="183" t="s">
         <v>373</v>
       </c>
-      <c r="C30" s="278"/>
+      <c r="C30" s="277"/>
       <c r="D30" s="169" t="s">
         <v>636</v>
       </c>
@@ -40418,7 +40416,7 @@
       <c r="B31" s="183" t="s">
         <v>374</v>
       </c>
-      <c r="C31" s="278"/>
+      <c r="C31" s="277"/>
       <c r="D31" s="169" t="s">
         <v>636</v>
       </c>
@@ -40430,7 +40428,7 @@
       <c r="B32" s="183" t="s">
         <v>375</v>
       </c>
-      <c r="C32" s="278"/>
+      <c r="C32" s="277"/>
       <c r="D32" s="169" t="s">
         <v>637</v>
       </c>
@@ -40442,7 +40440,7 @@
       <c r="B33" s="183" t="s">
         <v>376</v>
       </c>
-      <c r="C33" s="278"/>
+      <c r="C33" s="277"/>
       <c r="D33" s="169" t="s">
         <v>637</v>
       </c>
@@ -40454,7 +40452,7 @@
       <c r="B34" s="183" t="s">
         <v>377</v>
       </c>
-      <c r="C34" s="278"/>
+      <c r="C34" s="277"/>
       <c r="D34" s="169" t="s">
         <v>637</v>
       </c>
@@ -40466,7 +40464,7 @@
       <c r="B35" s="183" t="s">
         <v>378</v>
       </c>
-      <c r="C35" s="278"/>
+      <c r="C35" s="277"/>
       <c r="D35" s="169" t="s">
         <v>637</v>
       </c>
@@ -40478,7 +40476,7 @@
       <c r="B36" s="239" t="s">
         <v>379</v>
       </c>
-      <c r="C36" s="279"/>
+      <c r="C36" s="278"/>
       <c r="D36" s="169" t="s">
         <v>637</v>
       </c>
@@ -40490,7 +40488,7 @@
       <c r="B37" s="241" t="s">
         <v>483</v>
       </c>
-      <c r="C37" s="280" t="s">
+      <c r="C37" s="279" t="s">
         <v>638</v>
       </c>
       <c r="D37" s="193" t="s">
@@ -40504,7 +40502,7 @@
       <c r="B38" s="229" t="s">
         <v>484</v>
       </c>
-      <c r="C38" s="278"/>
+      <c r="C38" s="277"/>
       <c r="D38" s="184" t="s">
         <v>616</v>
       </c>
@@ -40516,7 +40514,7 @@
       <c r="B39" s="229" t="s">
         <v>485</v>
       </c>
-      <c r="C39" s="278"/>
+      <c r="C39" s="277"/>
       <c r="D39" s="184" t="s">
         <v>639</v>
       </c>
@@ -40528,7 +40526,7 @@
       <c r="B40" s="244" t="s">
         <v>486</v>
       </c>
-      <c r="C40" s="279"/>
+      <c r="C40" s="278"/>
       <c r="D40" s="189" t="s">
         <v>640</v>
       </c>
@@ -40555,6 +40553,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004FD8CECCB51EC843BF514AFE68379818" ma:contentTypeVersion="18" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="eda339f53f012ceb64677667a741b441">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="107e75b3-53cc-4838-92d2-ebc011bd4832" xmlns:ns3="888ccf44-0d39-41a2-ab17-f7efb2bf6977" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04a86f3db711706e561c315688f1c464" ns2:_="" ns3:_="">
     <xsd:import namespace="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
@@ -40803,17 +40812,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B21D61-7BBD-4BD3-A9A5-1E8F98F2F686}">
   <ds:schemaRefs>
@@ -40823,6 +40821,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
+    <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F91B7B9-75FF-4624-B506-952B5B54766C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40839,21 +40854,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
-    <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\energinet.local\endk_funktion\Projekter\EffektGruppen\13_Medarbejdermapper\CVL\MTB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F5D7B-A955-451F-BF71-B939EE7A302B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="2130" windowWidth="38400" windowHeight="15320" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -2522,7 +2521,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -4065,9 +4064,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20 % - Farve3" xfId="1" builtinId="38"/>
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4091,7 +4090,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Settings"/>
@@ -4326,7 +4325,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Settings"/>
@@ -4620,7 +4619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00847C"/>
   </sheetPr>
@@ -4628,20 +4627,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="82.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" customWidth="1"/>
-    <col min="9" max="14" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="133" t="s">
         <v>230</v>
@@ -4656,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>228</v>
       </c>
@@ -4669,7 +4668,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="145"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>241</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -4696,7 +4695,7 @@
       </c>
       <c r="E4" s="147"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -4716,7 +4715,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
@@ -4731,7 +4730,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
@@ -4757,7 +4756,7 @@
       <c r="M7" s="263"/>
       <c r="N7" s="264"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="254" t="s">
         <v>658</v>
       </c>
@@ -4807,7 +4806,7 @@
       <c r="M9" s="150"/>
       <c r="N9" s="153"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>10</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>12</v>
       </c>
@@ -4852,7 +4851,7 @@
       </c>
       <c r="E11" s="147"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>13</v>
       </c>
@@ -4864,7 +4863,7 @@
       </c>
       <c r="E12" s="147"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
@@ -4876,7 +4875,7 @@
       </c>
       <c r="E13" s="147"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
@@ -4891,7 +4890,7 @@
       <c r="H14" s="190"/>
       <c r="I14" s="190"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
@@ -4906,7 +4905,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>18</v>
       </c>
@@ -4921,7 +4920,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>19</v>
       </c>
@@ -4938,7 +4937,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>21</v>
       </c>
@@ -4955,7 +4954,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
@@ -4972,7 +4971,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
@@ -4984,7 +4983,7 @@
       </c>
       <c r="E20" s="147"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>27</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>30</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5024,7 +5023,7 @@
       </c>
       <c r="E23" s="147"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>32</v>
       </c>
@@ -5036,7 +5035,7 @@
       </c>
       <c r="E24" s="147"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>33</v>
       </c>
@@ -5048,7 +5047,7 @@
       </c>
       <c r="E25" s="147"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>34</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>36</v>
       </c>
@@ -5083,11 +5082,11 @@
     <mergeCell ref="L7:N7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>1</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>0.1</formula1>
       <formula2>999999</formula2>
     </dataValidation>
@@ -5097,25 +5096,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>B19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
           <xm:sqref>B23:B27 B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$F$1:$F$4</xm:f>
           </x14:formula1>
@@ -5128,7 +5127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF02525E"/>
   </sheetPr>
@@ -5139,13 +5138,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="39.7265625" customWidth="1"/>
-    <col min="4" max="4" width="127.7265625" customWidth="1"/>
+    <col min="2" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="127.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="243">
         <v>2001</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="245">
         <v>2002</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="245">
         <v>2003</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="245">
         <v>2004</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="245">
         <v>2005</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="247">
         <v>2006</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="249">
         <v>2007</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="179">
         <v>2008</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="186">
         <v>2009</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="217">
         <v>2010</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="219">
         <v>2011</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="221">
         <v>2012</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="203">
         <v>2013</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="205">
         <v>2014</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="205">
         <v>2015</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="205">
         <v>2016</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="205">
         <v>2017</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="205">
         <v>2018</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="205">
         <v>2019</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="205">
         <v>2020</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="205">
         <v>2021</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="205">
         <v>2022</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="205">
         <v>2023</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="205">
         <v>2024</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="205">
         <v>2025</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="205">
         <v>2026</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="205">
         <v>2027</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="205">
         <v>2028</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="205">
         <v>2029</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="205">
         <v>2030</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="205">
         <v>2031</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="205">
         <v>2032</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="205">
         <v>2033</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="205">
         <v>2034</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="205">
         <v>2035</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="209">
         <v>2036</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="217">
         <v>2037</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="219">
         <v>2038</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="219">
         <v>2039</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="221">
         <v>2040</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="238">
         <v>2041</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="240">
         <v>2042</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="240">
         <v>2043</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="240">
         <v>2044</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="240">
         <v>2045</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="240">
         <v>2046</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="240">
         <v>2047</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="240">
         <v>2048</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="240">
         <v>2049</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="240">
         <v>2050</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="240">
         <v>2051</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="240">
         <v>2052</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="240">
         <v>2053</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="240">
         <v>2054</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="240">
         <v>2055</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="240">
         <v>2056</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="240">
         <v>2057</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="240">
         <v>2058</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="241">
         <v>2059</v>
       </c>
@@ -5881,7 +5880,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="249">
         <v>2060</v>
       </c>
@@ -5910,19 +5909,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>115</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>108</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>432</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>429</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>430</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>431</v>
       </c>
@@ -6030,22 +6029,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
       <c r="B1" s="265" t="s">
         <v>9</v>
@@ -6059,7 +6058,7 @@
       <c r="G1" s="266"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>7</v>
       </c>
@@ -6085,7 +6084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
@@ -6097,7 +6096,7 @@
       <c r="G3" s="46"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>43</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>44</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>45</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>46</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>47</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>48</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>49</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>50</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>51</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>52</v>
       </c>
@@ -6349,7 +6348,7 @@
       <c r="E13" s="56"/>
       <c r="H13" s="52"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>53</v>
       </c>
@@ -6376,7 +6375,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>54</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>55</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>56</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>57</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>58</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>1.028</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>59</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>60</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>61</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
         <v>62</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>63</v>
       </c>
@@ -6628,7 +6627,7 @@
       <c r="E24" s="56"/>
       <c r="H24" s="52"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>64</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>65</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>66</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>67</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>68</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>69</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>70</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>71</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>72</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
         <v>73</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>74</v>
       </c>
@@ -6907,7 +6906,7 @@
       <c r="E35" s="56"/>
       <c r="H35" s="52"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
         <v>75</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>76</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>77</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>78</v>
       </c>
@@ -7027,7 +7026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00847C"/>
   </sheetPr>
@@ -7038,66 +7037,66 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="115" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7265625" style="115" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="115" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="115" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" style="115" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="115" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="115" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="115" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7265625" style="115" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.453125" style="115" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.54296875" style="115" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="115" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="115" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="115" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="115" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7265625" style="115" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.453125" style="115" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.54296875" style="115" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="115" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" style="115" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" style="115" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7265625" style="115" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7265625" style="115" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.453125" style="115" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.54296875" style="115" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.26953125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.453125" style="115" customWidth="1"/>
-    <col min="46" max="46" width="9.7265625" style="115" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.453125" style="115" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.54296875" style="115" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.54296875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.81640625" style="115" customWidth="1"/>
-    <col min="54" max="54" width="9.7265625" style="115" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.453125" style="115" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.54296875" style="115" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="115" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="115" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" style="115" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" style="115" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" style="115" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" style="115" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" style="115" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" style="115" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5703125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.85546875" style="115" customWidth="1"/>
+    <col min="54" max="54" width="9.7109375" style="115" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.42578125" style="115" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.5703125" style="115" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="13" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.1796875" style="1"/>
+    <col min="58" max="58" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D1" s="118" t="s">
         <v>220</v>
       </c>
@@ -7174,7 +7173,7 @@
       <c r="BG1" s="268"/>
       <c r="BH1" s="268"/>
     </row>
-    <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>92</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7447,7 +7446,7 @@
       <c r="BG3" s="5"/>
       <c r="BH3" s="5"/>
     </row>
-    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7538,7 +7537,7 @@
       <c r="BG4" s="5"/>
       <c r="BH4" s="5"/>
     </row>
-    <row r="5" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7629,7 +7628,7 @@
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
     </row>
-    <row r="6" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7720,7 +7719,7 @@
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
     </row>
-    <row r="7" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7811,7 +7810,7 @@
       <c r="BG7" s="5"/>
       <c r="BH7" s="5"/>
     </row>
-    <row r="8" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7902,7 +7901,7 @@
       <c r="BG8" s="5"/>
       <c r="BH8" s="5"/>
     </row>
-    <row r="9" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7992,7 +7991,7 @@
       <c r="BG9" s="5"/>
       <c r="BH9" s="5"/>
     </row>
-    <row r="10" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8082,7 +8081,7 @@
       <c r="BG10" s="5"/>
       <c r="BH10" s="5"/>
     </row>
-    <row r="11" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8173,7 +8172,7 @@
       <c r="BG11" s="5"/>
       <c r="BH11" s="5"/>
     </row>
-    <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8264,7 +8263,7 @@
       <c r="BG12" s="5"/>
       <c r="BH12" s="5"/>
     </row>
-    <row r="13" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8362,7 +8361,7 @@
       <c r="BG13" s="5"/>
       <c r="BH13" s="5"/>
     </row>
-    <row r="14" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8460,7 +8459,7 @@
       <c r="BG14" s="5"/>
       <c r="BH14" s="5"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8558,7 +8557,7 @@
       <c r="BG15" s="5"/>
       <c r="BH15" s="5"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8656,7 +8655,7 @@
       <c r="BG16" s="5"/>
       <c r="BH16" s="5"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8754,7 +8753,7 @@
       <c r="BG17" s="5"/>
       <c r="BH17" s="5"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8852,7 +8851,7 @@
       <c r="BG18" s="5"/>
       <c r="BH18" s="5"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8968,7 +8967,7 @@
       <c r="BG19" s="5"/>
       <c r="BH19" s="5"/>
     </row>
-    <row r="20" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9086,7 +9085,7 @@
       <c r="BG20" s="100"/>
       <c r="BH20" s="100"/>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9206,7 +9205,7 @@
       <c r="BG21" s="5"/>
       <c r="BH21" s="5"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9327,7 +9326,7 @@
       <c r="BG22" s="5"/>
       <c r="BH22" s="5"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9448,7 +9447,7 @@
       <c r="BG23" s="5"/>
       <c r="BH23" s="5"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9569,7 +9568,7 @@
       <c r="BG24" s="5"/>
       <c r="BH24" s="5"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9690,7 +9689,7 @@
       <c r="BG25" s="5"/>
       <c r="BH25" s="5"/>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9821,7 +9820,7 @@
       <c r="BG26" s="5"/>
       <c r="BH26" s="5"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9952,7 +9951,7 @@
       <c r="BG27" s="5"/>
       <c r="BH27" s="5"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10062,7 +10061,7 @@
       <c r="BG28" s="5"/>
       <c r="BH28" s="5"/>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10172,7 +10171,7 @@
       <c r="BG29" s="5"/>
       <c r="BH29" s="5"/>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10287,7 +10286,7 @@
       <c r="BG30" s="5"/>
       <c r="BH30" s="5"/>
     </row>
-    <row r="31" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10404,7 +10403,7 @@
       <c r="BG31" s="100"/>
       <c r="BH31" s="100"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10519,7 +10518,7 @@
       <c r="BG32" s="5"/>
       <c r="BH32" s="5"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -10634,7 +10633,7 @@
       <c r="BG33" s="5"/>
       <c r="BH33" s="5"/>
     </row>
-    <row r="34" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10761,7 +10760,7 @@
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
     </row>
-    <row r="35" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10857,7 +10856,7 @@
       <c r="BG35" s="100"/>
       <c r="BH35" s="100"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10952,7 +10951,7 @@
       <c r="BG36" s="5"/>
       <c r="BH36" s="5"/>
     </row>
-    <row r="37" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11048,7 +11047,7 @@
       <c r="BG37" s="100"/>
       <c r="BH37" s="100"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11143,7 +11142,7 @@
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
     </row>
-    <row r="39" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11237,7 +11236,7 @@
       <c r="BG39" s="100"/>
       <c r="BH39" s="100"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11405,7 +11404,7 @@
       </c>
       <c r="BH40" s="5"/>
     </row>
-    <row r="41" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11575,7 +11574,7 @@
       </c>
       <c r="BH41" s="100"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11743,7 +11742,7 @@
       </c>
       <c r="BH42" s="5"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11902,7 +11901,7 @@
       <c r="BG43" s="100"/>
       <c r="BH43" s="100"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12023,7 +12022,7 @@
       <c r="BG44" s="5"/>
       <c r="BH44" s="5"/>
     </row>
-    <row r="45" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12119,7 +12118,7 @@
       <c r="BG45" s="100"/>
       <c r="BH45" s="100"/>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12215,7 +12214,7 @@
       <c r="BG46" s="5"/>
       <c r="BH46" s="5"/>
     </row>
-    <row r="47" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -12311,7 +12310,7 @@
       <c r="BG47" s="100"/>
       <c r="BH47" s="100"/>
     </row>
-    <row r="48" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:92" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -12407,7 +12406,7 @@
       <c r="BG48" s="100"/>
       <c r="BH48" s="100"/>
     </row>
-    <row r="49" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -12503,7 +12502,7 @@
       <c r="BG49" s="100"/>
       <c r="BH49" s="100"/>
     </row>
-    <row r="50" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -12600,7 +12599,7 @@
       <c r="BG50" s="100"/>
       <c r="BH50" s="100"/>
     </row>
-    <row r="51" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -12697,7 +12696,7 @@
       <c r="BG51" s="100"/>
       <c r="BH51" s="100"/>
     </row>
-    <row r="52" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -12794,7 +12793,7 @@
       <c r="BG52" s="100"/>
       <c r="BH52" s="100"/>
     </row>
-    <row r="53" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -12891,7 +12890,7 @@
       <c r="BG53" s="100"/>
       <c r="BH53" s="100"/>
     </row>
-    <row r="54" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:61" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -12988,7 +12987,7 @@
       <c r="BG54" s="100"/>
       <c r="BH54" s="100"/>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13101,7 +13100,7 @@
       <c r="BG55" s="5"/>
       <c r="BH55" s="5"/>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13214,7 +13213,7 @@
       <c r="BG56" s="5"/>
       <c r="BH56" s="5"/>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13327,7 +13326,7 @@
       <c r="BG57" s="5"/>
       <c r="BH57" s="5"/>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13440,7 +13439,7 @@
       <c r="BG58" s="5"/>
       <c r="BH58" s="5"/>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13563,7 +13562,7 @@
       <c r="BH59" s="100"/>
       <c r="BI59" s="98"/>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13689,7 +13688,7 @@
       <c r="BH60" s="100"/>
       <c r="BI60" s="98"/>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13803,7 +13802,7 @@
       <c r="BG61" s="5"/>
       <c r="BH61" s="5"/>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13934,7 +13933,7 @@
       <c r="BG62" s="5"/>
       <c r="BH62" s="5"/>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14064,7 +14063,7 @@
       <c r="BG63" s="5"/>
       <c r="BH63" s="5"/>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>10</v>
       </c>
       <c r="L64" s="22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M64" s="107" t="s">
         <v>110</v>
@@ -14230,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -14362,7 +14361,7 @@
       <c r="BG65" s="5"/>
       <c r="BH65" s="5"/>
     </row>
-    <row r="66" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -14494,7 +14493,7 @@
       <c r="BG66" s="5"/>
       <c r="BH66" s="5"/>
     </row>
-    <row r="67" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -14633,7 +14632,7 @@
       <c r="BG67" s="5"/>
       <c r="BH67" s="5"/>
     </row>
-    <row r="68" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -14746,7 +14745,7 @@
       <c r="BG68" s="100"/>
       <c r="BH68" s="100"/>
     </row>
-    <row r="69" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -14850,7 +14849,7 @@
       <c r="BG69" s="5"/>
       <c r="BH69" s="5"/>
     </row>
-    <row r="70" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -14948,7 +14947,7 @@
       <c r="BG70" s="5"/>
       <c r="BH70" s="5"/>
     </row>
-    <row r="71" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15046,7 +15045,7 @@
       <c r="BG71" s="5"/>
       <c r="BH71" s="5"/>
     </row>
-    <row r="72" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15144,7 +15143,7 @@
       <c r="BG72" s="5"/>
       <c r="BH72" s="5"/>
     </row>
-    <row r="73" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15243,7 +15242,7 @@
       <c r="BG73" s="5"/>
       <c r="BH73" s="5"/>
     </row>
-    <row r="74" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15347,7 +15346,7 @@
       <c r="BG74" s="5"/>
       <c r="BH74" s="5"/>
     </row>
-    <row r="75" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15445,7 +15444,7 @@
       <c r="BG75" s="5"/>
       <c r="BH75" s="5"/>
     </row>
-    <row r="76" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15543,7 +15542,7 @@
       <c r="BG76" s="5"/>
       <c r="BH76" s="5"/>
     </row>
-    <row r="77" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15673,7 +15672,7 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
     </row>
-    <row r="78" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -15804,7 +15803,7 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
     </row>
-    <row r="79" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -15940,7 +15939,7 @@
       <c r="CM79" s="1"/>
       <c r="CN79" s="1"/>
     </row>
-    <row r="80" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -16038,7 +16037,7 @@
       <c r="BG80" s="5"/>
       <c r="BH80" s="5"/>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -16136,7 +16135,7 @@
       <c r="BG81" s="5"/>
       <c r="BH81" s="5"/>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -16234,7 +16233,7 @@
       <c r="BG82" s="5"/>
       <c r="BH82" s="5"/>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -16333,7 +16332,7 @@
       <c r="BG83" s="5"/>
       <c r="BH83" s="5"/>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -16445,7 +16444,7 @@
       <c r="BG84" s="5"/>
       <c r="BH84" s="5"/>
     </row>
-    <row r="85" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -16571,7 +16570,7 @@
       <c r="BG85" s="100"/>
       <c r="BH85" s="100"/>
     </row>
-    <row r="86" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -16680,7 +16679,7 @@
       <c r="BG86" s="100"/>
       <c r="BH86" s="100"/>
     </row>
-    <row r="87" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -16789,7 +16788,7 @@
       <c r="BG87" s="100"/>
       <c r="BH87" s="100"/>
     </row>
-    <row r="88" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -16900,7 +16899,7 @@
       <c r="BG88" s="100"/>
       <c r="BH88" s="100"/>
     </row>
-    <row r="89" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17011,7 +17010,7 @@
       <c r="BG89" s="100"/>
       <c r="BH89" s="100"/>
     </row>
-    <row r="90" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17153,7 +17152,7 @@
       <c r="BG90" s="100"/>
       <c r="BH90" s="100"/>
     </row>
-    <row r="91" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17267,7 +17266,7 @@
       <c r="BG91" s="100"/>
       <c r="BH91" s="100"/>
     </row>
-    <row r="92" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17366,7 +17365,7 @@
       <c r="BG92" s="100"/>
       <c r="BH92" s="100"/>
     </row>
-    <row r="93" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17487,7 +17486,7 @@
       <c r="BG93" s="100"/>
       <c r="BH93" s="100"/>
     </row>
-    <row r="94" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17598,7 +17597,7 @@
       <c r="BG94" s="100"/>
       <c r="BH94" s="100"/>
     </row>
-    <row r="95" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17728,7 +17727,7 @@
       <c r="BG95" s="100"/>
       <c r="BH95" s="100"/>
     </row>
-    <row r="96" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17836,7 +17835,7 @@
       <c r="BG96" s="100"/>
       <c r="BH96" s="100"/>
     </row>
-    <row r="97" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17948,7 +17947,7 @@
       <c r="BG97" s="100"/>
       <c r="BH97" s="100"/>
     </row>
-    <row r="98" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -18059,7 +18058,7 @@
       <c r="BG98" s="100"/>
       <c r="BH98" s="100"/>
     </row>
-    <row r="99" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -18167,7 +18166,7 @@
       <c r="BG99" s="100"/>
       <c r="BH99" s="100"/>
     </row>
-    <row r="100" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -18281,7 +18280,7 @@
       <c r="BG100" s="100"/>
       <c r="BH100" s="100"/>
     </row>
-    <row r="101" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -18393,7 +18392,7 @@
       <c r="BG101" s="100"/>
       <c r="BH101" s="100"/>
     </row>
-    <row r="102" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -18518,7 +18517,7 @@
       <c r="BG102" s="100"/>
       <c r="BH102" s="100"/>
     </row>
-    <row r="103" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -18643,7 +18642,7 @@
       <c r="BG103" s="100"/>
       <c r="BH103" s="100"/>
     </row>
-    <row r="104" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -18802,7 +18801,7 @@
       <c r="BG104" s="100"/>
       <c r="BH104" s="100"/>
     </row>
-    <row r="105" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -18961,7 +18960,7 @@
       <c r="BG105" s="100"/>
       <c r="BH105" s="100"/>
     </row>
-    <row r="106" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -19062,7 +19061,7 @@
       <c r="BG106" s="100"/>
       <c r="BH106" s="100"/>
     </row>
-    <row r="107" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -19157,7 +19156,7 @@
       <c r="BG107" s="100"/>
       <c r="BH107" s="100"/>
     </row>
-    <row r="108" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -19252,7 +19251,7 @@
       <c r="BG108" s="100"/>
       <c r="BH108" s="100"/>
     </row>
-    <row r="109" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -19347,7 +19346,7 @@
       <c r="BG109" s="100"/>
       <c r="BH109" s="100"/>
     </row>
-    <row r="110" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -19443,7 +19442,7 @@
       <c r="BG110" s="100"/>
       <c r="BH110" s="100"/>
     </row>
-    <row r="111" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -19538,7 +19537,7 @@
       <c r="BG111" s="100"/>
       <c r="BH111" s="100"/>
     </row>
-    <row r="112" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -19633,7 +19632,7 @@
       <c r="BG112" s="100"/>
       <c r="BH112" s="100"/>
     </row>
-    <row r="113" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -19728,7 +19727,7 @@
       <c r="BG113" s="100"/>
       <c r="BH113" s="100"/>
     </row>
-    <row r="114" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -19823,7 +19822,7 @@
       <c r="BG114" s="100"/>
       <c r="BH114" s="100"/>
     </row>
-    <row r="115" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -19918,7 +19917,7 @@
       <c r="BG115" s="100"/>
       <c r="BH115" s="100"/>
     </row>
-    <row r="116" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -20013,7 +20012,7 @@
       <c r="BG116" s="100"/>
       <c r="BH116" s="100"/>
     </row>
-    <row r="117" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -20120,7 +20119,7 @@
       <c r="BG117" s="100"/>
       <c r="BH117" s="100"/>
     </row>
-    <row r="118" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -20227,7 +20226,7 @@
       <c r="BG118" s="100"/>
       <c r="BH118" s="100"/>
     </row>
-    <row r="119" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -20324,7 +20323,7 @@
       <c r="BG119" s="100"/>
       <c r="BH119" s="100"/>
     </row>
-    <row r="120" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -20420,7 +20419,7 @@
       <c r="BG120" s="100"/>
       <c r="BH120" s="100"/>
     </row>
-    <row r="121" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -20516,7 +20515,7 @@
       <c r="BG121" s="100"/>
       <c r="BH121" s="100"/>
     </row>
-    <row r="122" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -20621,7 +20620,7 @@
       <c r="BG122" s="100"/>
       <c r="BH122" s="100"/>
     </row>
-    <row r="123" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -20736,7 +20735,7 @@
       <c r="BG123" s="100"/>
       <c r="BH123" s="100"/>
     </row>
-    <row r="124" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -20828,7 +20827,7 @@
       <c r="BG124" s="100"/>
       <c r="BH124" s="100"/>
     </row>
-    <row r="125" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -20920,7 +20919,7 @@
       <c r="BG125" s="100"/>
       <c r="BH125" s="100"/>
     </row>
-    <row r="126" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -21066,7 +21065,7 @@
       <c r="BG126" s="100"/>
       <c r="BH126" s="100"/>
     </row>
-    <row r="127" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -21212,7 +21211,7 @@
       <c r="BG127" s="100"/>
       <c r="BH127" s="100"/>
     </row>
-    <row r="128" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -21332,7 +21331,7 @@
       <c r="BG128" s="100"/>
       <c r="BH128" s="100"/>
     </row>
-    <row r="129" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -21452,7 +21451,7 @@
       <c r="BG129" s="100"/>
       <c r="BH129" s="100"/>
     </row>
-    <row r="130" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -21559,7 +21558,7 @@
       <c r="BG130" s="100"/>
       <c r="BH130" s="100"/>
     </row>
-    <row r="131" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -21667,7 +21666,7 @@
       <c r="BG131" s="100"/>
       <c r="BH131" s="100"/>
     </row>
-    <row r="132" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -21755,7 +21754,7 @@
       <c r="BG132" s="100"/>
       <c r="BH132" s="100"/>
     </row>
-    <row r="133" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -21844,7 +21843,7 @@
       <c r="BG133" s="100"/>
       <c r="BH133" s="100"/>
     </row>
-    <row r="134" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -21934,7 +21933,7 @@
       <c r="BG134" s="100"/>
       <c r="BH134" s="100"/>
     </row>
-    <row r="135" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -22025,7 +22024,7 @@
       <c r="BG135" s="100"/>
       <c r="BH135" s="100"/>
     </row>
-    <row r="136" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -22113,7 +22112,7 @@
       <c r="BG136" s="100"/>
       <c r="BH136" s="100"/>
     </row>
-    <row r="137" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -22203,7 +22202,7 @@
       <c r="BG137" s="100"/>
       <c r="BH137" s="100"/>
     </row>
-    <row r="138" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -22291,7 +22290,7 @@
       <c r="BG138" s="100"/>
       <c r="BH138" s="100"/>
     </row>
-    <row r="139" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -22381,7 +22380,7 @@
       <c r="BG139" s="100"/>
       <c r="BH139" s="100"/>
     </row>
-    <row r="140" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -22475,7 +22474,7 @@
       <c r="BG140" s="100"/>
       <c r="BH140" s="100"/>
     </row>
-    <row r="141" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -22569,7 +22568,7 @@
       <c r="BG141" s="100"/>
       <c r="BH141" s="100"/>
     </row>
-    <row r="142" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -22662,7 +22661,7 @@
       <c r="BG142" s="100"/>
       <c r="BH142" s="100"/>
     </row>
-    <row r="143" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -22755,7 +22754,7 @@
       <c r="BG143" s="100"/>
       <c r="BH143" s="100"/>
     </row>
-    <row r="144" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -22920,7 +22919,7 @@
       </c>
       <c r="BH144" s="100"/>
     </row>
-    <row r="145" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -23085,7 +23084,7 @@
       </c>
       <c r="BH145" s="100"/>
     </row>
-    <row r="146" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -23179,7 +23178,7 @@
       <c r="BG146" s="100"/>
       <c r="BH146" s="100"/>
     </row>
-    <row r="147" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -23273,7 +23272,7 @@
       <c r="BG147" s="100"/>
       <c r="BH147" s="100"/>
     </row>
-    <row r="148" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -23367,7 +23366,7 @@
       <c r="BG148" s="100"/>
       <c r="BH148" s="100"/>
     </row>
-    <row r="149" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -23461,7 +23460,7 @@
       <c r="BG149" s="100"/>
       <c r="BH149" s="100"/>
     </row>
-    <row r="150" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -23553,7 +23552,7 @@
       <c r="BG150" s="100"/>
       <c r="BH150" s="100"/>
     </row>
-    <row r="151" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -23645,7 +23644,7 @@
       <c r="BG151" s="100"/>
       <c r="BH151" s="100"/>
     </row>
-    <row r="152" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -23770,7 +23769,7 @@
       <c r="BG152" s="100"/>
       <c r="BH152" s="100"/>
     </row>
-    <row r="153" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -23894,7 +23893,7 @@
       <c r="BG153" s="100"/>
       <c r="BH153" s="100"/>
     </row>
-    <row r="154" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:60" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -23982,7 +23981,7 @@
       <c r="BG154" s="100"/>
       <c r="BH154" s="100"/>
     </row>
-    <row r="155" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L155" s="6"/>
       <c r="P155" s="107"/>
       <c r="S155" s="5"/>
@@ -24008,7 +24007,7 @@
       <c r="BG155" s="5"/>
       <c r="BH155" s="5"/>
     </row>
-    <row r="156" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L156" s="6"/>
       <c r="P156" s="107"/>
       <c r="S156" s="5"/>
@@ -24034,7 +24033,7 @@
       <c r="BG156" s="5"/>
       <c r="BH156" s="5"/>
     </row>
-    <row r="157" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L157" s="6"/>
       <c r="P157" s="107"/>
       <c r="S157" s="5"/>
@@ -24060,7 +24059,7 @@
       <c r="BG157" s="5"/>
       <c r="BH157" s="5"/>
     </row>
-    <row r="158" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L158" s="6"/>
       <c r="P158" s="107"/>
       <c r="S158" s="5"/>
@@ -24078,7 +24077,7 @@
       <c r="BC158" s="107"/>
       <c r="BD158" s="107"/>
     </row>
-    <row r="159" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L159" s="6"/>
       <c r="P159" s="107"/>
       <c r="S159" s="5"/>
@@ -24094,7 +24093,7 @@
       <c r="BC159" s="107"/>
       <c r="BD159" s="107"/>
     </row>
-    <row r="160" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L160" s="6"/>
       <c r="P160" s="107"/>
       <c r="S160" s="5"/>
@@ -24106,7 +24105,7 @@
       <c r="AE160" s="107"/>
       <c r="AF160" s="107"/>
     </row>
-    <row r="161" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="161" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L161" s="6"/>
       <c r="P161" s="107"/>
       <c r="S161" s="5"/>
@@ -24118,7 +24117,7 @@
       <c r="AE161" s="107"/>
       <c r="AF161" s="107"/>
     </row>
-    <row r="162" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="162" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L162" s="6"/>
       <c r="P162" s="107"/>
       <c r="S162" s="5"/>
@@ -24130,7 +24129,7 @@
       <c r="AE162" s="107"/>
       <c r="AF162" s="107"/>
     </row>
-    <row r="163" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="163" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L163" s="6"/>
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
@@ -24141,7 +24140,7 @@
       <c r="AE163" s="107"/>
       <c r="AF163" s="107"/>
     </row>
-    <row r="164" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="164" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L164" s="6"/>
       <c r="W164" s="107"/>
       <c r="X164" s="107"/>
@@ -24150,118 +24149,118 @@
       <c r="AE164" s="107"/>
       <c r="AF164" s="107"/>
     </row>
-    <row r="165" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="165" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L165" s="6"/>
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
       <c r="AE165" s="107"/>
       <c r="AF165" s="107"/>
     </row>
-    <row r="166" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="166" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L166" s="6"/>
       <c r="AE166" s="107"/>
       <c r="AF166" s="107"/>
     </row>
-    <row r="167" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="167" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L167" s="6"/>
       <c r="AE167" s="107"/>
       <c r="AF167" s="107"/>
     </row>
-    <row r="168" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="168" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L168" s="6"/>
       <c r="AE168" s="107"/>
       <c r="AF168" s="107"/>
     </row>
-    <row r="169" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="169" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L169" s="6"/>
       <c r="AE169" s="107"/>
       <c r="AF169" s="107"/>
     </row>
-    <row r="170" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="170" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L170" s="6"/>
       <c r="AE170" s="107"/>
       <c r="AF170" s="107"/>
     </row>
-    <row r="171" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="171" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L171" s="6"/>
     </row>
-    <row r="172" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="172" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L172" s="6"/>
     </row>
-    <row r="173" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="173" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L173" s="6"/>
     </row>
-    <row r="174" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="174" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L174" s="6"/>
     </row>
-    <row r="175" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="175" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L175" s="6"/>
     </row>
-    <row r="176" spans="12:32" x14ac:dyDescent="0.35">
+    <row r="176" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L176" s="6"/>
     </row>
-    <row r="177" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L177" s="6"/>
     </row>
-    <row r="178" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L178" s="6"/>
     </row>
-    <row r="179" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L179" s="6"/>
     </row>
-    <row r="180" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L181" s="6"/>
     </row>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L183" s="6"/>
     </row>
-    <row r="184" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L184" s="6"/>
     </row>
-    <row r="185" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L185" s="6"/>
     </row>
-    <row r="186" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L186" s="6"/>
     </row>
-    <row r="187" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L187" s="6"/>
     </row>
-    <row r="188" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L188" s="6"/>
     </row>
-    <row r="189" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L189" s="6"/>
     </row>
-    <row r="190" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L190" s="6"/>
     </row>
-    <row r="191" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L191" s="6"/>
     </row>
-    <row r="192" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L192" s="6"/>
     </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L193" s="6"/>
     </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L194" s="6"/>
     </row>
-    <row r="195" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L195" s="6"/>
     </row>
-    <row r="196" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L196" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BH154" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:BH154"/>
   <mergeCells count="12">
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="M1:P1"/>
@@ -24285,43 +24284,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
           <xm:sqref>Q38 Q175:Q194 Q36 AS44:AS89 BA44:BA89 Q91 AC91 Y91 U91 BA3:BA39 AC3:AC38 AG3:AG38 AK3:AK38 Y3:Y38 AW3:AW89 U30:U38 Q30:Q34 AS3:AS42 U3:U27 Q3:Q27 BE3:BE89 AK45:AK89 Q122:Q123 AC40:AC42 U40:U42 Q40:Q42 AG40:AG89 Y40:Y42 AO3:AO89 AC45:AC89 U45:U89 Q45:Q89 Y45:Y89</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$272</xm:f>
           </x14:formula1>
           <xm:sqref>Y92:Y139 Q43:Q44 AO90:AO139 AC92:AC139 U43:U44 AS90:AS139 Y43:Y44 Q28:Q29 U28:U29 BA43 Q90 U90 Y90 AC90 AK43:AK44 Q124:Q139 AS43 AC43:AC44 AK90:AK139 AG90:AG139 BE90:BE139 AW90:AW139 BA90:BA139 U92:U139 Q92:Q121</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
           <xm:sqref>B3:C154</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$92</xm:f>
           </x14:formula1>
           <xm:sqref>M3:M1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$100</xm:f>
           </x14:formula1>
@@ -24334,7 +24333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00847C"/>
   </sheetPr>
@@ -24345,66 +24344,66 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.26953125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.453125" style="18" customWidth="1"/>
-    <col min="46" max="46" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.54296875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.81640625" style="18" customWidth="1"/>
-    <col min="54" max="54" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" style="18" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5703125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.85546875" style="18" customWidth="1"/>
+    <col min="54" max="54" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="13" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.1796875" style="1"/>
+    <col min="58" max="58" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="D1" s="96" t="s">
         <v>79</v>
       </c>
@@ -24481,7 +24480,7 @@
       <c r="BG1" s="268"/>
       <c r="BH1" s="271"/>
     </row>
-    <row r="2" spans="1:92" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:92" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>92</v>
       </c>
@@ -24663,7 +24662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -24767,7 +24766,7 @@
       <c r="BG3" s="5"/>
       <c r="BH3" s="84"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -24865,7 +24864,7 @@
       <c r="BG4" s="5"/>
       <c r="BH4" s="84"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -24963,7 +24962,7 @@
       <c r="BG5" s="5"/>
       <c r="BH5" s="84"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -25061,7 +25060,7 @@
       <c r="BG6" s="5"/>
       <c r="BH6" s="84"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -25165,7 +25164,7 @@
       <c r="BG7" s="5"/>
       <c r="BH7" s="84"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -25263,7 +25262,7 @@
       <c r="BG8" s="5"/>
       <c r="BH8" s="84"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -25361,7 +25360,7 @@
       <c r="BG9" s="5"/>
       <c r="BH9" s="84"/>
     </row>
-    <row r="10" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -25491,7 +25490,7 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
     </row>
-    <row r="11" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -25627,7 +25626,7 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -25725,7 +25724,7 @@
       <c r="BG12" s="5"/>
       <c r="BH12" s="84"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
@@ -25823,7 +25822,7 @@
       <c r="BG13" s="5"/>
       <c r="BH13" s="84"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -25921,7 +25920,7 @@
       <c r="BG14" s="5"/>
       <c r="BH14" s="84"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -26020,7 +26019,7 @@
       <c r="BG15" s="5"/>
       <c r="BH15" s="84"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1014</v>
       </c>
@@ -26119,7 +26118,7 @@
       <c r="BG16" s="5"/>
       <c r="BH16" s="84"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -26221,7 +26220,7 @@
       <c r="BG17" s="5"/>
       <c r="BH17" s="84"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -26333,7 +26332,7 @@
       <c r="BG18" s="5"/>
       <c r="BH18" s="84"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -26451,7 +26450,7 @@
       <c r="BG19" s="5"/>
       <c r="BH19" s="84"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
@@ -26565,7 +26564,7 @@
       <c r="BG20" s="5"/>
       <c r="BH20" s="84"/>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
@@ -26679,7 +26678,7 @@
       <c r="BG21" s="5"/>
       <c r="BH21" s="84"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
@@ -26810,7 +26809,7 @@
       <c r="BG22" s="5"/>
       <c r="BH22" s="84"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
@@ -26940,7 +26939,7 @@
       <c r="BG23" s="5"/>
       <c r="BH23" s="84"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1022</v>
       </c>
@@ -27106,7 +27105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1023</v>
       </c>
@@ -27238,7 +27237,7 @@
       <c r="BG25" s="5"/>
       <c r="BH25" s="84"/>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
@@ -27370,7 +27369,7 @@
       <c r="BG26" s="5"/>
       <c r="BH26" s="84"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1025</v>
       </c>
@@ -27489,7 +27488,7 @@
       <c r="BG27" s="5"/>
       <c r="BH27" s="84"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1026</v>
       </c>
@@ -27606,7 +27605,7 @@
       <c r="BG28" s="5"/>
       <c r="BH28" s="84"/>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1027</v>
       </c>
@@ -27719,7 +27718,7 @@
       <c r="BG29" s="5"/>
       <c r="BH29" s="84"/>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1028</v>
       </c>
@@ -27839,7 +27838,7 @@
       <c r="BG30" s="5"/>
       <c r="BH30" s="84"/>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1029</v>
       </c>
@@ -27959,7 +27958,7 @@
       <c r="BG31" s="5"/>
       <c r="BH31" s="84"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1030</v>
       </c>
@@ -28086,7 +28085,7 @@
       <c r="BG32" s="5"/>
       <c r="BH32" s="84"/>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1031</v>
       </c>
@@ -28174,7 +28173,7 @@
       <c r="BG33" s="5"/>
       <c r="BH33" s="84"/>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1032</v>
       </c>
@@ -28261,7 +28260,7 @@
       <c r="BG34" s="5"/>
       <c r="BH34" s="84"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1033</v>
       </c>
@@ -28344,7 +28343,7 @@
       <c r="BG35" s="5"/>
       <c r="BH35" s="84"/>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1034</v>
       </c>
@@ -28427,7 +28426,7 @@
       <c r="BG36" s="5"/>
       <c r="BH36" s="84"/>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1035</v>
       </c>
@@ -28510,7 +28509,7 @@
       <c r="BG37" s="5"/>
       <c r="BH37" s="84"/>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1036</v>
       </c>
@@ -28672,7 +28671,7 @@
       </c>
       <c r="BH38" s="85"/>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1037</v>
       </c>
@@ -28834,7 +28833,7 @@
       </c>
       <c r="BH39" s="85"/>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1038</v>
       </c>
@@ -28996,7 +28995,7 @@
       </c>
       <c r="BH40" s="85"/>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1039</v>
       </c>
@@ -29130,425 +29129,425 @@
       <c r="BG41" s="5"/>
       <c r="BH41" s="85"/>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L42" s="6"/>
       <c r="BH42" s="85"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L43" s="6"/>
       <c r="BH43" s="85"/>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L44" s="6"/>
       <c r="BH44" s="85"/>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L45" s="6"/>
       <c r="BH45" s="85"/>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L46" s="6"/>
       <c r="BH46" s="85"/>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L47" s="6"/>
       <c r="BH47" s="85"/>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L48" s="6"/>
       <c r="BH48" s="85"/>
     </row>
-    <row r="49" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L49" s="6"/>
       <c r="BH49" s="85"/>
     </row>
-    <row r="50" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L50" s="6"/>
       <c r="BH50" s="85"/>
     </row>
-    <row r="51" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L51" s="6"/>
       <c r="BH51" s="85"/>
     </row>
-    <row r="52" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L52" s="6"/>
       <c r="BH52" s="85"/>
     </row>
-    <row r="53" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L53" s="6"/>
       <c r="BH53" s="85"/>
     </row>
-    <row r="54" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L54" s="6"/>
       <c r="BH54" s="85"/>
     </row>
-    <row r="55" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L55" s="6"/>
       <c r="BH55" s="85"/>
     </row>
-    <row r="56" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="56" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L56" s="6"/>
       <c r="BH56" s="85"/>
     </row>
-    <row r="57" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="57" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L57" s="6"/>
       <c r="BH57" s="85"/>
     </row>
-    <row r="58" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="58" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L58" s="6"/>
       <c r="BH58" s="85"/>
     </row>
-    <row r="59" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="59" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L59" s="6"/>
       <c r="BH59" s="85"/>
     </row>
-    <row r="60" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="60" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L60" s="6"/>
       <c r="BH60" s="85"/>
     </row>
-    <row r="61" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="61" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L61" s="6"/>
       <c r="BH61" s="85"/>
     </row>
-    <row r="62" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="62" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L62" s="6"/>
       <c r="BH62" s="85"/>
     </row>
-    <row r="63" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="63" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L63" s="6"/>
       <c r="BH63" s="85"/>
     </row>
-    <row r="64" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="64" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L64" s="6"/>
       <c r="BH64" s="85"/>
     </row>
-    <row r="65" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L65" s="6"/>
       <c r="BH65" s="85"/>
     </row>
-    <row r="66" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="66" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L66" s="6"/>
       <c r="BH66" s="85"/>
     </row>
-    <row r="67" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L67" s="6"/>
       <c r="BH67" s="85"/>
     </row>
-    <row r="68" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:60" x14ac:dyDescent="0.25">
       <c r="L68" s="6"/>
       <c r="BH68" s="85"/>
     </row>
-    <row r="69" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="69" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH69" s="85"/>
     </row>
-    <row r="70" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="70" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH70" s="85"/>
     </row>
-    <row r="71" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="71" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH71" s="85"/>
     </row>
-    <row r="72" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH72" s="85"/>
     </row>
-    <row r="73" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="73" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH73" s="85"/>
     </row>
-    <row r="74" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="74" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH74" s="85"/>
     </row>
-    <row r="75" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="75" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH75" s="85"/>
     </row>
-    <row r="76" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="76" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH76" s="85"/>
     </row>
-    <row r="77" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="77" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH77" s="85"/>
     </row>
-    <row r="78" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="78" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH78" s="85"/>
     </row>
-    <row r="79" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="79" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH79" s="85"/>
     </row>
-    <row r="80" spans="12:60" x14ac:dyDescent="0.35">
+    <row r="80" spans="12:60" x14ac:dyDescent="0.25">
       <c r="BH80" s="85"/>
     </row>
-    <row r="81" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="81" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH81" s="85"/>
     </row>
-    <row r="82" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="82" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH82" s="85"/>
     </row>
-    <row r="83" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="83" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH83" s="85"/>
     </row>
-    <row r="84" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="84" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH84" s="85"/>
     </row>
-    <row r="85" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="85" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH85" s="85"/>
     </row>
-    <row r="86" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="86" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH86" s="85"/>
     </row>
-    <row r="87" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="87" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH87" s="85"/>
     </row>
-    <row r="88" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="88" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH88" s="85"/>
     </row>
-    <row r="89" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="89" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH89" s="85"/>
     </row>
-    <row r="90" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="90" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH90" s="85"/>
     </row>
-    <row r="91" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="91" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH91" s="85"/>
     </row>
-    <row r="92" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="92" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH92" s="85"/>
     </row>
-    <row r="93" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="93" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH93" s="85"/>
     </row>
-    <row r="94" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="94" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH94" s="85"/>
     </row>
-    <row r="95" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="95" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH95" s="85"/>
     </row>
-    <row r="96" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="96" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH96" s="85"/>
     </row>
-    <row r="97" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="97" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH97" s="85"/>
     </row>
-    <row r="98" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="98" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH98" s="85"/>
     </row>
-    <row r="99" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="99" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH99" s="85"/>
     </row>
-    <row r="100" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="100" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH100" s="85"/>
     </row>
-    <row r="101" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="101" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH101" s="85"/>
     </row>
-    <row r="102" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="102" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH102" s="85"/>
     </row>
-    <row r="103" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="103" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH103" s="85"/>
     </row>
-    <row r="104" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="104" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH104" s="85"/>
     </row>
-    <row r="105" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="105" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH105" s="85"/>
     </row>
-    <row r="106" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="106" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH106" s="85"/>
     </row>
-    <row r="107" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="107" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH107" s="85"/>
     </row>
-    <row r="108" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="108" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH108" s="85"/>
     </row>
-    <row r="109" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="109" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH109" s="85"/>
     </row>
-    <row r="110" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="110" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH110" s="85"/>
     </row>
-    <row r="111" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="111" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH111" s="85"/>
     </row>
-    <row r="112" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="112" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH112" s="85"/>
     </row>
-    <row r="113" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="113" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH113" s="85"/>
     </row>
-    <row r="114" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="114" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH114" s="85"/>
     </row>
-    <row r="115" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="115" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH115" s="85"/>
     </row>
-    <row r="116" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="116" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH116" s="85"/>
     </row>
-    <row r="117" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="117" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH117" s="85"/>
     </row>
-    <row r="118" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="118" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH118" s="85"/>
     </row>
-    <row r="119" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="119" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH119" s="85"/>
     </row>
-    <row r="120" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="120" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH120" s="85"/>
     </row>
-    <row r="121" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="121" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH121" s="85"/>
     </row>
-    <row r="122" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="122" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH122" s="85"/>
     </row>
-    <row r="123" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="123" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH123" s="85"/>
     </row>
-    <row r="124" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="124" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH124" s="85"/>
     </row>
-    <row r="125" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="125" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH125" s="85"/>
     </row>
-    <row r="126" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="126" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH126" s="85"/>
     </row>
-    <row r="127" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="127" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH127" s="85"/>
     </row>
-    <row r="128" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="128" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH128" s="85"/>
     </row>
-    <row r="129" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="129" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH129" s="85"/>
     </row>
-    <row r="130" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="130" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH130" s="85"/>
     </row>
-    <row r="131" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="131" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH131" s="85"/>
     </row>
-    <row r="132" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="132" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH132" s="85"/>
     </row>
-    <row r="133" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="133" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH133" s="85"/>
     </row>
-    <row r="134" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="134" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH134" s="85"/>
     </row>
-    <row r="135" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="135" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH135" s="85"/>
     </row>
-    <row r="136" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="136" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH136" s="85"/>
     </row>
-    <row r="137" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="137" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH137" s="85"/>
     </row>
-    <row r="138" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="138" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH138" s="85"/>
     </row>
-    <row r="139" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="139" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH139" s="85"/>
     </row>
-    <row r="140" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="140" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH140" s="85"/>
     </row>
-    <row r="141" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="141" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH141" s="85"/>
     </row>
-    <row r="142" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="142" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH142" s="85"/>
     </row>
-    <row r="143" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="143" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH143" s="85"/>
     </row>
-    <row r="144" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="144" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH144" s="85"/>
     </row>
-    <row r="145" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="145" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH145" s="85"/>
     </row>
-    <row r="146" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="146" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH146" s="85"/>
     </row>
-    <row r="147" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="147" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH147" s="85"/>
     </row>
-    <row r="148" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="148" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH148" s="85"/>
     </row>
-    <row r="149" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="149" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH149" s="85"/>
     </row>
-    <row r="150" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="150" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH150" s="85"/>
     </row>
-    <row r="151" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="151" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH151" s="85"/>
     </row>
-    <row r="152" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="152" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH152" s="85"/>
     </row>
-    <row r="153" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="153" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH153" s="85"/>
     </row>
-    <row r="154" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="154" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH154" s="85"/>
     </row>
-    <row r="155" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="155" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH155" s="85"/>
     </row>
-    <row r="156" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="156" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH156" s="85"/>
     </row>
-    <row r="157" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="157" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH157" s="85"/>
     </row>
-    <row r="158" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="158" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH158" s="85"/>
     </row>
-    <row r="159" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="159" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH159" s="85"/>
     </row>
-    <row r="160" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="160" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH160" s="85"/>
     </row>
-    <row r="161" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="161" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH161" s="85"/>
     </row>
-    <row r="162" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="162" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH162" s="85"/>
     </row>
-    <row r="163" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="163" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH163" s="85"/>
     </row>
-    <row r="164" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="164" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH164" s="85"/>
     </row>
-    <row r="165" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="165" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH165" s="85"/>
     </row>
-    <row r="166" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="166" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH166" s="85"/>
     </row>
-    <row r="167" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="167" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH167" s="85"/>
     </row>
-    <row r="168" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="168" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH168" s="85"/>
     </row>
-    <row r="169" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="169" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH169" s="85"/>
     </row>
-    <row r="170" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="170" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH170" s="85"/>
     </row>
-    <row r="171" spans="60:60" x14ac:dyDescent="0.35">
+    <row r="171" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH171" s="85"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BH2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A2:BH2"/>
   <mergeCells count="12">
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="M1:P1"/>
@@ -29571,31 +29570,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
           <xm:sqref>M42:M1048576 AG22 AC22 Y22 U22 M22 Q22 Q42:Q66</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$272</xm:f>
           </x14:formula1>
           <xm:sqref>AG23:AG37 AC23:AC37 Y23:Y37 U23:U37 Q23:Q37 M23:M37 BE3:BE37 AG3:AG21 AC3:AC21 Y3:Y21 U3:U21 AK3:AK37 AO3:AO37 AS3:AS37 AW3:AW37 BA3:BA37 M3:M21 Q3:Q21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G42:G1048576 G3:G37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>H42:H1048576 H3:H37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
@@ -29608,7 +29607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00847C"/>
   </sheetPr>
@@ -29619,66 +29618,66 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.26953125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.453125" style="18" customWidth="1"/>
-    <col min="46" max="46" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.54296875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.81640625" style="18" customWidth="1"/>
-    <col min="54" max="54" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" style="18" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5703125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.85546875" style="18" customWidth="1"/>
+    <col min="54" max="54" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="13" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.1796875" style="1"/>
+    <col min="58" max="58" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D1" s="96"/>
       <c r="M1" s="275" t="s">
         <v>80</v>
@@ -29753,7 +29752,7 @@
       <c r="BG1" s="268"/>
       <c r="BH1" s="268"/>
     </row>
-    <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>92</v>
       </c>
@@ -29935,7 +29934,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -30015,7 +30014,7 @@
       <c r="BG3" s="5"/>
       <c r="BH3" s="5"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -30095,7 +30094,7 @@
       <c r="BG4" s="5"/>
       <c r="BH4" s="5"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -30175,7 +30174,7 @@
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -30255,7 +30254,7 @@
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -30335,7 +30334,7 @@
       <c r="BG7" s="5"/>
       <c r="BH7" s="5"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -30415,7 +30414,7 @@
       <c r="BG8" s="5"/>
       <c r="BH8" s="5"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -30508,7 +30507,7 @@
       <c r="BG9" s="5"/>
       <c r="BH9" s="5"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -30613,7 +30612,7 @@
       <c r="BG10" s="5"/>
       <c r="BH10" s="5"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -30720,7 +30719,7 @@
       <c r="BG11" s="5"/>
       <c r="BH11" s="5"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -30832,7 +30831,7 @@
       <c r="BG12" s="5"/>
       <c r="BH12" s="5"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -30970,7 +30969,7 @@
       <c r="BG13" s="5"/>
       <c r="BH13" s="5"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -31080,7 +31079,7 @@
       <c r="BG14" s="5"/>
       <c r="BH14" s="5"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -31183,7 +31182,7 @@
       <c r="BG15" s="5"/>
       <c r="BH15" s="5"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -31280,7 +31279,7 @@
       <c r="BG16" s="5"/>
       <c r="BH16" s="5"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -31377,7 +31376,7 @@
       <c r="BG17" s="5"/>
       <c r="BH17" s="5"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -31474,7 +31473,7 @@
       <c r="BG18" s="5"/>
       <c r="BH18" s="5"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -31577,7 +31576,7 @@
       <c r="BG19" s="5"/>
       <c r="BH19" s="5"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -31674,7 +31673,7 @@
       <c r="BG20" s="5"/>
       <c r="BH20" s="5"/>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
@@ -31771,7 +31770,7 @@
       <c r="BG21" s="5"/>
       <c r="BH21" s="5"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -31868,7 +31867,7 @@
       <c r="BG22" s="5"/>
       <c r="BH22" s="5"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
@@ -31971,7 +31970,7 @@
       <c r="BG23" s="5"/>
       <c r="BH23" s="5"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2022</v>
       </c>
@@ -32068,7 +32067,7 @@
       <c r="BG24" s="5"/>
       <c r="BH24" s="5"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2023</v>
       </c>
@@ -32165,7 +32164,7 @@
       <c r="BG25" s="5"/>
       <c r="BH25" s="5"/>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2024</v>
       </c>
@@ -32262,7 +32261,7 @@
       <c r="BG26" s="5"/>
       <c r="BH26" s="5"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2025</v>
       </c>
@@ -32373,7 +32372,7 @@
       <c r="BG27" s="5"/>
       <c r="BH27" s="5"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2026</v>
       </c>
@@ -32496,7 +32495,7 @@
       <c r="BG28" s="5"/>
       <c r="BH28" s="5"/>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2027</v>
       </c>
@@ -32602,7 +32601,7 @@
       <c r="BG29" s="5"/>
       <c r="BH29" s="5"/>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2028</v>
       </c>
@@ -32708,7 +32707,7 @@
       <c r="BG30" s="5"/>
       <c r="BH30" s="5"/>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2029</v>
       </c>
@@ -32816,7 +32815,7 @@
       <c r="BG31" s="5"/>
       <c r="BH31" s="5"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2030</v>
       </c>
@@ -32913,7 +32912,7 @@
       <c r="BG32" s="5"/>
       <c r="BH32" s="5"/>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2031</v>
       </c>
@@ -33008,7 +33007,7 @@
       <c r="BG33" s="5"/>
       <c r="BH33" s="5"/>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2032</v>
       </c>
@@ -33103,7 +33102,7 @@
       <c r="BG34" s="5"/>
       <c r="BH34" s="5"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2033</v>
       </c>
@@ -33211,7 +33210,7 @@
       <c r="BG35" s="5"/>
       <c r="BH35" s="5"/>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2034</v>
       </c>
@@ -33319,7 +33318,7 @@
       <c r="BG36" s="5"/>
       <c r="BH36" s="5"/>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2035</v>
       </c>
@@ -33440,7 +33439,7 @@
       <c r="BG37" s="5"/>
       <c r="BH37" s="5"/>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2036</v>
       </c>
@@ -33548,7 +33547,7 @@
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2037</v>
       </c>
@@ -33661,7 +33660,7 @@
       <c r="BG39" s="5"/>
       <c r="BH39" s="5"/>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2038</v>
       </c>
@@ -33791,7 +33790,7 @@
       <c r="BG40" s="5"/>
       <c r="BH40" s="5"/>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2039</v>
       </c>
@@ -33922,7 +33921,7 @@
       <c r="BG41" s="5"/>
       <c r="BH41" s="5"/>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2040</v>
       </c>
@@ -34053,7 +34052,7 @@
       <c r="BG42" s="5"/>
       <c r="BH42" s="5"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2041</v>
       </c>
@@ -34200,7 +34199,7 @@
       <c r="BG43" s="5"/>
       <c r="BH43" s="5"/>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2042</v>
       </c>
@@ -34347,7 +34346,7 @@
       <c r="BG44" s="5"/>
       <c r="BH44" s="5"/>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2043</v>
       </c>
@@ -34432,7 +34431,7 @@
       <c r="BG45" s="5"/>
       <c r="BH45" s="5"/>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2044</v>
       </c>
@@ -34523,7 +34522,7 @@
       <c r="BG46" s="5"/>
       <c r="BH46" s="5"/>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2045</v>
       </c>
@@ -34608,7 +34607,7 @@
       <c r="BG47" s="5"/>
       <c r="BH47" s="5"/>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2046</v>
       </c>
@@ -34693,7 +34692,7 @@
       <c r="BG48" s="5"/>
       <c r="BH48" s="5"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2047</v>
       </c>
@@ -34855,7 +34854,7 @@
       </c>
       <c r="BH49" s="5"/>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2048</v>
       </c>
@@ -35017,7 +35016,7 @@
       </c>
       <c r="BH50" s="5"/>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2049</v>
       </c>
@@ -35179,7 +35178,7 @@
       </c>
       <c r="BH51" s="85"/>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2050</v>
       </c>
@@ -35313,7 +35312,7 @@
       <c r="BG52" s="5"/>
       <c r="BH52" s="85"/>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2051</v>
       </c>
@@ -35398,7 +35397,7 @@
       <c r="BG53" s="5"/>
       <c r="BH53" s="5"/>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2052</v>
       </c>
@@ -35483,7 +35482,7 @@
       <c r="BG54" s="5"/>
       <c r="BH54" s="5"/>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2053</v>
       </c>
@@ -35568,7 +35567,7 @@
       <c r="BG55" s="5"/>
       <c r="BH55" s="5"/>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2054</v>
       </c>
@@ -35653,7 +35652,7 @@
       <c r="BG56" s="5"/>
       <c r="BH56" s="5"/>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2055</v>
       </c>
@@ -35738,7 +35737,7 @@
       <c r="BG57" s="5"/>
       <c r="BH57" s="5"/>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2056</v>
       </c>
@@ -35822,7 +35821,7 @@
       <c r="BG58" s="5"/>
       <c r="BH58" s="5"/>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2057</v>
       </c>
@@ -35905,7 +35904,7 @@
       <c r="BG59" s="5"/>
       <c r="BH59" s="5"/>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2058</v>
       </c>
@@ -36023,7 +36022,7 @@
       <c r="BG60" s="5"/>
       <c r="BH60" s="5"/>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2059</v>
       </c>
@@ -36141,7 +36140,7 @@
       <c r="BG61" s="5"/>
       <c r="BH61" s="5"/>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2060</v>
       </c>
@@ -36214,7 +36213,7 @@
       <c r="X62" s="143"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BH2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A2:BH2"/>
   <mergeCells count="12">
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="M1:P1"/>
@@ -36237,31 +36236,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$272</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG39 AC53:AC61 Y53:Y61 U53:U62 Q53:Q62 BE53:BE61 AK53:AK61 AO53:AO61 AS53:AS61 AW53:AW61 BA53:BA61 M53:M62 AG53:AG61 U3:U39 Y3:Y39 AC3:AC39 M41:M50 BA3:BA50 AW3:AW50 AS3:AS50 AO3:AO50 AK3:AK50 BE3:BE50 Q41:Q50 U41:U50 Y41:Y50 AC41:AC50 AG41:AG50 Q3:Q39 M3:M39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
           <xm:sqref>AG40 AC40 Y40 U40 M40 Q40 M63:M1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
           <xm:sqref>B53:C62 B3:C50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G53:G1048576 G3:G50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
@@ -36274,7 +36273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00847C"/>
   </sheetPr>
@@ -36285,67 +36284,67 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="40.7265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.26953125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.453125" style="18" customWidth="1"/>
-    <col min="46" max="46" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.54296875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.81640625" style="18" customWidth="1"/>
-    <col min="54" max="54" width="9.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" style="18" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5703125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.85546875" style="18" customWidth="1"/>
+    <col min="54" max="54" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="13" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.1796875" style="1"/>
+    <col min="58" max="58" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="96"/>
@@ -36422,7 +36421,7 @@
       <c r="BG1" s="268"/>
       <c r="BH1" s="268"/>
     </row>
-    <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:60" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>92</v>
       </c>
@@ -36604,7 +36603,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3001</v>
       </c>
@@ -36668,7 +36667,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3002</v>
       </c>
@@ -36836,7 +36835,7 @@
       </c>
       <c r="BH4" s="5"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3003</v>
       </c>
@@ -36890,7 +36889,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3004</v>
       </c>
@@ -36945,7 +36944,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3005</v>
       </c>
@@ -36999,7 +36998,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3006</v>
       </c>
@@ -37054,7 +37053,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3007</v>
       </c>
@@ -37108,7 +37107,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3008</v>
       </c>
@@ -37163,7 +37162,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3009</v>
       </c>
@@ -37217,7 +37216,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3010</v>
       </c>
@@ -37273,7 +37272,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BH2" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A2:BH2"/>
   <mergeCells count="12">
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="M1:P1"/>
@@ -37293,37 +37292,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$939</xm:f>
           </x14:formula1>
           <xm:sqref>M3 BE4 AW4 AS4 AC4 U4 Q4 AG4 Y4 AO4 M13:M1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$46</xm:f>
           </x14:formula1>
           <xm:sqref>Q3 Q5:Q1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Event types'!$A$2:$A$92</xm:f>
           </x14:formula1>
           <xm:sqref>M4:M12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>datavalidation!$E$1:$E$2</xm:f>
           </x14:formula1>
@@ -37336,7 +37335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -37344,16 +37343,16 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="132" t="s">
         <v>95</v>
       </c>
@@ -37373,7 +37372,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>109</v>
       </c>
@@ -37393,7 +37392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="125" t="s">
         <v>114</v>
       </c>
@@ -37413,7 +37412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="125" t="s">
         <v>111</v>
       </c>
@@ -37433,7 +37432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>112</v>
       </c>
@@ -37453,7 +37452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="125" t="s">
         <v>117</v>
       </c>
@@ -37473,7 +37472,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
         <v>110</v>
       </c>
@@ -37493,7 +37492,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>122</v>
       </c>
@@ -37513,7 +37512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="125" t="s">
         <v>118</v>
       </c>
@@ -37533,7 +37532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="125" t="s">
         <v>119</v>
       </c>
@@ -37553,7 +37552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
         <v>121</v>
       </c>
@@ -37573,7 +37572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
         <v>120</v>
       </c>
@@ -37593,7 +37592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="125" t="s">
         <v>163</v>
       </c>
@@ -37613,7 +37612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="125" t="s">
         <v>166</v>
       </c>
@@ -37633,7 +37632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="125" t="s">
         <v>167</v>
       </c>
@@ -37653,7 +37652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="125" t="s">
         <v>133</v>
       </c>
@@ -37673,7 +37672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="125" t="s">
         <v>134</v>
       </c>
@@ -37693,7 +37692,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="127" t="s">
         <v>170</v>
       </c>
@@ -37713,7 +37712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="127" t="s">
         <v>131</v>
       </c>
@@ -37733,7 +37732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="127" t="s">
         <v>127</v>
       </c>
@@ -37753,7 +37752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="127" t="s">
         <v>130</v>
       </c>
@@ -37773,7 +37772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
         <v>177</v>
       </c>
@@ -37793,7 +37792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="127" t="s">
         <v>124</v>
       </c>
@@ -37813,7 +37812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="127" t="s">
         <v>116</v>
       </c>
@@ -37833,7 +37832,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
         <v>126</v>
       </c>
@@ -37853,7 +37852,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="127" t="s">
         <v>183</v>
       </c>
@@ -37873,7 +37872,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="127" t="s">
         <v>184</v>
       </c>
@@ -37893,7 +37892,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="127" t="s">
         <v>132</v>
       </c>
@@ -37913,7 +37912,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="127" t="s">
         <v>185</v>
       </c>
@@ -37933,7 +37932,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="127" t="s">
         <v>186</v>
       </c>
@@ -37953,7 +37952,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="127" t="s">
         <v>187</v>
       </c>
@@ -37973,7 +37972,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="127" t="s">
         <v>188</v>
       </c>
@@ -37993,7 +37992,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="127" t="s">
         <v>189</v>
       </c>
@@ -38013,7 +38012,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="127" t="s">
         <v>190</v>
       </c>
@@ -38033,7 +38032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="127" t="s">
         <v>192</v>
       </c>
@@ -38053,7 +38052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="127" t="s">
         <v>194</v>
       </c>
@@ -38073,7 +38072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="127" t="s">
         <v>196</v>
       </c>
@@ -38093,7 +38092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="127" t="s">
         <v>198</v>
       </c>
@@ -38113,7 +38112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="127" t="s">
         <v>200</v>
       </c>
@@ -38133,7 +38132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="127" t="s">
         <v>202</v>
       </c>
@@ -38153,7 +38152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="127" t="s">
         <v>204</v>
       </c>
@@ -38173,7 +38172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="127" t="s">
         <v>206</v>
       </c>
@@ -38193,7 +38192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="127" t="s">
         <v>208</v>
       </c>
@@ -38213,7 +38212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="130" t="s">
         <v>123</v>
       </c>
@@ -38233,7 +38232,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="130" t="s">
         <v>211</v>
       </c>
@@ -38261,7 +38260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF02525E"/>
   </sheetPr>
@@ -38272,13 +38271,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="39.7265625" customWidth="1"/>
-    <col min="4" max="4" width="127.7265625" customWidth="1"/>
+    <col min="2" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="127.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -38292,7 +38291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="164">
         <v>1</v>
       </c>
@@ -38306,7 +38305,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="167">
         <v>2</v>
       </c>
@@ -38318,7 +38317,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="167">
         <v>3</v>
       </c>
@@ -38330,7 +38329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="167">
         <v>4</v>
       </c>
@@ -38342,7 +38341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="167">
         <v>5</v>
       </c>
@@ -38354,7 +38353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="167">
         <v>6</v>
       </c>
@@ -38366,7 +38365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="167">
         <v>7</v>
       </c>
@@ -38378,7 +38377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="167">
         <v>8</v>
       </c>
@@ -38390,7 +38389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="167">
         <v>9</v>
       </c>
@@ -38402,7 +38401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="170">
         <v>10</v>
       </c>
@@ -38414,7 +38413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="173">
         <v>11</v>
       </c>
@@ -38428,7 +38427,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="174">
         <v>12</v>
       </c>
@@ -38440,7 +38439,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="174">
         <v>13</v>
       </c>
@@ -38452,7 +38451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="174">
         <v>14</v>
       </c>
@@ -38464,7 +38463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="174">
         <v>15</v>
       </c>
@@ -38476,7 +38475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="175">
         <v>16</v>
       </c>
@@ -38488,7 +38487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="176">
         <v>17</v>
       </c>
@@ -38502,7 +38501,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="177">
         <v>18</v>
       </c>
@@ -38514,7 +38513,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="177">
         <v>19</v>
       </c>
@@ -38526,7 +38525,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="177">
         <v>20</v>
       </c>
@@ -38538,7 +38537,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="177">
         <v>21</v>
       </c>
@@ -38550,7 +38549,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="177">
         <v>22</v>
       </c>
@@ -38562,7 +38561,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="177">
         <v>23</v>
       </c>
@@ -38574,7 +38573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="177">
         <v>24</v>
       </c>
@@ -38586,7 +38585,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="177">
         <v>25</v>
       </c>
@@ -38598,7 +38597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="177">
         <v>26</v>
       </c>
@@ -38610,7 +38609,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="177">
         <v>27</v>
       </c>
@@ -38622,7 +38621,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="179">
         <v>28</v>
       </c>
@@ -38636,7 +38635,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="181">
         <v>29</v>
       </c>
@@ -38648,7 +38647,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="181">
         <v>30</v>
       </c>
@@ -38660,7 +38659,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="181">
         <v>31</v>
       </c>
@@ -38672,7 +38671,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="181">
         <v>32</v>
       </c>
@@ -38684,7 +38683,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="181">
         <v>33</v>
       </c>
@@ -38696,7 +38695,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="181">
         <v>34</v>
       </c>
@@ -38708,7 +38707,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="181">
         <v>35</v>
       </c>
@@ -38720,7 +38719,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="181">
         <v>36</v>
       </c>
@@ -38732,7 +38731,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="181">
         <v>37</v>
       </c>
@@ -38744,7 +38743,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="181">
         <v>38</v>
       </c>
@@ -38756,7 +38755,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="181">
         <v>39</v>
       </c>
@@ -38768,7 +38767,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="181">
         <v>40</v>
       </c>
@@ -38780,7 +38779,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="181">
         <v>41</v>
       </c>
@@ -38792,7 +38791,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="186">
         <v>42</v>
       </c>
@@ -38805,7 +38804,7 @@
       </c>
       <c r="H43" s="190"/>
     </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="191">
         <v>43</v>
       </c>
@@ -38819,7 +38818,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="194">
         <v>44</v>
       </c>
@@ -38831,7 +38830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="194">
         <v>45</v>
       </c>
@@ -38843,7 +38842,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="194">
         <v>46</v>
       </c>
@@ -38855,7 +38854,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="194">
         <v>47</v>
       </c>
@@ -38867,7 +38866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="194">
         <v>48</v>
       </c>
@@ -38879,7 +38878,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="194">
         <v>49</v>
       </c>
@@ -38891,7 +38890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="194">
         <v>50</v>
       </c>
@@ -38903,7 +38902,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="194">
         <v>51</v>
       </c>
@@ -38915,7 +38914,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="196">
         <v>52</v>
       </c>
@@ -38927,7 +38926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="198">
         <v>53</v>
       </c>
@@ -38941,7 +38940,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="198">
         <v>54</v>
       </c>
@@ -38953,7 +38952,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="198">
         <v>55</v>
       </c>
@@ -38965,7 +38964,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="198">
         <v>56</v>
       </c>
@@ -38977,7 +38976,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="260">
         <v>57</v>
       </c>
@@ -38991,7 +38990,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="262">
         <v>58</v>
       </c>
@@ -39003,7 +39002,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="200">
         <v>59</v>
       </c>
@@ -39017,7 +39016,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="200">
         <v>60</v>
       </c>
@@ -39029,7 +39028,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="200">
         <v>61</v>
       </c>
@@ -39041,7 +39040,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="200">
         <v>62</v>
       </c>
@@ -39053,7 +39052,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="200">
         <v>63</v>
       </c>
@@ -39065,7 +39064,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="200">
         <v>64</v>
       </c>
@@ -39077,7 +39076,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="200">
         <v>65</v>
       </c>
@@ -39089,7 +39088,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="201">
         <v>66</v>
       </c>
@@ -39101,7 +39100,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="203">
         <v>67</v>
       </c>
@@ -39115,7 +39114,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="205">
         <v>68</v>
       </c>
@@ -39127,7 +39126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="205">
         <v>69</v>
       </c>
@@ -39139,7 +39138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="205">
         <v>70</v>
       </c>
@@ -39151,7 +39150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="205">
         <v>71</v>
       </c>
@@ -39163,7 +39162,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="205">
         <v>72</v>
       </c>
@@ -39175,7 +39174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="205">
         <v>73</v>
       </c>
@@ -39187,7 +39186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="205">
         <v>74</v>
       </c>
@@ -39199,7 +39198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="205">
         <v>75</v>
       </c>
@@ -39211,7 +39210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="205">
         <v>76</v>
       </c>
@@ -39223,7 +39222,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="205">
         <v>77</v>
       </c>
@@ -39235,7 +39234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="205">
         <v>78</v>
       </c>
@@ -39247,7 +39246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="205">
         <v>79</v>
       </c>
@@ -39259,7 +39258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="205">
         <v>80</v>
       </c>
@@ -39271,7 +39270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="205">
         <v>81</v>
       </c>
@@ -39283,7 +39282,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="205">
         <v>82</v>
       </c>
@@ -39295,7 +39294,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="205">
         <v>83</v>
       </c>
@@ -39307,7 +39306,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="205">
         <v>84</v>
       </c>
@@ -39319,7 +39318,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="205">
         <v>85</v>
       </c>
@@ -39331,7 +39330,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="205">
         <v>86</v>
       </c>
@@ -39343,7 +39342,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="209">
         <v>87</v>
       </c>
@@ -39355,7 +39354,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="211">
         <v>88</v>
       </c>
@@ -39369,7 +39368,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="211">
         <v>89</v>
       </c>
@@ -39381,7 +39380,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="211">
         <v>90</v>
       </c>
@@ -39393,7 +39392,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="215">
         <v>91</v>
       </c>
@@ -39405,7 +39404,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="191">
         <v>92</v>
       </c>
@@ -39419,7 +39418,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="194">
         <v>93</v>
       </c>
@@ -39431,7 +39430,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="194">
         <v>94</v>
       </c>
@@ -39443,7 +39442,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="194">
         <v>95</v>
       </c>
@@ -39455,7 +39454,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="194">
         <v>96</v>
       </c>
@@ -39467,7 +39466,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="196">
         <v>97</v>
       </c>
@@ -39479,7 +39478,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="219">
         <v>98</v>
       </c>
@@ -39493,7 +39492,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="235">
         <v>99</v>
       </c>
@@ -39505,7 +39504,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="235">
         <v>100</v>
       </c>
@@ -39517,7 +39516,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="235">
         <v>101</v>
       </c>
@@ -39529,7 +39528,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="235">
         <v>102</v>
       </c>
@@ -39541,7 +39540,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="221">
         <v>103</v>
       </c>
@@ -39553,7 +39552,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="256">
         <v>104</v>
       </c>
@@ -39567,7 +39566,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="259">
         <v>105</v>
       </c>
@@ -39579,7 +39578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="259">
         <v>106</v>
       </c>
@@ -39591,7 +39590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="259">
         <v>107</v>
       </c>
@@ -39603,7 +39602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="259">
         <v>108</v>
       </c>
@@ -39615,7 +39614,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="259">
         <v>109</v>
       </c>
@@ -39627,7 +39626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="259">
         <v>110</v>
       </c>
@@ -39639,7 +39638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="259">
         <v>111</v>
       </c>
@@ -39651,7 +39650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="259">
         <v>112</v>
       </c>
@@ -39663,7 +39662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="259">
         <v>113</v>
       </c>
@@ -39675,7 +39674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="259">
         <v>114</v>
       </c>
@@ -39687,7 +39686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="259">
         <v>115</v>
       </c>
@@ -39699,7 +39698,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="259">
         <v>116</v>
       </c>
@@ -39711,7 +39710,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="259">
         <v>117</v>
       </c>
@@ -39723,7 +39722,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="259">
         <v>118</v>
       </c>
@@ -39735,7 +39734,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="259">
         <v>119</v>
       </c>
@@ -39747,7 +39746,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="259">
         <v>120</v>
       </c>
@@ -39759,7 +39758,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="259">
         <v>121</v>
       </c>
@@ -39771,7 +39770,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="259">
         <v>122</v>
       </c>
@@ -39783,7 +39782,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="259">
         <v>123</v>
       </c>
@@ -39795,7 +39794,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="259">
         <v>124</v>
       </c>
@@ -39807,7 +39806,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="259">
         <v>125</v>
       </c>
@@ -39819,7 +39818,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="259">
         <v>126</v>
       </c>
@@ -39831,7 +39830,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="259">
         <v>127</v>
       </c>
@@ -39843,7 +39842,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="259">
         <v>128</v>
       </c>
@@ -39855,7 +39854,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="259">
         <v>129</v>
       </c>
@@ -39867,7 +39866,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="259">
         <v>130</v>
       </c>
@@ -39879,7 +39878,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="259">
         <v>131</v>
       </c>
@@ -39891,7 +39890,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="259">
         <v>132</v>
       </c>
@@ -39903,7 +39902,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="259">
         <v>133</v>
       </c>
@@ -39915,7 +39914,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="259">
         <v>134</v>
       </c>
@@ -39927,7 +39926,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="259">
         <v>135</v>
       </c>
@@ -39939,7 +39938,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="259">
         <v>136</v>
       </c>
@@ -39951,7 +39950,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="257">
         <v>137</v>
       </c>
@@ -39963,7 +39962,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="240">
         <v>138</v>
       </c>
@@ -39977,7 +39976,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="227">
         <v>139</v>
       </c>
@@ -39989,7 +39988,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="227">
         <v>140</v>
       </c>
@@ -40001,7 +40000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="227">
         <v>141</v>
       </c>
@@ -40013,7 +40012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="227">
         <v>142</v>
       </c>
@@ -40025,7 +40024,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="227">
         <v>143</v>
       </c>
@@ -40037,7 +40036,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="227">
         <v>144</v>
       </c>
@@ -40049,7 +40048,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="227">
         <v>145</v>
       </c>
@@ -40061,7 +40060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="227">
         <v>146</v>
       </c>
@@ -40073,7 +40072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="227">
         <v>147</v>
       </c>
@@ -40085,7 +40084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="227">
         <v>148</v>
       </c>
@@ -40097,7 +40096,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="227">
         <v>149</v>
       </c>
@@ -40109,7 +40108,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="227">
         <v>150</v>
       </c>
@@ -40121,7 +40120,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="241">
         <v>151</v>
       </c>
@@ -40133,7 +40132,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="258">
         <v>152</v>
       </c>
@@ -40171,7 +40170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF02525E"/>
   </sheetPr>
@@ -40182,13 +40181,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="39.7265625" customWidth="1"/>
-    <col min="4" max="4" width="127.7265625" customWidth="1"/>
+    <col min="2" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="127.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -40202,7 +40201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="203">
         <v>1001</v>
       </c>
@@ -40216,7 +40215,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="205">
         <v>1002</v>
       </c>
@@ -40228,7 +40227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="205">
         <v>1003</v>
       </c>
@@ -40240,7 +40239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="205">
         <v>1004</v>
       </c>
@@ -40252,7 +40251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="205">
         <v>1005</v>
       </c>
@@ -40264,7 +40263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="205">
         <v>1006</v>
       </c>
@@ -40276,7 +40275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="205">
         <v>1007</v>
       </c>
@@ -40288,7 +40287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="205">
         <v>1008</v>
       </c>
@@ -40300,7 +40299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="205">
         <v>1009</v>
       </c>
@@ -40312,7 +40311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="205">
         <v>1010</v>
       </c>
@@ -40324,7 +40323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="205">
         <v>1011</v>
       </c>
@@ -40336,7 +40335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="205">
         <v>1012</v>
       </c>
@@ -40348,7 +40347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="205">
         <v>1013</v>
       </c>
@@ -40360,7 +40359,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="205">
         <v>1014</v>
       </c>
@@ -40372,7 +40371,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="209">
         <v>1015</v>
       </c>
@@ -40384,7 +40383,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="217">
         <v>1016</v>
       </c>
@@ -40398,7 +40397,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="219">
         <v>1017</v>
       </c>
@@ -40410,7 +40409,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="219">
         <v>1018</v>
       </c>
@@ -40422,7 +40421,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="219">
         <v>1019</v>
       </c>
@@ -40434,7 +40433,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="219">
         <v>1020</v>
       </c>
@@ -40446,7 +40445,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="219">
         <v>1021</v>
       </c>
@@ -40458,7 +40457,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="219">
         <v>1022</v>
       </c>
@@ -40470,7 +40469,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="219">
         <v>1023</v>
       </c>
@@ -40482,7 +40481,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="221">
         <v>1024</v>
       </c>
@@ -40494,7 +40493,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="179">
         <v>1025</v>
       </c>
@@ -40508,7 +40507,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="181">
         <v>1026</v>
       </c>
@@ -40520,7 +40519,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="181">
         <v>1027</v>
       </c>
@@ -40532,7 +40531,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="181">
         <v>1028</v>
       </c>
@@ -40544,7 +40543,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="181">
         <v>1029</v>
       </c>
@@ -40556,7 +40555,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="181">
         <v>1030</v>
       </c>
@@ -40568,7 +40567,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="181">
         <v>1031</v>
       </c>
@@ -40580,7 +40579,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="181">
         <v>1032</v>
       </c>
@@ -40592,7 +40591,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="181">
         <v>1033</v>
       </c>
@@ -40604,7 +40603,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="181">
         <v>1034</v>
       </c>
@@ -40616,7 +40615,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="186">
         <v>1035</v>
       </c>
@@ -40628,7 +40627,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="238">
         <v>1036</v>
       </c>
@@ -40642,7 +40641,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="240">
         <v>1037</v>
       </c>
@@ -40654,7 +40653,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="240">
         <v>1038</v>
       </c>
@@ -40666,7 +40665,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="241">
         <v>1039</v>
       </c>
@@ -40691,26 +40690,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004FD8CECCB51EC843BF514AFE68379818" ma:contentTypeVersion="18" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="eda339f53f012ceb64677667a741b441">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="107e75b3-53cc-4838-92d2-ebc011bd4832" xmlns:ns3="888ccf44-0d39-41a2-ab17-f7efb2bf6977" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04a86f3db711706e561c315688f1c464" ns2:_="" ns3:_="">
     <xsd:import namespace="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
@@ -40959,32 +40938,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B21D61-7BBD-4BD3-A9A5-1E8F98F2F686}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
-    <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="107e75b3-53cc-4838-92d2-ebc011bd4832">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="888ccf44-0d39-41a2-ab17-f7efb2bf6977" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F91B7B9-75FF-4624-B506-952B5B54766C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41001,4 +40975,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B21D61-7BBD-4BD3-A9A5-1E8F98F2F686}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2288FB7-E85A-4FE8-9E7A-FE572FF16064}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="888ccf44-0d39-41a2-ab17-f7efb2bf6977"/>
+    <ds:schemaRef ds:uri="107e75b3-53cc-4838-92d2-ebc011bd4832"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>